--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A897C-5F5F-0C42-A41E-D9598752C4A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C95CFA-9C24-4D4E-A593-235134B5A7EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -2196,9 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2269,7 +2269,8 @@
       </c>
       <c r="K2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D2&amp;""" .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
@@ -2278,11 +2279,12 @@
     crm:P14 """&amp;G2&amp;""" ;
     crm:P67 &lt;"&amp;J2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H2&amp;""" ;
-        crm:P115 """&amp;I2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:33
-    rdf:type crm:E1 .
+        crm:P116 """&amp;O2&amp;""" ;
+        crm:P115 """&amp;P2&amp;""" 
+    ] ."</f>
+        <v>ifcp:33
+    rdf:type crm:E1 ;
+    rdfs:label "日立風流物" .
 &lt;http://example.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
@@ -2291,9 +2293,9 @@
     crm:P14 "日立郷土芸能保存会" ;
     crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-07" ;
-        crm:P115 "2018-04-08" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="409.6">

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C95CFA-9C24-4D4E-A593-235134B5A7EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EE1A6-166B-154E-9159-0EE6BEA3FBBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14720" yWindow="460" windowWidth="14080" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="394">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1126,12 +1126,348 @@
     <t>2018-07-07</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>日立市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>那須烏山市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秩父市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高岡市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高山市</t>
+    <rPh sb="0" eb="1">
+      <t>タカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高山市</t>
+    <rPh sb="0" eb="2">
+      <t>タカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>長浜市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>福岡市博多</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>青森市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>弘前市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>福島市松川町金沢地区</t>
+    <rPh sb="0" eb="1">
+      <t>フクシマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>飛騨市古川町</t>
+    <rPh sb="0" eb="3">
+      <t>フルカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>津島市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>豊橋市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北九州市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>唐津市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南会津町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>七尾市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>府中町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>弘前市</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロサキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>一関市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>男鹿市、潟上市</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>木津川市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>仙北市角館</t>
+    <rPh sb="0" eb="2">
+      <t>カクノダテ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日野町</t>
+  </si>
+  <si>
+    <t>南房総市千倉町白間津</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミボウソウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>真鶴町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日田市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒタシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋田市土崎</t>
+    <rPh sb="0" eb="1">
+      <t>アキタシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魚津市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>四日市市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大宜味村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苅田町白川地区</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>村上市</t>
+  </si>
+  <si>
+    <t>滑川市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>牧之原市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>古座町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>片品村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>寺家町、七尾市鵜浦町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>磐田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南砺市</t>
+    <rPh sb="0" eb="2">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>伊賀市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿沼市今宮町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>八戸市</t>
+    <rPh sb="0" eb="1">
+      <t>ハチノヘシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>香取市佐原</t>
+    <rPh sb="0" eb="2">
+      <t>サワラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>川越市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>館山市茂名</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>野洲市三上</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>犬山市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>半田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桑名市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新庄市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>富士吉田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>蟹江町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>赤穂市</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿角市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鶴岡市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大垣市</t>
+    <rPh sb="0" eb="1">
+      <t>オオガキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>那智勝浦町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大津市</t>
+    <rPh sb="0" eb="1">
+      <t>オオツシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡山市</t>
+    <rPh sb="0" eb="1">
+      <t>オカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新宮市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北茨城市</t>
+    <rPh sb="0" eb="1">
+      <t>キタイバラキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南魚沼市</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミウオヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>村上市</t>
+    <rPh sb="0" eb="1">
+      <t>ムラカミシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1299,6 +1635,23 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF080000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0A0A03"/>
+      <name val="-webkit-standard"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1777,7 +2130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,6 +2190,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2196,9 +2558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2255,6 +2617,9 @@
       <c r="E2" t="s">
         <v>92</v>
       </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
       <c r="G2" t="s">
         <v>108</v>
       </c>
@@ -2289,7 +2654,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
     crm:P7 "茨城県" ;
-    crm:P7 "" ;
+    crm:P7 "日立市" ;
     crm:P14 "日立郷土芸能保存会" ;
     crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4 [
@@ -2312,6 +2677,9 @@
       <c r="E3" t="s">
         <v>93</v>
       </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
       <c r="G3" t="s">
         <v>109</v>
       </c>
@@ -2326,7 +2694,8 @@
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K66" si="0">"ifcp:"&amp;A3&amp;"
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D3&amp;""" .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
@@ -2335,22 +2704,23 @@
     crm:P14 """&amp;G3&amp;""" ;
     crm:P67 &lt;"&amp;J3&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H3&amp;""" ;
-        crm:P115 """&amp;I3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:63
-    rdf:type crm:E1 .
+        crm:P116 """&amp;O3&amp;""" ;
+        crm:P115 """&amp;P3&amp;""" 
+    ] ."</f>
+        <v>ifcp:63
+    rdf:type crm:E1 ;
+    rdfs:label "烏山の山あげ行事" .
 &lt;http://example.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:63 ;
     crm:P7 "栃木県" ;
-    crm:P7 "" ;
+    crm:P7 "那須烏山市" ;
     crm:P14 "烏山山あげ保存会" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-26" ;
-        crm:P115 "2018-07-29" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6">
@@ -2367,6 +2737,9 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
       <c r="G4" t="s">
         <v>110</v>
       </c>
@@ -2381,19 +2754,20 @@
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:64
-    rdf:type crm:E1 .
+        <v>ifcp:64
+    rdf:type crm:E1 ;
+    rdfs:label "秩父祭の屋台行事と神楽" .
 &lt;http://example.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:64 ;
     crm:P7 "埼玉県" ;
-    crm:P7 "" ;
+    crm:P7 "秩父市" ;
     crm:P14 "秩父祭保存委員会" ;
     crm:P67 &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-12-03" ;
-        crm:P115 "2018-12-03" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.6">
@@ -2410,6 +2784,9 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
       <c r="G5" t="s">
         <v>111</v>
       </c>
@@ -2424,19 +2801,20 @@
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:66
-    rdf:type crm:E1 .
+        <v>ifcp:66
+    rdf:type crm:E1 ;
+    rdfs:label "高岡御車山祭の御車山行事" .
 &lt;http://example.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:66 ;
     crm:P7 "富山県" ;
-    crm:P7 "" ;
+    crm:P7 "高岡市" ;
     crm:P14 "高岡御車山保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-05-01" ;
-        crm:P115 "2018-05-01" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="409.6">
@@ -2455,7 +2833,9 @@
       <c r="E6" t="s">
         <v>94</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
       <c r="G6" t="s">
         <v>112</v>
       </c>
@@ -2470,19 +2850,20 @@
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:69
-    rdf:type crm:E1 .
+        <v>ifcp:69
+    rdf:type crm:E1 ;
+    rdfs:label "高山祭の屋台行事" .
 &lt;http://example.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
     crm:P7 "岐阜県" ;
-    crm:P7 "" ;
+    crm:P7 "高山市" ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-14" ;
-        crm:P115 "2018-04-15" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="409.6">
@@ -2501,7 +2882,9 @@
       <c r="E7" t="s">
         <v>94</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>331</v>
+      </c>
       <c r="G7" t="s">
         <v>112</v>
       </c>
@@ -2516,19 +2899,20 @@
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:69
-    rdf:type crm:E1 .
+        <v>ifcp:69
+    rdf:type crm:E1 ;
+    rdfs:label "高山祭の屋台行事" .
 &lt;http://example.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
     crm:P7 "岐阜県" ;
-    crm:P7 "" ;
+    crm:P7 "高山市" ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-09" ;
-        crm:P115 "2018-10-10" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.6">
@@ -2545,6 +2929,9 @@
       <c r="E8" t="s">
         <v>95</v>
       </c>
+      <c r="F8" t="s">
+        <v>332</v>
+      </c>
       <c r="G8" t="s">
         <v>113</v>
       </c>
@@ -2559,19 +2946,20 @@
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:71
-    rdf:type crm:E1 .
+        <v>ifcp:71
+    rdf:type crm:E1 ;
+    rdfs:label "長浜曳山祭の曳山行事" .
 &lt;http://example.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:71 ;
     crm:P7 "滋賀県" ;
-    crm:P7 "" ;
+    crm:P7 "長浜市" ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
     crm:P67 &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-13" ;
-        crm:P115 "2018-04-16" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.6">
@@ -2588,6 +2976,9 @@
       <c r="E9" t="s">
         <v>96</v>
       </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
       <c r="G9" t="s">
         <v>114</v>
       </c>
@@ -2602,19 +2993,20 @@
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:72
-    rdf:type crm:E1 .
+        <v>ifcp:72
+    rdf:type crm:E1 ;
+    rdfs:label "京都祇園祭の山鉾行事" .
 &lt;http://example.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:72 ;
     crm:P7 "京都府" ;
-    crm:P7 "" ;
+    crm:P7 "京都市" ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
     crm:P67 &lt;https://kyoto-design.jp/event/35063&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-01" ;
-        crm:P115 "2018-07-31" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6">
@@ -2631,6 +3023,9 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
+      <c r="F10" t="s">
+        <v>334</v>
+      </c>
       <c r="G10" t="s">
         <v>115</v>
       </c>
@@ -2645,19 +3040,20 @@
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:79
-    rdf:type crm:E1 .
+        <v>ifcp:79
+    rdf:type crm:E1 ;
+    rdfs:label "博多祇園山笠行事" .
 &lt;http://example.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:79 ;
     crm:P7 "福岡県" ;
-    crm:P7 "" ;
+    crm:P7 "福岡市博多" ;
     crm:P14 "博多祇園山笠振興会" ;
     crm:P67 &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-01" ;
-        crm:P115 "2018-07-15" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6">
@@ -2674,6 +3070,9 @@
       <c r="E11" t="s">
         <v>97</v>
       </c>
+      <c r="F11" t="s">
+        <v>335</v>
+      </c>
       <c r="G11" t="s">
         <v>116</v>
       </c>
@@ -2688,19 +3087,20 @@
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:81
-    rdf:type crm:E1 .
+        <v>ifcp:81
+    rdf:type crm:E1 ;
+    rdfs:label "青森のねぶた" .
 &lt;http://example.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:81 ;
     crm:P7 "青森県" ;
-    crm:P7 "" ;
+    crm:P7 "青森市" ;
     crm:P14 "青森ねぶた祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-02" ;
-        crm:P115 "2018-08-07" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6">
@@ -2717,6 +3117,9 @@
       <c r="E12" t="s">
         <v>97</v>
       </c>
+      <c r="F12" t="s">
+        <v>336</v>
+      </c>
       <c r="G12" t="s">
         <v>117</v>
       </c>
@@ -2731,19 +3134,20 @@
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:82
-    rdf:type crm:E1 .
+        <v>ifcp:82
+    rdf:type crm:E1 ;
+    rdfs:label "弘前のねぷた" .
 &lt;http://example.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:82 ;
     crm:P7 "青森県" ;
-    crm:P7 "" ;
+    crm:P7 "弘前市" ;
     crm:P14 "弘前ねぷた保存会" ;
     crm:P67 &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-01" ;
-        crm:P115 "2018-08-07" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6">
@@ -2760,6 +3164,9 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
+      <c r="F13" t="s">
+        <v>337</v>
+      </c>
       <c r="G13" t="s">
         <v>118</v>
       </c>
@@ -2774,19 +3181,20 @@
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:84
-    rdf:type crm:E1 .
+        <v>ifcp:84
+    rdf:type crm:E1 ;
+    rdfs:label "秋田の竿灯" .
 &lt;http://example.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:84 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "秋田市" ;
     crm:P14 "秋田市竿灯会" ;
     crm:P67 &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-06" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6">
@@ -2803,6 +3211,9 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
+      <c r="F14" t="s">
+        <v>338</v>
+      </c>
       <c r="G14" t="s">
         <v>119</v>
       </c>
@@ -2817,19 +3228,20 @@
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:85
-    rdf:type crm:E1 .
+        <v>ifcp:85
+    rdf:type crm:E1 ;
+    rdfs:label "金沢の羽山ごもり" .
 &lt;http://example.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:85 ;
     crm:P7 "福島県" ;
-    crm:P7 "" ;
+    crm:P7 "福島市松川町金沢地区" ;
     crm:P14 "羽山ごもり保存会" ;
     crm:P67 &lt;https://fukuori.com/kitemina/event/124/&gt; ;
     crm:P4 [
-        crm:P116 "2018-01-02" ;
-        crm:P115 "2018-01-04" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.6">
@@ -2846,6 +3258,9 @@
       <c r="E15" t="s">
         <v>94</v>
       </c>
+      <c r="F15" t="s">
+        <v>339</v>
+      </c>
       <c r="G15" t="s">
         <v>120</v>
       </c>
@@ -2860,19 +3275,20 @@
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:90
-    rdf:type crm:E1 .
+        <v>ifcp:90
+    rdf:type crm:E1 ;
+    rdfs:label "古川祭の起し太鼓・屋台行事" .
 &lt;http://example.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:90 ;
     crm:P7 "岐阜県" ;
-    crm:P7 "" ;
+    crm:P7 "飛騨市古川町" ;
     crm:P14 "古川祭保存会" ;
     crm:P67 &lt;https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-19" ;
-        crm:P115 "2018-04-20" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="409.6">
@@ -2889,6 +3305,9 @@
       <c r="E16" t="s">
         <v>15</v>
       </c>
+      <c r="F16" t="s">
+        <v>340</v>
+      </c>
       <c r="G16" t="s">
         <v>121</v>
       </c>
@@ -2903,19 +3322,20 @@
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:91
-    rdf:type crm:E1 .
+        <v>ifcp:91
+    rdf:type crm:E1 ;
+    rdfs:label "尾張津島天王祭の車楽舟行事" .
 &lt;http://example.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:91 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "津島市" ;
     crm:P14 "尾張津島天王祭協賛会" ;
     crm:P67 &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
     crm:P4 [
-        crm:P116 "中止" ;
-        crm:P115 "中止" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="409.6">
@@ -2932,6 +3352,9 @@
       <c r="E17" t="s">
         <v>15</v>
       </c>
+      <c r="F17" t="s">
+        <v>341</v>
+      </c>
       <c r="G17" t="s">
         <v>122</v>
       </c>
@@ -2946,19 +3369,20 @@
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:92
-    rdf:type crm:E1 .
+        <v>ifcp:92
+    rdf:type crm:E1 ;
+    rdfs:label "豊橋神明社の鬼祭" .
 &lt;http://example.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:92 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "豊橋市" ;
     crm:P14 "豊橋鬼祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-02-10" ;
-        crm:P115 "2018-02-11" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="409.6">
@@ -2975,6 +3399,9 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
+      <c r="F18" t="s">
+        <v>342</v>
+      </c>
       <c r="G18" t="s">
         <v>123</v>
       </c>
@@ -2989,19 +3416,20 @@
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:95
-    rdf:type crm:E1 .
+        <v>ifcp:95
+    rdf:type crm:E1 ;
+    rdfs:label "戸畑祇園大山笠行事" .
 &lt;http://example.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:95 ;
     crm:P7 "福岡県" ;
-    crm:P7 "" ;
+    crm:P7 "北九州市" ;
     crm:P14 "戸畑祇園大山笠振興会" ;
     crm:P67 &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-27" ;
-        crm:P115 "2018-07-29" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="409.6">
@@ -3018,6 +3446,9 @@
       <c r="E19" t="s">
         <v>19</v>
       </c>
+      <c r="F19" t="s">
+        <v>343</v>
+      </c>
       <c r="G19" t="s">
         <v>124</v>
       </c>
@@ -3032,19 +3463,20 @@
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:96
-    rdf:type crm:E1 .
+        <v>ifcp:96
+    rdf:type crm:E1 ;
+    rdfs:label "唐津くんちの曳山行事" .
 &lt;http://example.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:96 ;
     crm:P7 "佐賀県" ;
-    crm:P7 "" ;
+    crm:P7 "唐津市" ;
     crm:P14 "唐津曳山取締会" ;
     crm:P67 &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
     crm:P4 [
-        crm:P116 "2018-11-02" ;
-        crm:P115 "2018-11-04" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="409.6">
@@ -3061,6 +3493,9 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
+      <c r="F20" t="s">
+        <v>344</v>
+      </c>
       <c r="G20" t="s">
         <v>125</v>
       </c>
@@ -3075,19 +3510,20 @@
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:100
-    rdf:type crm:E1 .
+        <v>ifcp:100
+    rdf:type crm:E1 ;
+    rdfs:label "田島祇園祭のおとうや行事" .
 &lt;http://example.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:100 ;
     crm:P7 "福島県" ;
-    crm:P7 "" ;
+    crm:P7 "南会津町" ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
     crm:P67 &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-22" ;
-        crm:P115 "2018-07-24" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="409.6">
@@ -3104,6 +3540,9 @@
       <c r="E21" t="s">
         <v>13</v>
       </c>
+      <c r="F21" t="s">
+        <v>345</v>
+      </c>
       <c r="G21" t="s">
         <v>126</v>
       </c>
@@ -3118,19 +3557,20 @@
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:102
-    rdf:type crm:E1 .
+        <v>ifcp:102
+    rdf:type crm:E1 ;
+    rdfs:label "熊甲二十日祭の枠旗行事" .
 &lt;http://example.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:102 ;
     crm:P7 "石川県" ;
-    crm:P7 "" ;
+    crm:P7 "七尾市" ;
     crm:P14 "お熊甲祭奉賛会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-20" ;
-        crm:P115 "2018-09-20" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="409.6">
@@ -3147,6 +3587,9 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
+      <c r="F22" t="s">
+        <v>346</v>
+      </c>
       <c r="G22" t="s">
         <v>127</v>
       </c>
@@ -3161,19 +3604,20 @@
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:114
-    rdf:type crm:E1 .
+        <v>ifcp:114
+    rdf:type crm:E1 ;
+    rdfs:label "青柏祭の曳山行事" .
 &lt;http://example.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:114 ;
     crm:P7 "石川県" ;
-    crm:P7 "" ;
+    crm:P7 "府中町" ;
     crm:P14 "青柏祭でか山保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
     crm:P4 [
-        crm:P116 "2018-05-03" ;
-        crm:P115 "2018-05-05" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="409.6">
@@ -3190,6 +3634,9 @@
       <c r="E23" t="s">
         <v>97</v>
       </c>
+      <c r="F23" t="s">
+        <v>347</v>
+      </c>
       <c r="G23" t="s">
         <v>128</v>
       </c>
@@ -3204,19 +3651,20 @@
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:120
-    rdf:type crm:E1 .
+        <v>ifcp:120
+    rdf:type crm:E1 ;
+    rdfs:label "岩木山の登拝行事" .
 &lt;http://example.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:120 ;
     crm:P7 "青森県" ;
-    crm:P7 "" ;
+    crm:P7 "弘前市" ;
     crm:P14 "お山参詣保存会" ;
     crm:P67 &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-08" ;
-        crm:P115 "2018-09-10" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="409.6">
@@ -3233,6 +3681,9 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
+      <c r="F24" t="s">
+        <v>348</v>
+      </c>
       <c r="G24" t="s">
         <v>129</v>
       </c>
@@ -3247,19 +3698,20 @@
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:122
-    rdf:type crm:E1 .
+        <v>ifcp:122
+    rdf:type crm:E1 ;
+    rdfs:label "室根神社祭のマツリバ行事" .
 &lt;http://example.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:122 ;
     crm:P7 "岩手県" ;
-    crm:P7 "" ;
+    crm:P7 "一関市" ;
     crm:P14 "室根神社祭保存会" ;
     crm:P67 &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-26" ;
-        crm:P115 "2018-10-28" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -3276,6 +3728,9 @@
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="F25" s="16" t="s">
+        <v>349</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>130</v>
       </c>
@@ -3283,19 +3738,20 @@
       <c r="I25" s="18"/>
       <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:126
-    rdf:type crm:E1 .
+        <v>ifcp:126
+    rdf:type crm:E1 ;
+    rdfs:label "東湖八坂神社のトウニン（統人）行事" .
 &lt;http://example.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:126 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "男鹿市、潟上市" ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="409.6">
@@ -3312,6 +3768,9 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
+      <c r="F26" t="s">
+        <v>350</v>
+      </c>
       <c r="G26" t="s">
         <v>131</v>
       </c>
@@ -3326,19 +3785,20 @@
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:129
-    rdf:type crm:E1 .
+        <v>ifcp:129
+    rdf:type crm:E1 ;
+    rdfs:label "涌出宮の宮座行事" .
 &lt;http://example.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:129 ;
     crm:P7 "京都府" ;
-    crm:P7 "" ;
+    crm:P7 "木津川市" ;
     crm:P14 "涌出宮宮座行事保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/26131.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-02-17" ;
-        crm:P115 "2018-02-18" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="409.6">
@@ -3355,6 +3815,9 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
+      <c r="F27" t="s">
+        <v>351</v>
+      </c>
       <c r="G27" t="s">
         <v>132</v>
       </c>
@@ -3369,19 +3832,20 @@
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:149
-    rdf:type crm:E1 .
+        <v>ifcp:149
+    rdf:type crm:E1 ;
+    rdfs:label "角館祭りのやま行事" .
 &lt;http://example.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:149 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "仙北市角館" ;
     crm:P14 "角館のお祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-07" ;
-        crm:P115 "2018-09-10" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="409.6">
@@ -3398,6 +3862,9 @@
       <c r="E28" t="s">
         <v>95</v>
       </c>
+      <c r="F28" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="G28" t="s">
         <v>133</v>
       </c>
@@ -3412,19 +3879,20 @@
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:150
-    rdf:type crm:E1 .
+        <v>ifcp:150
+    rdf:type crm:E1 ;
+    rdfs:label "近江中山の芋競べ祭り" .
 &lt;http://example.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:150 ;
     crm:P7 "滋賀県" ;
-    crm:P7 "" ;
+    crm:P7 "日野町" ;
     crm:P14 "芋くらべ祭保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/2586.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-02" ;
-        crm:P115 "2018-09-02" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="409.6">
@@ -3441,6 +3909,9 @@
       <c r="E29" t="s">
         <v>98</v>
       </c>
+      <c r="F29" t="s">
+        <v>353</v>
+      </c>
       <c r="G29" t="s">
         <v>134</v>
       </c>
@@ -3455,19 +3926,20 @@
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:153
-    rdf:type crm:E1 .
+        <v>ifcp:153
+    rdf:type crm:E1 ;
+    rdfs:label "白間津のオオマチ（大祭）行事" .
 &lt;http://example.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:153 ;
     crm:P7 "千葉県" ;
-    crm:P7 "" ;
+    crm:P7 "南房総市千倉町白間津" ;
     crm:P14 "白間津区" ;
     crm:P67 &lt;http://bosotown.com/archives/2319&gt; ;
     crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="409.6">
@@ -3484,6 +3956,9 @@
       <c r="E30" t="s">
         <v>93</v>
       </c>
+      <c r="F30" t="s">
+        <v>354</v>
+      </c>
       <c r="G30" t="s">
         <v>135</v>
       </c>
@@ -3498,19 +3973,20 @@
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:171
-    rdf:type crm:E1 .
+        <v>ifcp:171
+    rdf:type crm:E1 ;
+    rdfs:label "発光路の強飯式" .
 &lt;http://example.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:171 ;
     crm:P7 "栃木県" ;
-    crm:P7 "" ;
+    crm:P7 "鹿沼市" ;
     crm:P14 "発光路妙見神社青年部" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
     crm:P4 [
-        crm:P116 "2018-01-03" ;
-        crm:P115 "2018-01-03" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="409.6">
@@ -3527,6 +4003,9 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
+      <c r="F31" t="s">
+        <v>355</v>
+      </c>
       <c r="G31" t="s">
         <v>136</v>
       </c>
@@ -3541,19 +4020,20 @@
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:172
-    rdf:type crm:E1 .
+        <v>ifcp:172
+    rdf:type crm:E1 ;
+    rdfs:label "貴船神社の船祭り" .
 &lt;http://example.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:172 ;
     crm:P7 "神奈川県" ;
-    crm:P7 "" ;
+    crm:P7 "真鶴町" ;
     crm:P14 "貴船祭保存会" ;
     crm:P67 &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-27" ;
-        crm:P115 "2018-07-28" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="409.6">
@@ -3570,6 +4050,9 @@
       <c r="E32" t="s">
         <v>99</v>
       </c>
+      <c r="F32" t="s">
+        <v>356</v>
+      </c>
       <c r="G32" t="s">
         <v>137</v>
       </c>
@@ -3584,19 +4067,20 @@
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:176
-    rdf:type crm:E1 .
+        <v>ifcp:176
+    rdf:type crm:E1 ;
+    rdfs:label "日田祗園の曳山行事" .
 &lt;http://example.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:176 ;
     crm:P7 "大分県" ;
-    crm:P7 "" ;
+    crm:P7 "日田市" ;
     crm:P14 "日田祗園山鉾振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-21" ;
-        crm:P115 "2018-07-22" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="409.6">
@@ -3613,6 +4097,9 @@
       <c r="E33" t="s">
         <v>6</v>
       </c>
+      <c r="F33" t="s">
+        <v>357</v>
+      </c>
       <c r="G33" t="s">
         <v>138</v>
       </c>
@@ -3627,19 +4114,20 @@
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:178
-    rdf:type crm:E1 .
+        <v>ifcp:178
+    rdf:type crm:E1 ;
+    rdfs:label "土崎神明社祭の曳山行事" .
 &lt;http://example.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:178 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "秋田市土崎" ;
     crm:P14 "土崎神明社奉賛会" ;
     crm:P67 &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-20" ;
-        crm:P115 "2018-07-21" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -3656,6 +4144,9 @@
       <c r="E34" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="F34" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="G34" s="16" t="s">
         <v>139</v>
       </c>
@@ -3663,19 +4154,20 @@
       <c r="I34" s="18"/>
       <c r="K34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:180
-    rdf:type crm:E1 .
+        <v>ifcp:180
+    rdf:type crm:E1 ;
+    rdfs:label "魚津のタテモン行事" .
 &lt;http://example.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:180 ;
     crm:P7 "富山県" ;
-    crm:P7 "" ;
+    crm:P7 "魚津市" ;
     crm:P14 "魚津たてもん保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="409.6">
@@ -3692,6 +4184,9 @@
       <c r="E35" t="s">
         <v>16</v>
       </c>
+      <c r="F35" t="s">
+        <v>359</v>
+      </c>
       <c r="G35" t="s">
         <v>140</v>
       </c>
@@ -3706,19 +4201,20 @@
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:182
-    rdf:type crm:E1 .
+        <v>ifcp:182
+    rdf:type crm:E1 ;
+    rdfs:label "鳥出神社の鯨船行事" .
 &lt;http://example.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:182 ;
     crm:P7 "三重県" ;
-    crm:P7 "" ;
+    crm:P7 "四日市市" ;
     crm:P14 "富田鯨船保存会連合会" ;
     crm:P67 &lt;https://www.you-yokkaichi.com/2018/08/15/5133/&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-14" ;
-        crm:P115 "2018-08-15" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="409.6">
@@ -3735,6 +4231,9 @@
       <c r="E36" t="s">
         <v>20</v>
       </c>
+      <c r="F36" t="s">
+        <v>360</v>
+      </c>
       <c r="G36" t="s">
         <v>141</v>
       </c>
@@ -3749,19 +4248,20 @@
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:187
-    rdf:type crm:E1 .
+        <v>ifcp:187
+    rdf:type crm:E1 ;
+    rdfs:label "塩屋湾のウンガミ" .
 &lt;http://example.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:187 ;
     crm:P7 "沖縄県" ;
-    crm:P7 "" ;
+    crm:P7 "大宜味村" ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67 &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-04" ;
-        crm:P115 "2018-09-04" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="409.6">
@@ -3778,6 +4278,9 @@
       <c r="E37" t="s">
         <v>18</v>
       </c>
+      <c r="F37" t="s">
+        <v>361</v>
+      </c>
       <c r="G37" t="s">
         <v>142</v>
       </c>
@@ -3792,19 +4295,20 @@
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:192
-    rdf:type crm:E1 .
+        <v>ifcp:192
+    rdf:type crm:E1 ;
+    rdfs:label "等覚寺の松会" .
 &lt;http://example.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:192 ;
     crm:P7 "福岡県" ;
-    crm:P7 "" ;
+    crm:P7 " 苅田町白川地区" ;
     crm:P14 "等覚寺松会保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-15" ;
-        crm:P115 "2018-04-15" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -3821,6 +4325,9 @@
       <c r="E38" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="F38" s="21" t="s">
+        <v>362</v>
+      </c>
       <c r="G38" s="16" t="s">
         <v>143</v>
       </c>
@@ -3828,19 +4335,20 @@
       <c r="I38" s="18"/>
       <c r="K38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:197
-    rdf:type crm:E1 .
+        <v>ifcp:197
+    rdf:type crm:E1 ;
+    rdfs:label "山北のボタモチ祭り" .
 &lt;http://example.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:197 ;
     crm:P7 "新潟県" ;
-    crm:P7 "" ;
+    crm:P7 "村上市" ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="8" customFormat="1" ht="409.6">
@@ -3857,7 +4365,9 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39"/>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
       <c r="G39" t="s">
         <v>144</v>
       </c>
@@ -3872,19 +4382,20 @@
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:198
-    rdf:type crm:E1 .
+        <v>ifcp:198
+    rdf:type crm:E1 ;
+    rdfs:label "滑川のネブタ流し" .
 &lt;http://example.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:198 ;
     crm:P7 "富山県" ;
-    crm:P7 "" ;
+    crm:P7 "滑川市" ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
     crm:P67 &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-31" ;
-        crm:P115 "2018-07-31" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -3901,6 +4412,9 @@
       <c r="E40" s="16" t="s">
         <v>100</v>
       </c>
+      <c r="F40" s="16" t="s">
+        <v>364</v>
+      </c>
       <c r="G40" s="16" t="s">
         <v>145</v>
       </c>
@@ -3908,19 +4422,20 @@
       <c r="I40" s="18"/>
       <c r="K40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:199
-    rdf:type crm:E1 .
+        <v>ifcp:199
+    rdf:type crm:E1 ;
+    rdfs:label "大江八幡神社の御船行事" .
 &lt;http://example.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:199 ;
     crm:P7 "静岡県" ;
-    crm:P7 "" ;
+    crm:P7 "牧之原市" ;
     crm:P14 "大江氏子会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -3937,6 +4452,9 @@
       <c r="E41" s="16" t="s">
         <v>101</v>
       </c>
+      <c r="F41" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="G41" s="16" t="s">
         <v>146</v>
       </c>
@@ -3944,19 +4462,20 @@
       <c r="I41" s="18"/>
       <c r="K41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:201
-    rdf:type crm:E1 .
+        <v>ifcp:201
+    rdf:type crm:E1 ;
+    rdfs:label "河内祭の御舟行事" .
 &lt;http://example.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:201 ;
     crm:P7 "和歌山県" ;
-    crm:P7 "" ;
+    crm:P7 "古座町" ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="409.6">
@@ -3973,6 +4492,9 @@
       <c r="E42" t="s">
         <v>102</v>
       </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
       <c r="G42" t="s">
         <v>147</v>
       </c>
@@ -3987,19 +4509,20 @@
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:205
-    rdf:type crm:E1 .
+        <v>ifcp:205
+    rdf:type crm:E1 ;
+    rdfs:label "片品の猿追い祭" .
 &lt;http://example.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:205 ;
     crm:P7 "群馬県" ;
-    crm:P7 "" ;
+    crm:P7 "片品村" ;
     crm:P14 "猿追い祭保存会" ;
     crm:P67 &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-31" ;
-        crm:P115 "2018-10-31" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="409.6">
@@ -4016,6 +4539,9 @@
       <c r="E43" t="s">
         <v>13</v>
       </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
       <c r="G43" t="s">
         <v>148</v>
       </c>
@@ -4030,19 +4556,20 @@
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:206
-    rdf:type crm:E1 .
+        <v>ifcp:206
+    rdf:type crm:E1 ;
+    rdfs:label "気多の鵜祭の習俗" .
 &lt;http://example.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:206 ;
     crm:P7 "石川県" ;
-    crm:P7 "" ;
+    crm:P7 "寺家町、七尾市鵜浦町" ;
     crm:P14 "気多大社、鵜浦町会" ;
     crm:P67 &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-12-16" ;
-        crm:P115 "2018-12-16" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="409.6">
@@ -4059,6 +4586,9 @@
       <c r="E44" t="s">
         <v>100</v>
       </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
       <c r="G44" t="s">
         <v>149</v>
       </c>
@@ -4073,19 +4603,20 @@
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:208
-    rdf:type crm:E1 .
+        <v>ifcp:208
+    rdf:type crm:E1 ;
+    rdfs:label "見付天神裸祭" .
 &lt;http://example.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:208 ;
     crm:P7 "静岡県" ;
-    crm:P7 "" ;
+    crm:P7 "磐田市" ;
     crm:P14 "見付天神裸祭保存会" ;
     crm:P67 &lt;https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-09-15" ;
-        crm:P115 "2018-09-16" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="409.6">
@@ -4102,6 +4633,9 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
       <c r="G45" t="s">
         <v>150</v>
       </c>
@@ -4116,19 +4650,20 @@
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:215
-    rdf:type crm:E1 .
+        <v>ifcp:215
+    rdf:type crm:E1 ;
+    rdfs:label "城端神明宮祭の曳山行事" .
 &lt;http://example.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:215 ;
     crm:P7 "富山県" ;
-    crm:P7 "" ;
+    crm:P7 "南砺市" ;
     crm:P14 "城端曳山祭保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
     crm:P4 [
-        crm:P116 "2018-05-05" ;
-        crm:P115 "2018-05-05" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6">
@@ -4145,6 +4680,9 @@
       <c r="E46" t="s">
         <v>16</v>
       </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
       <c r="G46" t="s">
         <v>151</v>
       </c>
@@ -4159,19 +4697,20 @@
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:216
-    rdf:type crm:E1 .
+        <v>ifcp:216
+    rdf:type crm:E1 ;
+    rdfs:label "上野天神祭のダンジリ行事" .
 &lt;http://example.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:216 ;
     crm:P7 "三重県" ;
-    crm:P7 "" ;
+    crm:P7 "伊賀市" ;
     crm:P14 "上野文化美術保存会" ;
     crm:P67 &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-19" ;
-        crm:P115 "2018-10-21" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="409.6">
@@ -4188,6 +4727,9 @@
       <c r="E47" t="s">
         <v>93</v>
       </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
       <c r="G47" t="s">
         <v>152</v>
       </c>
@@ -4202,19 +4744,20 @@
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:219
-    rdf:type crm:E1 .
+        <v>ifcp:219
+    rdf:type crm:E1 ;
+    rdfs:label "鹿沼今宮神社祭の屋台行事" .
 &lt;http://example.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:219 ;
     crm:P7 "栃木県" ;
-    crm:P7 "" ;
+    crm:P7 "鹿沼市今宮町" ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-06" ;
-        crm:P115 "2018-10-07" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="409.6">
@@ -4231,6 +4774,9 @@
       <c r="E48" t="s">
         <v>97</v>
       </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
       <c r="G48" t="s">
         <v>153</v>
       </c>
@@ -4245,19 +4791,20 @@
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:220
-    rdf:type crm:E1 .
+        <v>ifcp:220
+    rdf:type crm:E1 ;
+    rdfs:label "八戸三社大祭の山車行事" .
 &lt;http://example.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:220 ;
     crm:P7 "青森県" ;
-    crm:P7 "" ;
+    crm:P7 "八戸市" ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-31" ;
-        crm:P115 "2018-08-04" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -4274,6 +4821,9 @@
       <c r="E49" s="16" t="s">
         <v>98</v>
       </c>
+      <c r="F49" s="16" t="s">
+        <v>373</v>
+      </c>
       <c r="G49" s="16" t="s">
         <v>154</v>
       </c>
@@ -4281,19 +4831,20 @@
       <c r="I49" s="18"/>
       <c r="K49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:226
-    rdf:type crm:E1 .
+        <v>ifcp:226
+    rdf:type crm:E1 ;
+    rdfs:label "佐原の山車行事" .
 &lt;http://example.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:226 ;
     crm:P7 "千葉県" ;
-    crm:P7 "" ;
+    crm:P7 "香取市佐原" ;
     crm:P14 "佐原山車行事伝承保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="409.6">
@@ -4310,6 +4861,9 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
       <c r="G50" t="s">
         <v>155</v>
       </c>
@@ -4324,19 +4878,20 @@
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:231
-    rdf:type crm:E1 .
+        <v>ifcp:231
+    rdf:type crm:E1 ;
+    rdfs:label "川越氷川祭の山車行事" .
 &lt;http://example.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:231 ;
     crm:P7 "埼玉県" ;
-    crm:P7 "" ;
+    crm:P7 "川越市" ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
     crm:P67 &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-20" ;
-        crm:P115 "2018-10-21" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="409.6">
@@ -4353,6 +4908,9 @@
       <c r="E51" t="s">
         <v>98</v>
       </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
       <c r="G51" t="s">
         <v>156</v>
       </c>
@@ -4367,19 +4925,20 @@
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:232
-    rdf:type crm:E1 .
+        <v>ifcp:232
+    rdf:type crm:E1 ;
+    rdfs:label "茂名の里芋祭" .
 &lt;http://example.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:232 ;
     crm:P7 "千葉県" ;
-    crm:P7 "" ;
+    crm:P7 "館山市茂名" ;
     crm:P14 "茂名区" ;
     crm:P67 &lt;http://nihonguide.net/maturi/1208.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-02-20" ;
-        crm:P115 "2018-02-20" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="409.6">
@@ -4396,6 +4955,9 @@
       <c r="E52" t="s">
         <v>95</v>
       </c>
+      <c r="F52" t="s">
+        <v>376</v>
+      </c>
       <c r="G52" t="s">
         <v>157</v>
       </c>
@@ -4410,19 +4972,20 @@
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:234
-    rdf:type crm:E1 .
+        <v>ifcp:234
+    rdf:type crm:E1 ;
+    rdfs:label "三上のずいき祭" .
 &lt;http://example.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:234 ;
     crm:P7 "滋賀県" ;
-    crm:P7 "" ;
+    crm:P7 "野洲市三上" ;
     crm:P14 "ずいき祭保存会" ;
     crm:P67 &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-08" ;
-        crm:P115 "2018-10-08" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="409.6">
@@ -4439,6 +5002,9 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
+      <c r="F53" t="s">
+        <v>377</v>
+      </c>
       <c r="G53" t="s">
         <v>158</v>
       </c>
@@ -4453,19 +5019,20 @@
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:243
-    rdf:type crm:E1 .
+        <v>ifcp:243
+    rdf:type crm:E1 ;
+    rdfs:label "犬山祭の車山行事" .
 &lt;http://example.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:243 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "犬山市" ;
     crm:P14 "犬山祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-04-07" ;
-        crm:P115 "2018-04-08" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="409.6">
@@ -4482,6 +5049,9 @@
       <c r="E54" t="s">
         <v>15</v>
       </c>
+      <c r="F54" t="s">
+        <v>378</v>
+      </c>
       <c r="G54" t="s">
         <v>159</v>
       </c>
@@ -4496,19 +5066,20 @@
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:244
-    rdf:type crm:E1 .
+        <v>ifcp:244
+    rdf:type crm:E1 ;
+    rdfs:label "亀崎潮干祭の山車行事" .
 &lt;http://example.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:244 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "半田市" ;
     crm:P14 "亀崎潮干祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-05-03" ;
-        crm:P115 "2018-05-04" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="409.6">
@@ -4525,6 +5096,9 @@
       <c r="E55" t="s">
         <v>16</v>
       </c>
+      <c r="F55" t="s">
+        <v>379</v>
+      </c>
       <c r="G55" t="s">
         <v>160</v>
       </c>
@@ -4539,19 +5113,20 @@
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:249
-    rdf:type crm:E1 .
+        <v>ifcp:249
+    rdf:type crm:E1 ;
+    rdfs:label "桑名石取祭の祭車行事" .
 &lt;http://example.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:249 ;
     crm:P7 "三重県" ;
-    crm:P7 "" ;
+    crm:P7 "桑名市" ;
     crm:P14 "桑名石取祭保存会" ;
     crm:P67 &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-05" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="409.6">
@@ -4568,6 +5143,9 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
+      <c r="F56" t="s">
+        <v>380</v>
+      </c>
       <c r="G56" t="s">
         <v>161</v>
       </c>
@@ -4582,19 +5160,20 @@
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:259
-    rdf:type crm:E1 .
+        <v>ifcp:259
+    rdf:type crm:E1 ;
+    rdfs:label "新庄まつりの山車行事" .
 &lt;http://example.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:259 ;
     crm:P7 "山形県" ;
-    crm:P7 "" ;
+    crm:P7 "新庄市" ;
     crm:P14 "新庄まつり山車行事保存会" ;
     crm:P67 &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-24" ;
-        crm:P115 "2018-08-26" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -4621,8 +5200,9 @@
       <c r="I57" s="18"/>
       <c r="K57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:270
-    rdf:type crm:E1 .
+        <v>ifcp:270
+    rdf:type crm:E1 ;
+    rdfs:label "小菅の柱松行事" .
 &lt;http://example.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:270 ;
@@ -4633,7 +5213,7 @@
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="409.6">
@@ -4667,8 +5247,9 @@
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:272
-    rdf:type crm:E1 .
+        <v>ifcp:272
+    rdf:type crm:E1 ;
+    rdfs:label "八代妙見祭の神幸行事" .
 &lt;http://example.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:272 ;
@@ -4677,9 +5258,9 @@
     crm:P14 "八代妙見祭保存振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-11-22" ;
-        crm:P115 "2018-11-23" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="409.6">
@@ -4696,6 +5277,9 @@
       <c r="E59" t="s">
         <v>104</v>
       </c>
+      <c r="F59" t="s">
+        <v>381</v>
+      </c>
       <c r="G59" t="s">
         <v>164</v>
       </c>
@@ -4710,19 +5294,20 @@
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:273
-    rdf:type crm:E1 .
+        <v>ifcp:273
+    rdf:type crm:E1 ;
+    rdfs:label "吉田の火祭" .
 &lt;http://example.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:273 ;
     crm:P7 "山梨県" ;
-    crm:P7 "" ;
+    crm:P7 "富士吉田市" ;
     crm:P14 "吉田の火祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-26" ;
-        crm:P115 "2018-08-26" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="409.6">
@@ -4739,6 +5324,9 @@
       <c r="E60" t="s">
         <v>15</v>
       </c>
+      <c r="F60" t="s">
+        <v>382</v>
+      </c>
       <c r="G60" t="s">
         <v>165</v>
       </c>
@@ -4753,19 +5341,20 @@
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:275
-    rdf:type crm:E1 .
+        <v>ifcp:275
+    rdf:type crm:E1 ;
+    rdfs:label "須成祭の車楽船行事と神葭流し" .
 &lt;http://example.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:275 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "蟹江町" ;
     crm:P14 "須成文化財保護委員会" ;
     crm:P67 &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-05" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="409.6">
@@ -4782,6 +5371,9 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
+      <c r="F61" t="s">
+        <v>383</v>
+      </c>
       <c r="G61" t="s">
         <v>166</v>
       </c>
@@ -4796,19 +5388,20 @@
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:276
-    rdf:type crm:E1 .
+        <v>ifcp:276
+    rdf:type crm:E1 ;
+    rdfs:label "坂越の船祭" .
 &lt;http://example.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:276 ;
     crm:P7 "兵庫県" ;
-    crm:P7 "" ;
+    crm:P7 "赤穂市" ;
     crm:P14 "坂越の船渡御祭保存会" ;
     crm:P67 &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-13" ;
-        crm:P115 "2018-10-14" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="409.6">
@@ -4825,6 +5418,9 @@
       <c r="E62" t="s">
         <v>6</v>
       </c>
+      <c r="F62" t="s">
+        <v>384</v>
+      </c>
       <c r="G62" t="s">
         <v>167</v>
       </c>
@@ -4839,19 +5435,20 @@
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:282
-    rdf:type crm:E1 .
+        <v>ifcp:282
+    rdf:type crm:E1 ;
+    rdfs:label "花輪祭の屋台行事" .
 &lt;http://example.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:282 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "鹿角市" ;
     crm:P14 "花輪ばやし祭典委員会" ;
     crm:P67 &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-19" ;
-        crm:P115 "2018-08-20" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="409.6">
@@ -4868,6 +5465,9 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
+      <c r="F63" t="s">
+        <v>385</v>
+      </c>
       <c r="G63" t="s">
         <v>168</v>
       </c>
@@ -4882,19 +5482,20 @@
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:283
-    rdf:type crm:E1 .
+        <v>ifcp:283
+    rdf:type crm:E1 ;
+    rdfs:label "松例祭の大松明行事" .
 &lt;http://example.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:283 ;
     crm:P7 "山形県" ;
-    crm:P7 "" ;
+    crm:P7 "鶴岡市" ;
     crm:P14 "松例祭保存会" ;
     crm:P67 &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
     crm:P4 [
-        crm:P116 "2018-12-31" ;
-        crm:P115 "2019-01-01" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="409.6">
@@ -4911,6 +5512,9 @@
       <c r="E64" t="s">
         <v>94</v>
       </c>
+      <c r="F64" t="s">
+        <v>386</v>
+      </c>
       <c r="G64" t="s">
         <v>169</v>
       </c>
@@ -4925,19 +5529,20 @@
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:288
-    rdf:type crm:E1 .
+        <v>ifcp:288
+    rdf:type crm:E1 ;
+    rdfs:label "大垣祭の軕行事" .
 &lt;http://example.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:288 ;
     crm:P7 "岐阜県" ;
-    crm:P7 "" ;
+    crm:P7 "大垣市" ;
     crm:P14 "大垣祭保存会" ;
     crm:P67 &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
     crm:P4 [
-        crm:P116 "2018-05-12" ;
-        crm:P115 "2018-05-13" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="409.6">
@@ -4954,6 +5559,9 @@
       <c r="E65" t="s">
         <v>101</v>
       </c>
+      <c r="F65" t="s">
+        <v>387</v>
+      </c>
       <c r="G65" t="s">
         <v>170</v>
       </c>
@@ -4968,19 +5576,20 @@
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:290
-    rdf:type crm:E1 .
+        <v>ifcp:290
+    rdf:type crm:E1 ;
+    rdfs:label "那智の扇祭り" .
 &lt;http://example.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:290 ;
     crm:P7 "和歌山県" ;
-    crm:P7 "" ;
+    crm:P7 "那智勝浦町" ;
     crm:P14 "那智の扇祭り保存会" ;
     crm:P67 &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-14" ;
-        crm:P115 "2018-07-14" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="409.6">
@@ -4997,6 +5606,9 @@
       <c r="E66" t="s">
         <v>95</v>
       </c>
+      <c r="F66" t="s">
+        <v>388</v>
+      </c>
       <c r="G66" t="s">
         <v>171</v>
       </c>
@@ -5011,19 +5623,20 @@
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:291
-    rdf:type crm:E1 .
+        <v>ifcp:291
+    rdf:type crm:E1 ;
+    rdfs:label "大津祭の曳山行事" .
 &lt;http://example.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:291 ;
     crm:P7 "滋賀県" ;
-    crm:P7 "" ;
+    crm:P7 "大津市" ;
     crm:P14 "大津祭保存会" ;
     crm:P67 &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-10-06" ;
-        crm:P115 "2018-10-07" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="16" customFormat="1" ht="409.6">
@@ -5039,6 +5652,9 @@
       </c>
       <c r="E67" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>172</v>
@@ -5047,7 +5663,8 @@
       <c r="I67" s="18"/>
       <c r="K67" s="4" t="str">
         <f t="shared" ref="K67:K71" si="1">"ifcp:"&amp;A67&amp;"
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D67&amp;""" .
 &lt;http://example.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
@@ -5056,22 +5673,23 @@
     crm:P14 """&amp;G67&amp;""" ;
     crm:P67 &lt;"&amp;J67&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H67&amp;""" ;
-        crm:P115 """&amp;I67&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:292
-    rdf:type crm:E1 .
+        crm:P116 """&amp;O67&amp;""" ;
+        crm:P115 """&amp;P67&amp;""" 
+    ] ."</f>
+        <v>ifcp:292
+    rdf:type crm:E1 ;
+    rdfs:label "新宮の速玉祭・御燈祭り" .
 &lt;http://example.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:292 ;
     crm:P7 "和歌山県" ;
-    crm:P7 "" ;
+    crm:P7 "新宮市" ;
     crm:P14 "熊野速玉大社祭事保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="409.6">
@@ -5088,6 +5706,9 @@
       <c r="E68" t="s">
         <v>105</v>
       </c>
+      <c r="F68" s="22" t="s">
+        <v>389</v>
+      </c>
       <c r="G68" t="s">
         <v>173</v>
       </c>
@@ -5102,19 +5723,20 @@
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:293
-    rdf:type crm:E1 .
+        <v>ifcp:293
+    rdf:type crm:E1 ;
+    rdfs:label "西大寺の会陽" .
 &lt;http://example.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:293 ;
     crm:P7 "岡山県" ;
-    crm:P7 "" ;
+    crm:P7 "岡山市" ;
     crm:P14 "西大寺会陽保存会" ;
     crm:P67 &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-02-17" ;
-        crm:P115 "2018-02-17" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="409.6">
@@ -5131,6 +5753,9 @@
       <c r="E69" t="s">
         <v>92</v>
       </c>
+      <c r="F69" t="s">
+        <v>391</v>
+      </c>
       <c r="G69" t="s">
         <v>174</v>
       </c>
@@ -5142,19 +5767,20 @@
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:295
-    rdf:type crm:E1 .
+        <v>ifcp:295
+    rdf:type crm:E1 ;
+    rdfs:label "常陸大津の御船祭" .
 &lt;http://example.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:295 ;
     crm:P7 "茨城県" ;
-    crm:P7 "" ;
+    crm:P7 "北茨城市" ;
     crm:P14 "常陸大津の御船祭保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="409.6">
@@ -5171,6 +5797,9 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
+      <c r="F70" t="s">
+        <v>392</v>
+      </c>
       <c r="G70" t="s">
         <v>175</v>
       </c>
@@ -5185,19 +5814,20 @@
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:301
-    rdf:type crm:E1 .
+        <v>ifcp:301
+    rdf:type crm:E1 ;
+    rdfs:label "浦佐毘沙門堂の裸押合" .
 &lt;http://example.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:301 ;
     crm:P7 "新潟県" ;
-    crm:P7 "" ;
+    crm:P7 "南魚沼市" ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67 &lt;https://www.wasshoikitaro.site/entry/hadakaoshiai2018&gt; ;
     crm:P4 [
-        crm:P116 "2018-03-03" ;
-        crm:P115 "2018-03-03" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="409.6">
@@ -5214,6 +5844,9 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
+      <c r="F71" t="s">
+        <v>393</v>
+      </c>
       <c r="G71" t="s">
         <v>176</v>
       </c>
@@ -5228,19 +5861,20 @@
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:302
-    rdf:type crm:E1 .
+        <v>ifcp:302
+    rdf:type crm:E1 ;
+    rdfs:label "村上祭の屋台行事" .
 &lt;http://example.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:302 ;
     crm:P7 "新潟県" ;
-    crm:P7 "" ;
+    crm:P7 "村上市" ;
     crm:P14 "村上まつり保存会" ;
     crm:P67 &lt;https://www.niikei.jp/19106/&gt; ;
     crm:P4 [
-        crm:P116 "2018-07-06" ;
-        crm:P115 "2018-07-07" 
-    ] . </v>
+        crm:P116 "" ;
+        crm:P115 "" 
+    ] .</v>
       </c>
     </row>
   </sheetData>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EE1A6-166B-154E-9159-0EE6BEA3FBBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E340A4-5980-F346-B55A-FC071DC778C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="460" windowWidth="14080" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -2560,7 +2560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2635,7 +2635,7 @@
       <c r="K2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;D2&amp;""" .
+    rdfs:label """&amp;D2&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
@@ -2644,12 +2644,12 @@
     crm:P14 """&amp;G2&amp;""" ;
     crm:P67 &lt;"&amp;J2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;O2&amp;""" ;
-        crm:P115 """&amp;P2&amp;""" 
+        crm:P116 """&amp;H2&amp;""" ;
+        crm:P115 """&amp;I2&amp;""" 
     ] ."</f>
         <v>ifcp:33
     rdf:type crm:E1 ;
-    rdfs:label "日立風流物" .
+    rdfs:label "日立風流物"@ja .
 &lt;http://example.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
@@ -2658,8 +2658,8 @@
     crm:P14 "日立郷土芸能保存会" ;
     crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-07" ;
+        crm:P115 "2018-04-08" 
     ] .</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K66" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;D3&amp;""" .
+    rdfs:label """&amp;D3&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
@@ -2704,12 +2704,12 @@
     crm:P14 """&amp;G3&amp;""" ;
     crm:P67 &lt;"&amp;J3&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;O3&amp;""" ;
-        crm:P115 """&amp;P3&amp;""" 
+        crm:P116 """&amp;H3&amp;""" ;
+        crm:P115 """&amp;I3&amp;""" 
     ] ."</f>
         <v>ifcp:63
     rdf:type crm:E1 ;
-    rdfs:label "烏山の山あげ行事" .
+    rdfs:label "烏山の山あげ行事"@ja .
 &lt;http://example.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:63 ;
@@ -2718,8 +2718,8 @@
     crm:P14 "烏山山あげ保存会" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-26" ;
+        crm:P115 "2018-07-29" 
     ] .</v>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdf:type crm:E1 ;
-    rdfs:label "秩父祭の屋台行事と神楽" .
+    rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;http://example.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:64 ;
@@ -2765,8 +2765,8 @@
     crm:P14 "秩父祭保存委員会" ;
     crm:P67 &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-12-03" ;
+        crm:P115 "2018-12-03" 
     ] .</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdf:type crm:E1 ;
-    rdfs:label "高岡御車山祭の御車山行事" .
+    rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;http://example.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:66 ;
@@ -2812,8 +2812,8 @@
     crm:P14 "高岡御車山保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-05-01" ;
+        crm:P115 "2018-05-01" 
     ] .</v>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdf:type crm:E1 ;
-    rdfs:label "高山祭の屋台行事" .
+    rdfs:label "高山祭の屋台行事"@ja .
 &lt;http://example.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
@@ -2861,8 +2861,8 @@
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-14" ;
+        crm:P115 "2018-04-15" 
     ] .</v>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdf:type crm:E1 ;
-    rdfs:label "高山祭の屋台行事" .
+    rdfs:label "高山祭の屋台行事"@ja .
 &lt;http://example.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
@@ -2910,8 +2910,8 @@
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-09" ;
+        crm:P115 "2018-10-10" 
     ] .</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdf:type crm:E1 ;
-    rdfs:label "長浜曳山祭の曳山行事" .
+    rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;http://example.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:71 ;
@@ -2957,8 +2957,8 @@
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
     crm:P67 &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-13" ;
+        crm:P115 "2018-04-16" 
     ] .</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdf:type crm:E1 ;
-    rdfs:label "京都祇園祭の山鉾行事" .
+    rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;http://example.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:72 ;
@@ -3004,8 +3004,8 @@
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
     crm:P67 &lt;https://kyoto-design.jp/event/35063&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-01" ;
+        crm:P115 "2018-07-31" 
     ] .</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdf:type crm:E1 ;
-    rdfs:label "博多祇園山笠行事" .
+    rdfs:label "博多祇園山笠行事"@ja .
 &lt;http://example.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:79 ;
@@ -3051,8 +3051,8 @@
     crm:P14 "博多祇園山笠振興会" ;
     crm:P67 &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-01" ;
+        crm:P115 "2018-07-15" 
     ] .</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdf:type crm:E1 ;
-    rdfs:label "青森のねぶた" .
+    rdfs:label "青森のねぶた"@ja .
 &lt;http://example.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:81 ;
@@ -3098,8 +3098,8 @@
     crm:P14 "青森ねぶた祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-02" ;
+        crm:P115 "2018-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdf:type crm:E1 ;
-    rdfs:label "弘前のねぷた" .
+    rdfs:label "弘前のねぷた"@ja .
 &lt;http://example.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:82 ;
@@ -3145,8 +3145,8 @@
     crm:P14 "弘前ねぷた保存会" ;
     crm:P67 &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-01" ;
+        crm:P115 "2018-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdf:type crm:E1 ;
-    rdfs:label "秋田の竿灯" .
+    rdfs:label "秋田の竿灯"@ja .
 &lt;http://example.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:84 ;
@@ -3192,8 +3192,8 @@
     crm:P14 "秋田市竿灯会" ;
     crm:P67 &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-04" ;
+        crm:P115 "2018-08-06" 
     ] .</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdf:type crm:E1 ;
-    rdfs:label "金沢の羽山ごもり" .
+    rdfs:label "金沢の羽山ごもり"@ja .
 &lt;http://example.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:85 ;
@@ -3239,8 +3239,8 @@
     crm:P14 "羽山ごもり保存会" ;
     crm:P67 &lt;https://fukuori.com/kitemina/event/124/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-01-02" ;
+        crm:P115 "2018-01-04" 
     ] .</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdf:type crm:E1 ;
-    rdfs:label "古川祭の起し太鼓・屋台行事" .
+    rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;http://example.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:90 ;
@@ -3286,8 +3286,8 @@
     crm:P14 "古川祭保存会" ;
     crm:P67 &lt;https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-19" ;
+        crm:P115 "2018-04-20" 
     ] .</v>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdf:type crm:E1 ;
-    rdfs:label "尾張津島天王祭の車楽舟行事" .
+    rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;http://example.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:91 ;
@@ -3333,8 +3333,8 @@
     crm:P14 "尾張津島天王祭協賛会" ;
     crm:P67 &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "中止" ;
+        crm:P115 "中止" 
     ] .</v>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdf:type crm:E1 ;
-    rdfs:label "豊橋神明社の鬼祭" .
+    rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;http://example.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:92 ;
@@ -3380,8 +3380,8 @@
     crm:P14 "豊橋鬼祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-02-10" ;
+        crm:P115 "2018-02-11" 
     ] .</v>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdf:type crm:E1 ;
-    rdfs:label "戸畑祇園大山笠行事" .
+    rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;http://example.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:95 ;
@@ -3427,8 +3427,8 @@
     crm:P14 "戸畑祇園大山笠振興会" ;
     crm:P67 &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-27" ;
+        crm:P115 "2018-07-29" 
     ] .</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdf:type crm:E1 ;
-    rdfs:label "唐津くんちの曳山行事" .
+    rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;http://example.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:96 ;
@@ -3474,8 +3474,8 @@
     crm:P14 "唐津曳山取締会" ;
     crm:P67 &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-11-02" ;
+        crm:P115 "2018-11-04" 
     ] .</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdf:type crm:E1 ;
-    rdfs:label "田島祇園祭のおとうや行事" .
+    rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;http://example.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:100 ;
@@ -3521,8 +3521,8 @@
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
     crm:P67 &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-22" ;
+        crm:P115 "2018-07-24" 
     ] .</v>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdf:type crm:E1 ;
-    rdfs:label "熊甲二十日祭の枠旗行事" .
+    rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;http://example.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:102 ;
@@ -3568,8 +3568,8 @@
     crm:P14 "お熊甲祭奉賛会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-20" ;
+        crm:P115 "2018-09-20" 
     ] .</v>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdf:type crm:E1 ;
-    rdfs:label "青柏祭の曳山行事" .
+    rdfs:label "青柏祭の曳山行事"@ja .
 &lt;http://example.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:114 ;
@@ -3615,8 +3615,8 @@
     crm:P14 "青柏祭でか山保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-05-03" ;
+        crm:P115 "2018-05-05" 
     ] .</v>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdf:type crm:E1 ;
-    rdfs:label "岩木山の登拝行事" .
+    rdfs:label "岩木山の登拝行事"@ja .
 &lt;http://example.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:120 ;
@@ -3662,8 +3662,8 @@
     crm:P14 "お山参詣保存会" ;
     crm:P67 &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-08" ;
+        crm:P115 "2018-09-10" 
     ] .</v>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdf:type crm:E1 ;
-    rdfs:label "室根神社祭のマツリバ行事" .
+    rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;http://example.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:122 ;
@@ -3709,8 +3709,8 @@
     crm:P14 "室根神社祭保存会" ;
     crm:P67 &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-26" ;
+        crm:P115 "2018-10-28" 
     ] .</v>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdf:type crm:E1 ;
-    rdfs:label "東湖八坂神社のトウニン（統人）行事" .
+    rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;http://example.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:126 ;
@@ -3787,7 +3787,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdf:type crm:E1 ;
-    rdfs:label "涌出宮の宮座行事" .
+    rdfs:label "涌出宮の宮座行事"@ja .
 &lt;http://example.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:129 ;
@@ -3796,8 +3796,8 @@
     crm:P14 "涌出宮宮座行事保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/26131.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-02-17" ;
+        crm:P115 "2018-02-18" 
     ] .</v>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdf:type crm:E1 ;
-    rdfs:label "角館祭りのやま行事" .
+    rdfs:label "角館祭りのやま行事"@ja .
 &lt;http://example.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:149 ;
@@ -3843,8 +3843,8 @@
     crm:P14 "角館のお祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-07" ;
+        crm:P115 "2018-09-10" 
     ] .</v>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdf:type crm:E1 ;
-    rdfs:label "近江中山の芋競べ祭り" .
+    rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;http://example.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:150 ;
@@ -3890,8 +3890,8 @@
     crm:P14 "芋くらべ祭保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/2586.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-02" ;
+        crm:P115 "2018-09-02" 
     ] .</v>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdf:type crm:E1 ;
-    rdfs:label "白間津のオオマチ（大祭）行事" .
+    rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;http://example.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:153 ;
@@ -3937,8 +3937,8 @@
     crm:P14 "白間津区" ;
     crm:P67 &lt;http://bosotown.com/archives/2319&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "開催せず" ;
+        crm:P115 "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdf:type crm:E1 ;
-    rdfs:label "発光路の強飯式" .
+    rdfs:label "発光路の強飯式"@ja .
 &lt;http://example.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:171 ;
@@ -3984,8 +3984,8 @@
     crm:P14 "発光路妙見神社青年部" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-01-03" ;
+        crm:P115 "2018-01-03" 
     ] .</v>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdf:type crm:E1 ;
-    rdfs:label "貴船神社の船祭り" .
+    rdfs:label "貴船神社の船祭り"@ja .
 &lt;http://example.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:172 ;
@@ -4031,8 +4031,8 @@
     crm:P14 "貴船祭保存会" ;
     crm:P67 &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-27" ;
+        crm:P115 "2018-07-28" 
     ] .</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdf:type crm:E1 ;
-    rdfs:label "日田祗園の曳山行事" .
+    rdfs:label "日田祗園の曳山行事"@ja .
 &lt;http://example.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:176 ;
@@ -4078,8 +4078,8 @@
     crm:P14 "日田祗園山鉾振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-21" ;
+        crm:P115 "2018-07-22" 
     ] .</v>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdf:type crm:E1 ;
-    rdfs:label "土崎神明社祭の曳山行事" .
+    rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;http://example.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:178 ;
@@ -4125,8 +4125,8 @@
     crm:P14 "土崎神明社奉賛会" ;
     crm:P67 &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-20" ;
+        crm:P115 "2018-07-21" 
     ] .</v>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdf:type crm:E1 ;
-    rdfs:label "魚津のタテモン行事" .
+    rdfs:label "魚津のタテモン行事"@ja .
 &lt;http://example.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:180 ;
@@ -4203,7 +4203,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdf:type crm:E1 ;
-    rdfs:label "鳥出神社の鯨船行事" .
+    rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;http://example.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:182 ;
@@ -4212,8 +4212,8 @@
     crm:P14 "富田鯨船保存会連合会" ;
     crm:P67 &lt;https://www.you-yokkaichi.com/2018/08/15/5133/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-14" ;
+        crm:P115 "2018-08-15" 
     ] .</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdf:type crm:E1 ;
-    rdfs:label "塩屋湾のウンガミ" .
+    rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;http://example.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:187 ;
@@ -4259,8 +4259,8 @@
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67 &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-04" ;
+        crm:P115 "2018-09-04" 
     ] .</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdf:type crm:E1 ;
-    rdfs:label "等覚寺の松会" .
+    rdfs:label "等覚寺の松会"@ja .
 &lt;http://example.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:192 ;
@@ -4306,8 +4306,8 @@
     crm:P14 "等覚寺松会保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-15" ;
+        crm:P115 "2018-04-15" 
     ] .</v>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdf:type crm:E1 ;
-    rdfs:label "山北のボタモチ祭り" .
+    rdfs:label "山北のボタモチ祭り"@ja .
 &lt;http://example.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:197 ;
@@ -4384,7 +4384,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdf:type crm:E1 ;
-    rdfs:label "滑川のネブタ流し" .
+    rdfs:label "滑川のネブタ流し"@ja .
 &lt;http://example.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:198 ;
@@ -4393,8 +4393,8 @@
     crm:P14 "中川原、常盤町一区・二区・三区" ;
     crm:P67 &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-31" ;
+        crm:P115 "2018-07-31" 
     ] .</v>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdf:type crm:E1 ;
-    rdfs:label "大江八幡神社の御船行事" .
+    rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;http://example.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:199 ;
@@ -4464,7 +4464,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdf:type crm:E1 ;
-    rdfs:label "河内祭の御舟行事" .
+    rdfs:label "河内祭の御舟行事"@ja .
 &lt;http://example.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:201 ;
@@ -4511,7 +4511,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdf:type crm:E1 ;
-    rdfs:label "片品の猿追い祭" .
+    rdfs:label "片品の猿追い祭"@ja .
 &lt;http://example.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:205 ;
@@ -4520,8 +4520,8 @@
     crm:P14 "猿追い祭保存会" ;
     crm:P67 &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-31" ;
+        crm:P115 "2018-10-31" 
     ] .</v>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdf:type crm:E1 ;
-    rdfs:label "気多の鵜祭の習俗" .
+    rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;http://example.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:206 ;
@@ -4567,8 +4567,8 @@
     crm:P14 "気多大社、鵜浦町会" ;
     crm:P67 &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-12-16" ;
+        crm:P115 "2018-12-16" 
     ] .</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdf:type crm:E1 ;
-    rdfs:label "見付天神裸祭" .
+    rdfs:label "見付天神裸祭"@ja .
 &lt;http://example.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:208 ;
@@ -4614,8 +4614,8 @@
     crm:P14 "見付天神裸祭保存会" ;
     crm:P67 &lt;https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-09-15" ;
+        crm:P115 "2018-09-16" 
     ] .</v>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdf:type crm:E1 ;
-    rdfs:label "城端神明宮祭の曳山行事" .
+    rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;http://example.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:215 ;
@@ -4661,8 +4661,8 @@
     crm:P14 "城端曳山祭保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-05-05" ;
+        crm:P115 "2018-05-05" 
     ] .</v>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdf:type crm:E1 ;
-    rdfs:label "上野天神祭のダンジリ行事" .
+    rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;http://example.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:216 ;
@@ -4708,8 +4708,8 @@
     crm:P14 "上野文化美術保存会" ;
     crm:P67 &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-19" ;
+        crm:P115 "2018-10-21" 
     ] .</v>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdf:type crm:E1 ;
-    rdfs:label "鹿沼今宮神社祭の屋台行事" .
+    rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;http://example.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:219 ;
@@ -4755,8 +4755,8 @@
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-06" ;
+        crm:P115 "2018-10-07" 
     ] .</v>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdf:type crm:E1 ;
-    rdfs:label "八戸三社大祭の山車行事" .
+    rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;http://example.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:220 ;
@@ -4802,8 +4802,8 @@
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-31" ;
+        crm:P115 "2018-08-04" 
     ] .</v>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdf:type crm:E1 ;
-    rdfs:label "佐原の山車行事" .
+    rdfs:label "佐原の山車行事"@ja .
 &lt;http://example.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:226 ;
@@ -4880,7 +4880,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdf:type crm:E1 ;
-    rdfs:label "川越氷川祭の山車行事" .
+    rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;http://example.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:231 ;
@@ -4889,8 +4889,8 @@
     crm:P14 "川越氷川祭の山車行事保存会" ;
     crm:P67 &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-20" ;
+        crm:P115 "2018-10-21" 
     ] .</v>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdf:type crm:E1 ;
-    rdfs:label "茂名の里芋祭" .
+    rdfs:label "茂名の里芋祭"@ja .
 &lt;http://example.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:232 ;
@@ -4936,8 +4936,8 @@
     crm:P14 "茂名区" ;
     crm:P67 &lt;http://nihonguide.net/maturi/1208.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-02-20" ;
+        crm:P115 "2018-02-20" 
     ] .</v>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdf:type crm:E1 ;
-    rdfs:label "三上のずいき祭" .
+    rdfs:label "三上のずいき祭"@ja .
 &lt;http://example.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:234 ;
@@ -4983,8 +4983,8 @@
     crm:P14 "ずいき祭保存会" ;
     crm:P67 &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-08" ;
+        crm:P115 "2018-10-08" 
     ] .</v>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdf:type crm:E1 ;
-    rdfs:label "犬山祭の車山行事" .
+    rdfs:label "犬山祭の車山行事"@ja .
 &lt;http://example.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:243 ;
@@ -5030,8 +5030,8 @@
     crm:P14 "犬山祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-04-07" ;
+        crm:P115 "2018-04-08" 
     ] .</v>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdf:type crm:E1 ;
-    rdfs:label "亀崎潮干祭の山車行事" .
+    rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;http://example.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:244 ;
@@ -5077,8 +5077,8 @@
     crm:P14 "亀崎潮干祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-05-03" ;
+        crm:P115 "2018-05-04" 
     ] .</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdf:type crm:E1 ;
-    rdfs:label "桑名石取祭の祭車行事" .
+    rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;http://example.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:249 ;
@@ -5124,8 +5124,8 @@
     crm:P14 "桑名石取祭保存会" ;
     crm:P67 &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-04" ;
+        crm:P115 "2018-08-05" 
     ] .</v>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdf:type crm:E1 ;
-    rdfs:label "新庄まつりの山車行事" .
+    rdfs:label "新庄まつりの山車行事"@ja .
 &lt;http://example.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:259 ;
@@ -5171,8 +5171,8 @@
     crm:P14 "新庄まつり山車行事保存会" ;
     crm:P67 &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-24" ;
+        crm:P115 "2018-08-26" 
     ] .</v>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdf:type crm:E1 ;
-    rdfs:label "小菅の柱松行事" .
+    rdfs:label "小菅の柱松行事"@ja .
 &lt;http://example.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:270 ;
@@ -5249,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdf:type crm:E1 ;
-    rdfs:label "八代妙見祭の神幸行事" .
+    rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;http://example.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:272 ;
@@ -5258,8 +5258,8 @@
     crm:P14 "八代妙見祭保存振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-11-22" ;
+        crm:P115 "2018-11-23" 
     ] .</v>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdf:type crm:E1 ;
-    rdfs:label "吉田の火祭" .
+    rdfs:label "吉田の火祭"@ja .
 &lt;http://example.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:273 ;
@@ -5305,8 +5305,8 @@
     crm:P14 "吉田の火祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-26" ;
+        crm:P115 "2018-08-26" 
     ] .</v>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdf:type crm:E1 ;
-    rdfs:label "須成祭の車楽船行事と神葭流し" .
+    rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;http://example.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:275 ;
@@ -5352,8 +5352,8 @@
     crm:P14 "須成文化財保護委員会" ;
     crm:P67 &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-04" ;
+        crm:P115 "2018-08-05" 
     ] .</v>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdf:type crm:E1 ;
-    rdfs:label "坂越の船祭" .
+    rdfs:label "坂越の船祭"@ja .
 &lt;http://example.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:276 ;
@@ -5399,8 +5399,8 @@
     crm:P14 "坂越の船渡御祭保存会" ;
     crm:P67 &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-13" ;
+        crm:P115 "2018-10-14" 
     ] .</v>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdf:type crm:E1 ;
-    rdfs:label "花輪祭の屋台行事" .
+    rdfs:label "花輪祭の屋台行事"@ja .
 &lt;http://example.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:282 ;
@@ -5446,8 +5446,8 @@
     crm:P14 "花輪ばやし祭典委員会" ;
     crm:P67 &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-08-19" ;
+        crm:P115 "2018-08-20" 
     ] .</v>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdf:type crm:E1 ;
-    rdfs:label "松例祭の大松明行事" .
+    rdfs:label "松例祭の大松明行事"@ja .
 &lt;http://example.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:283 ;
@@ -5493,8 +5493,8 @@
     crm:P14 "松例祭保存会" ;
     crm:P67 &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-12-31" ;
+        crm:P115 "2019-01-01" 
     ] .</v>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdf:type crm:E1 ;
-    rdfs:label "大垣祭の軕行事" .
+    rdfs:label "大垣祭の軕行事"@ja .
 &lt;http://example.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:288 ;
@@ -5540,8 +5540,8 @@
     crm:P14 "大垣祭保存会" ;
     crm:P67 &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-05-12" ;
+        crm:P115 "2018-05-13" 
     ] .</v>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdf:type crm:E1 ;
-    rdfs:label "那智の扇祭り" .
+    rdfs:label "那智の扇祭り"@ja .
 &lt;http://example.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:290 ;
@@ -5587,8 +5587,8 @@
     crm:P14 "那智の扇祭り保存会" ;
     crm:P67 &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-14" ;
+        crm:P115 "2018-07-14" 
     ] .</v>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdf:type crm:E1 ;
-    rdfs:label "大津祭の曳山行事" .
+    rdfs:label "大津祭の曳山行事"@ja .
 &lt;http://example.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:291 ;
@@ -5634,8 +5634,8 @@
     crm:P14 "大津祭保存会" ;
     crm:P67 &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-10-06" ;
+        crm:P115 "2018-10-07" 
     ] .</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       <c r="K67" s="4" t="str">
         <f t="shared" ref="K67:K71" si="1">"ifcp:"&amp;A67&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;D67&amp;""" .
+    rdfs:label """&amp;D67&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
@@ -5673,12 +5673,12 @@
     crm:P14 """&amp;G67&amp;""" ;
     crm:P67 &lt;"&amp;J67&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;O67&amp;""" ;
-        crm:P115 """&amp;P67&amp;""" 
+        crm:P116 """&amp;H67&amp;""" ;
+        crm:P115 """&amp;I67&amp;""" 
     ] ."</f>
         <v>ifcp:292
     rdf:type crm:E1 ;
-    rdfs:label "新宮の速玉祭・御燈祭り" .
+    rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;http://example.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:292 ;
@@ -5725,7 +5725,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdf:type crm:E1 ;
-    rdfs:label "西大寺の会陽" .
+    rdfs:label "西大寺の会陽"@ja .
 &lt;http://example.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:293 ;
@@ -5734,8 +5734,8 @@
     crm:P14 "西大寺会陽保存会" ;
     crm:P67 &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-02-17" ;
+        crm:P115 "2018-02-17" 
     ] .</v>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdf:type crm:E1 ;
-    rdfs:label "常陸大津の御船祭" .
+    rdfs:label "常陸大津の御船祭"@ja .
 &lt;http://example.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:295 ;
@@ -5778,8 +5778,8 @@
     crm:P14 "常陸大津の御船祭保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "開催せず" ;
+        crm:P115 "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdf:type crm:E1 ;
-    rdfs:label "浦佐毘沙門堂の裸押合" .
+    rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;http://example.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:301 ;
@@ -5825,8 +5825,8 @@
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67 &lt;https://www.wasshoikitaro.site/entry/hadakaoshiai2018&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-03-03" ;
+        crm:P115 "2018-03-03" 
     ] .</v>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdf:type crm:E1 ;
-    rdfs:label "村上祭の屋台行事" .
+    rdfs:label "村上祭の屋台行事"@ja .
 &lt;http://example.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:302 ;
@@ -5872,8 +5872,8 @@
     crm:P14 "村上まつり保存会" ;
     crm:P67 &lt;https://www.niikei.jp/19106/&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-07-06" ;
+        crm:P115 "2018-07-07" 
     ] .</v>
       </c>
     </row>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,30 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E340A4-5980-F346-B55A-FC071DC778C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7225325D-0E2A-C54F-BCFE-15A2D65F3C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$71</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="494">
   <si>
     <t>管理対象ID</t>
   </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>都道府県</t>
-  </si>
-  <si>
-    <t>所在地</t>
   </si>
   <si>
     <t>管理団体又は責任者</t>
@@ -1461,6 +1458,324 @@
       <t>ムラカミシ</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>都道府県URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C33000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C43000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C10000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C19000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C44000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08202-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09215-20120801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11207-20050401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C16202-20051101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21203-20050201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25203-20100101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26100-20041220</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C40132-19720401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02201-20070901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02202-20060227</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05201-20050111</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C07201-20080701</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21217-20040201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23208-19900401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23201-19990401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40100-20081001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41202-20060101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07368-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17202-20090901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03209-20170904</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05211-20050322</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26214-20070312</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C25383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12466-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09205-20120801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C44204-20050322</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16204-19890601</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24202-20001101</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47302-19780601</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40621-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15212-20080401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16206-19910325</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22226-20051011</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30423-20050401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C10443-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22211-20090217</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16210-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24216-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02203-20170101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12236-20060327</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11201-20030401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23215-19830301</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23205-19950901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24205-20041206</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06205-20050218</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20213-20000401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C43202-20050801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C19202-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23425-19960701</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28212-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05209-19980601</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06203-20180131</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21202-20091031</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30421-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25201-20090401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30207-20051001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C33201-20090401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08215-19981001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15226-20051001</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2198,6 +2513,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="42" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2556,24 +2874,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K71"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="8" max="9" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1">
+    <row r="1" spans="1:13" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2582,28 +2900,34 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.6">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="409.6">
       <c r="A2" s="11">
         <v>33</v>
       </c>
@@ -2612,58 +2936,72 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>326</v>
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="4" t="str">
+      <c r="L2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 """&amp;E2&amp;""" ;
-    crm:P7 """&amp;F2&amp;""" ;
-    crm:P14 """&amp;G2&amp;""" ;
-    crm:P67 &lt;"&amp;J2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;H2&amp;""" ;
-        crm:P115 """&amp;I2&amp;""" 
-    ] ."</f>
+    crm:P7 &lt;"&amp;F2&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
+    crm:P14 """&amp;I2&amp;""" ;
+    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;J2&amp;""" ;
+        crm:P115 """&amp;K2&amp;""" 
+    ] . 
+&lt;"&amp;F2&amp;"&gt;
+    rdfs:label """&amp;E2&amp;""".
+&lt;"&amp;H2&amp;"&gt;
+    rdfs:label """&amp;G2&amp;"""."</f>
         <v>ifcp:33
     rdf:type crm:E1 ;
     rdfs:label "日立風流物"@ja .
 &lt;http://example.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
-    crm:P7 "茨城県" ;
-    crm:P7 "日立市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
     crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt;
+    rdfs:label "茨城県".
+&lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt;
+    rdfs:label "日立市".</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.6">
       <c r="A3" s="11">
         <v>63</v>
       </c>
@@ -2672,58 +3010,72 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="0">"ifcp:"&amp;A3&amp;"
+      <c r="L3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ref="M3:M66" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 """&amp;E3&amp;""" ;
-    crm:P7 """&amp;F3&amp;""" ;
-    crm:P14 """&amp;G3&amp;""" ;
-    crm:P67 &lt;"&amp;J3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;H3&amp;""" ;
-        crm:P115 """&amp;I3&amp;""" 
-    ] ."</f>
+    crm:P7 &lt;"&amp;F3&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
+    crm:P14 """&amp;I3&amp;""" ;
+    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;J3&amp;""" ;
+        crm:P115 """&amp;K3&amp;""" 
+    ] . 
+&lt;"&amp;F3&amp;"&gt;
+    rdfs:label """&amp;E3&amp;""".
+&lt;"&amp;H3&amp;"&gt;
+    rdfs:label """&amp;G3&amp;"""."</f>
         <v>ifcp:63
     rdf:type crm:E1 ;
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;http://example.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:63 ;
-    crm:P7 "栃木県" ;
-    crm:P7 "那須烏山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
     crm:P4 [
         crm:P116 "2018-07-26" ;
         crm:P115 "2018-07-29" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
+    rdfs:label "栃木県".
+&lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt;
+    rdfs:label "那須烏山市".</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="409.6">
       <c r="A4" s="12">
         <v>64</v>
       </c>
@@ -2732,27 +3084,33 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="4" t="str">
+        <v>326</v>
+      </c>
+      <c r="H4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:64
     rdf:type crm:E1 ;
@@ -2760,17 +3118,21 @@
 &lt;http://example.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:64 ;
-    crm:P7 "埼玉県" ;
-    crm:P7 "秩父市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
     crm:P67 &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-03" ;
         crm:P115 "2018-12-03" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
+    rdfs:label "埼玉県".
+&lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt;
+    rdfs:label "秩父市".</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="409.6">
       <c r="A5" s="12">
         <v>66</v>
       </c>
@@ -2779,27 +3141,33 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="4" t="str">
+        <v>327</v>
+      </c>
+      <c r="H5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:66
     rdf:type crm:E1 ;
@@ -2807,17 +3175,21 @@
 &lt;http://example.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:66 ;
-    crm:P7 "富山県" ;
-    crm:P7 "高岡市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
     crm:P4 [
         crm:P116 "2018-05-01" ;
         crm:P115 "2018-05-01" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
+    rdfs:label "富山県".
+&lt;http://data.e-stat.go.jp/lod/page/sac/C16202-20051101&gt;
+    rdfs:label "高岡市".</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="11">
         <v>69</v>
       </c>
@@ -2828,27 +3200,33 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="J6" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="L6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdf:type crm:E1 ;
@@ -2856,17 +3234,21 @@
 &lt;http://example.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
-    crm:P7 "岐阜県" ;
-    crm:P7 "高山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-14" ;
         crm:P115 "2018-04-15" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
+    rdfs:label "岐阜県".
+&lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt;
+    rdfs:label "高山市".</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="409.6">
       <c r="A7" s="11">
         <v>69</v>
       </c>
@@ -2877,27 +3259,33 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J7" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="L7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:69
     rdf:type crm:E1 ;
@@ -2905,17 +3293,21 @@
 &lt;http://example.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
-    crm:P7 "岐阜県" ;
-    crm:P7 "高山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-09" ;
         crm:P115 "2018-10-10" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
+    rdfs:label "岐阜県".
+&lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt;
+    rdfs:label "高山市".</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.6">
       <c r="A8" s="11">
         <v>71</v>
       </c>
@@ -2924,27 +3316,33 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="L8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:71
     rdf:type crm:E1 ;
@@ -2952,17 +3350,21 @@
 &lt;http://example.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:71 ;
-    crm:P7 "滋賀県" ;
-    crm:P7 "長浜市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
     crm:P67 &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-13" ;
         crm:P115 "2018-04-16" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
+    rdfs:label "滋賀県".
+&lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt;
+    rdfs:label "長浜市".</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="409.6">
       <c r="A9" s="12">
         <v>72</v>
       </c>
@@ -2971,27 +3373,33 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="L9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:72
     rdf:type crm:E1 ;
@@ -2999,17 +3407,21 @@
 &lt;http://example.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:72 ;
-    crm:P7 "京都府" ;
-    crm:P7 "京都市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
     crm:P67 &lt;https://kyoto-design.jp/event/35063&gt; ;
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-31" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt;
+    rdfs:label "京都府".
+&lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt;
+    rdfs:label "京都市".</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="409.6">
       <c r="A10" s="11">
         <v>79</v>
       </c>
@@ -3018,27 +3430,33 @@
         <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="4" t="str">
+      <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:79
     rdf:type crm:E1 ;
@@ -3046,17 +3464,21 @@
 &lt;http://example.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:79 ;
-    crm:P7 "福岡県" ;
-    crm:P7 "福岡市博多" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
     crm:P67 &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-15" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
+    rdfs:label "福岡県".
+&lt;http://data.e-stat.go.jp/lod/page/sac/C40132-19720401&gt;
+    rdfs:label "福岡市博多".</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="409.6">
       <c r="A11" s="11">
         <v>81</v>
       </c>
@@ -3065,27 +3487,33 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="L11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:81
     rdf:type crm:E1 ;
@@ -3093,17 +3521,21 @@
 &lt;http://example.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:81 ;
-    crm:P7 "青森県" ;
-    crm:P7 "青森市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-02" ;
         crm:P115 "2018-08-07" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
+    rdfs:label "青森県".
+&lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt;
+    rdfs:label "青森市".</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="409.6">
       <c r="A12" s="12">
         <v>82</v>
       </c>
@@ -3112,27 +3544,33 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K12" s="4" t="str">
+      <c r="K12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:82
     rdf:type crm:E1 ;
@@ -3140,17 +3578,21 @@
 &lt;http://example.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:82 ;
-    crm:P7 "青森県" ;
-    crm:P7 "弘前市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
     crm:P67 &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
     crm:P4 [
         crm:P116 "2018-08-01" ;
         crm:P115 "2018-08-07" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
+    rdfs:label "青森県".
+&lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt;
+    rdfs:label "弘前市".</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="409.6">
       <c r="A13" s="12">
         <v>84</v>
       </c>
@@ -3159,27 +3601,33 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="4" t="str">
+      <c r="L13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:84
     rdf:type crm:E1 ;
@@ -3187,17 +3635,21 @@
 &lt;http://example.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:84 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "秋田市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
     crm:P67 &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-06" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt;
+    rdfs:label "秋田市".</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="409.6">
       <c r="A14" s="11">
         <v>85</v>
       </c>
@@ -3206,27 +3658,33 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="L14" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:85
     rdf:type crm:E1 ;
@@ -3234,17 +3692,21 @@
 &lt;http://example.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:85 ;
-    crm:P7 "福島県" ;
-    crm:P7 "福島市松川町金沢地区" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
     crm:P67 &lt;https://fukuori.com/kitemina/event/124/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-02" ;
         crm:P115 "2018-01-04" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
+    rdfs:label "福島県".
+&lt;http://data.e-stat.go.jp/lod/page/sac/C07201-20080701&gt;
+    rdfs:label "福島市松川町金沢地区".</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="409.6">
       <c r="A15" s="12">
         <v>90</v>
       </c>
@@ -3253,27 +3715,33 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15" s="4" t="str">
+      <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:90
     rdf:type crm:E1 ;
@@ -3281,17 +3749,21 @@
 &lt;http://example.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:90 ;
-    crm:P7 "岐阜県" ;
-    crm:P7 "飛騨市古川町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
     crm:P67 &lt;https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/&gt; ;
     crm:P4 [
         crm:P116 "2018-04-19" ;
         crm:P115 "2018-04-20" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
+    rdfs:label "岐阜県".
+&lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt;
+    rdfs:label "飛騨市古川町".</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="409.6">
       <c r="A16" s="11">
         <v>91</v>
       </c>
@@ -3300,27 +3772,33 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="4" t="str">
+        <v>338</v>
+      </c>
+      <c r="H16" t="s">
+        <v>440</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:91
     rdf:type crm:E1 ;
@@ -3328,17 +3806,21 @@
 &lt;http://example.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:91 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "津島市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
     crm:P67 &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
     crm:P4 [
         crm:P116 "中止" ;
         crm:P115 "中止" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt;
+    rdfs:label "津島市".</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.6">
       <c r="A17" s="12">
         <v>92</v>
       </c>
@@ -3347,27 +3829,33 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J17" t="s">
+        <v>339</v>
+      </c>
+      <c r="H17" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="L17" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:92
     rdf:type crm:E1 ;
@@ -3375,17 +3863,21 @@
 &lt;http://example.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:92 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "豊橋市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-10" ;
         crm:P115 "2018-02-11" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt;
+    rdfs:label "豊橋市".</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6">
       <c r="A18" s="11">
         <v>95</v>
       </c>
@@ -3394,27 +3886,33 @@
         <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>423</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" t="s">
-        <v>223</v>
-      </c>
-      <c r="K18" s="4" t="str">
+        <v>340</v>
+      </c>
+      <c r="H18" t="s">
+        <v>442</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>221</v>
+      </c>
+      <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:95
     rdf:type crm:E1 ;
@@ -3422,17 +3920,21 @@
 &lt;http://example.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:95 ;
-    crm:P7 "福岡県" ;
-    crm:P7 "北九州市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
     crm:P67 &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-29" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
+    rdfs:label "福岡県".
+&lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt;
+    rdfs:label "北九州市".</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.6">
       <c r="A19" s="12">
         <v>96</v>
       </c>
@@ -3441,27 +3943,33 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" t="s">
+        <v>443</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="L19" t="s">
+        <v>223</v>
+      </c>
+      <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:96
     rdf:type crm:E1 ;
@@ -3469,17 +3977,21 @@
 &lt;http://example.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:96 ;
-    crm:P7 "佐賀県" ;
-    crm:P7 "唐津市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
     crm:P67 &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
     crm:P4 [
         crm:P116 "2018-11-02" ;
         crm:P115 "2018-11-04" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt;
+    rdfs:label "佐賀県".
+&lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt;
+    rdfs:label "唐津市".</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.6">
       <c r="A20" s="12">
         <v>100</v>
       </c>
@@ -3488,27 +4000,33 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" t="s">
+        <v>444</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:100
     rdf:type crm:E1 ;
@@ -3516,17 +4034,21 @@
 &lt;http://example.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:100 ;
-    crm:P7 "福島県" ;
-    crm:P7 "南会津町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
     crm:P67 &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-22" ;
         crm:P115 "2018-07-24" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
+    rdfs:label "福島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt;
+    rdfs:label "南会津町".</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.6">
       <c r="A21" s="12">
         <v>102</v>
       </c>
@@ -3535,27 +4057,33 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="4" t="str">
+        <v>343</v>
+      </c>
+      <c r="H21" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:102
     rdf:type crm:E1 ;
@@ -3563,17 +4091,21 @@
 &lt;http://example.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:102 ;
-    crm:P7 "石川県" ;
-    crm:P7 "七尾市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
     crm:P4 [
         crm:P116 "2018-09-20" ;
         crm:P115 "2018-09-20" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
+    rdfs:label "石川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt;
+    rdfs:label "七尾市".</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="409.6">
       <c r="A22" s="12">
         <v>114</v>
       </c>
@@ -3582,27 +4114,33 @@
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J22" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" t="s">
+        <v>446</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K22" s="4" t="str">
+      <c r="L22" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:114
     rdf:type crm:E1 ;
@@ -3610,17 +4148,21 @@
 &lt;http://example.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:114 ;
-    crm:P7 "石川県" ;
-    crm:P7 "府中町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-05" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
+    rdfs:label "石川県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010&gt;
+    rdfs:label "府中町".</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.6">
       <c r="A23" s="12">
         <v>120</v>
       </c>
@@ -3629,27 +4171,33 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" t="s">
+        <v>436</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:120
     rdf:type crm:E1 ;
@@ -3657,17 +4205,21 @@
 &lt;http://example.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:120 ;
-    crm:P7 "青森県" ;
-    crm:P7 "弘前市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
     crm:P67 &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-08" ;
         crm:P115 "2018-09-10" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
+    rdfs:label "青森県".
+&lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt;
+    rdfs:label "弘前市".</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.6">
       <c r="A24" s="12">
         <v>122</v>
       </c>
@@ -3676,27 +4228,33 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" t="s">
+        <v>447</v>
+      </c>
+      <c r="I24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:122
     rdf:type crm:E1 ;
@@ -3704,17 +4262,21 @@
 &lt;http://example.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:122 ;
-    crm:P7 "岩手県" ;
-    crm:P7 "一関市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
     crm:P67 &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-26" ;
         crm:P115 "2018-10-28" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C03000-19700401&gt;
+    rdfs:label "岩手県".
+&lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt;
+    rdfs:label "一関市".</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A25" s="14">
         <v>126</v>
       </c>
@@ -3723,20 +4285,26 @@
         <v>22</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="K25" s="4" t="str">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:126
     rdf:type crm:E1 ;
@@ -3744,17 +4312,21 @@
 &lt;http://example.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:126 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "男鹿市、潟上市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt;
+    rdfs:label "男鹿市、潟上市".</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.6">
       <c r="A26" s="11">
         <v>129</v>
       </c>
@@ -3763,27 +4335,33 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J26" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" t="s">
+        <v>449</v>
+      </c>
+      <c r="I26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:129
     rdf:type crm:E1 ;
@@ -3791,17 +4369,21 @@
 &lt;http://example.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:129 ;
-    crm:P7 "京都府" ;
-    crm:P7 "木津川市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/26131.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-18" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt;
+    rdfs:label "京都府".
+&lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt;
+    rdfs:label "木津川市".</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.6">
       <c r="A27" s="11">
         <v>149</v>
       </c>
@@ -3810,27 +4392,33 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27" s="4" t="str">
+        <v>349</v>
+      </c>
+      <c r="H27" t="s">
+        <v>450</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:149
     rdf:type crm:E1 ;
@@ -3838,17 +4426,21 @@
 &lt;http://example.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:149 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "仙北市角館" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-07" ;
         crm:P115 "2018-09-10" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130&gt;
+    rdfs:label "仙北市角館".</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="409.6">
       <c r="A28" s="12">
         <v>150</v>
       </c>
@@ -3857,27 +4449,33 @@
         <v>95</v>
       </c>
       <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>411</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="4" t="str">
+      <c r="K28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:150
     rdf:type crm:E1 ;
@@ -3885,17 +4483,21 @@
 &lt;http://example.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:150 ;
-    crm:P7 "滋賀県" ;
-    crm:P7 "日野町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/2586.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-02" ;
         crm:P115 "2018-09-02" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
+    rdfs:label "滋賀県".
+&lt;http://data.e-stat.go.jp/lod/page/sac/C25383-19700401&gt;
+    rdfs:label "日野町".</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.6">
       <c r="A29" s="11">
         <v>153</v>
       </c>
@@ -3904,27 +4506,33 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" t="s">
-        <v>251</v>
-      </c>
-      <c r="K29" s="4" t="str">
+        <v>351</v>
+      </c>
+      <c r="H29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:153
     rdf:type crm:E1 ;
@@ -3932,17 +4540,21 @@
 &lt;http://example.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:153 ;
-    crm:P7 "千葉県" ;
-    crm:P7 "南房総市千倉町白間津" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
     crm:P67 &lt;http://bosotown.com/archives/2319&gt; ;
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
+    rdfs:label "千葉県".
+&lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt;
+    rdfs:label "南房総市千倉町白間津".</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="409.6">
       <c r="A30" s="11">
         <v>171</v>
       </c>
@@ -3951,27 +4563,33 @@
         <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K30" s="4" t="str">
+        <v>352</v>
+      </c>
+      <c r="H30" t="s">
+        <v>453</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:171
     rdf:type crm:E1 ;
@@ -3979,17 +4597,21 @@
 &lt;http://example.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:171 ;
-    crm:P7 "栃木県" ;
-    crm:P7 "鹿沼市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
     crm:P4 [
         crm:P116 "2018-01-03" ;
         crm:P115 "2018-01-03" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
+    rdfs:label "栃木県".
+&lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt;
+    rdfs:label "鹿沼市".</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.6">
       <c r="A31" s="12">
         <v>172</v>
       </c>
@@ -3998,27 +4620,33 @@
         <v>674</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J31" t="s">
-        <v>255</v>
-      </c>
-      <c r="K31" s="4" t="str">
+        <v>353</v>
+      </c>
+      <c r="H31" t="s">
+        <v>454</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:172
     rdf:type crm:E1 ;
@@ -4026,17 +4654,21 @@
 &lt;http://example.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:172 ;
-    crm:P7 "神奈川県" ;
-    crm:P7 "真鶴町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
     crm:P67 &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-28" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
+    rdfs:label "神奈川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt;
+    rdfs:label "真鶴町".</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="409.6">
       <c r="A32" s="12">
         <v>176</v>
       </c>
@@ -4045,27 +4677,33 @@
         <v>680</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" t="s">
-        <v>257</v>
-      </c>
-      <c r="K32" s="4" t="str">
+        <v>354</v>
+      </c>
+      <c r="H32" t="s">
+        <v>455</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:176
     rdf:type crm:E1 ;
@@ -4073,17 +4711,21 @@
 &lt;http://example.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:176 ;
-    crm:P7 "大分県" ;
-    crm:P7 "日田市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-21" ;
         crm:P115 "2018-07-22" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C44000-19700401&gt;
+    rdfs:label "大分県".
+&lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt;
+    rdfs:label "日田市".</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="409.6">
       <c r="A33" s="12">
         <v>178</v>
       </c>
@@ -4092,27 +4734,33 @@
         <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" t="s">
+        <v>437</v>
+      </c>
+      <c r="I33" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J33" t="s">
-        <v>259</v>
-      </c>
-      <c r="K33" s="4" t="str">
+      <c r="K33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:178
     rdf:type crm:E1 ;
@@ -4120,17 +4768,21 @@
 &lt;http://example.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:178 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "秋田市土崎" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
     crm:P67 &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-20" ;
         crm:P115 "2018-07-21" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt;
+    rdfs:label "秋田市土崎".</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A34" s="14">
         <v>180</v>
       </c>
@@ -4139,20 +4791,26 @@
         <v>676</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>358</v>
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>422</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="K34" s="4" t="str">
+        <v>356</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:180
     rdf:type crm:E1 ;
@@ -4160,17 +4818,21 @@
 &lt;http://example.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:180 ;
-    crm:P7 "富山県" ;
-    crm:P7 "魚津市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
+    rdfs:label "富山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt;
+    rdfs:label "魚津市".</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="409.6">
       <c r="A35" s="12">
         <v>182</v>
       </c>
@@ -4179,27 +4841,33 @@
         <v>678</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J35" t="s">
+        <v>357</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K35" s="4" t="str">
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:182
     rdf:type crm:E1 ;
@@ -4207,17 +4875,21 @@
 &lt;http://example.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:182 ;
-    crm:P7 "三重県" ;
-    crm:P7 "四日市市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
     crm:P67 &lt;https://www.you-yokkaichi.com/2018/08/15/5133/&gt; ;
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
+    rdfs:label "三重県".
+&lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt;
+    rdfs:label "四日市市".</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.6">
       <c r="A36" s="11">
         <v>187</v>
       </c>
@@ -4226,27 +4898,33 @@
         <v>682</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J36" t="s">
-        <v>264</v>
-      </c>
-      <c r="K36" s="4" t="str">
+        <v>358</v>
+      </c>
+      <c r="H36" t="s">
+        <v>458</v>
+      </c>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:187
     rdf:type crm:E1 ;
@@ -4254,17 +4932,21 @@
 &lt;http://example.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:187 ;
-    crm:P7 "沖縄県" ;
-    crm:P7 "大宜味村" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67 &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-04" ;
         crm:P115 "2018-09-04" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt;
+    rdfs:label "沖縄県".
+&lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt;
+    rdfs:label "大宜味村".</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="409.6">
       <c r="A37" s="12">
         <v>192</v>
       </c>
@@ -4273,27 +4955,33 @@
         <v>663</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J37" t="s">
-        <v>266</v>
-      </c>
-      <c r="K37" s="4" t="str">
+        <v>359</v>
+      </c>
+      <c r="H37" t="s">
+        <v>459</v>
+      </c>
+      <c r="I37" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:192
     rdf:type crm:E1 ;
@@ -4301,17 +4989,21 @@
 &lt;http://example.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:192 ;
-    crm:P7 "福岡県" ;
-    crm:P7 " 苅田町白川地区" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-15" ;
         crm:P115 "2018-04-15" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
+    rdfs:label "福岡県".
+&lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt;
+    rdfs:label " 苅田町白川地区".</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A38" s="19">
         <v>197</v>
       </c>
@@ -4320,20 +5012,26 @@
         <v>714</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="K38" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:197
     rdf:type crm:E1 ;
@@ -4341,17 +5039,21 @@
 &lt;http://example.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:197 ;
-    crm:P7 "新潟県" ;
-    crm:P7 "村上市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
+    rdfs:label "新潟県".
+&lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt;
+    rdfs:label "村上市".</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="8" customFormat="1" ht="409.6">
       <c r="A39" s="12">
         <v>198</v>
       </c>
@@ -4360,27 +5062,33 @@
         <v>715</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K39" s="4" t="str">
+        <v>361</v>
+      </c>
+      <c r="H39" t="s">
+        <v>461</v>
+      </c>
+      <c r="I39" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:198
     rdf:type crm:E1 ;
@@ -4388,17 +5096,21 @@
 &lt;http://example.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:198 ;
-    crm:P7 "富山県" ;
-    crm:P7 "滑川市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
     crm:P67 &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-07-31" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
+    rdfs:label "富山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt;
+    rdfs:label "滑川市".</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A40" s="19">
         <v>199</v>
       </c>
@@ -4407,20 +5119,26 @@
         <v>716</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="K40" s="4" t="str">
+        <v>362</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="M40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:199
     rdf:type crm:E1 ;
@@ -4428,17 +5146,21 @@
 &lt;http://example.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:199 ;
-    crm:P7 "静岡県" ;
-    crm:P7 "牧之原市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt;
+    rdfs:label "静岡県".
+&lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt;
+    rdfs:label "牧之原市".</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A41" s="19">
         <v>201</v>
       </c>
@@ -4447,20 +5169,26 @@
         <v>717</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="K41" s="4" t="str">
+        <v>363</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="M41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:201
     rdf:type crm:E1 ;
@@ -4468,17 +5196,21 @@
 &lt;http://example.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:201 ;
-    crm:P7 "和歌山県" ;
-    crm:P7 "古座町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
+    rdfs:label "和歌山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt;
+    rdfs:label "古座町".</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="409.6">
       <c r="A42" s="11">
         <v>205</v>
       </c>
@@ -4487,27 +5219,33 @@
         <v>736</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J42" t="s">
-        <v>268</v>
-      </c>
-      <c r="K42" s="4" t="str">
+        <v>364</v>
+      </c>
+      <c r="H42" t="s">
+        <v>464</v>
+      </c>
+      <c r="I42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:205
     rdf:type crm:E1 ;
@@ -4515,17 +5253,21 @@
 &lt;http://example.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:205 ;
-    crm:P7 "群馬県" ;
-    crm:P7 "片品村" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
     crm:P67 &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-31" ;
         crm:P115 "2018-10-31" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C10000-19700401&gt;
+    rdfs:label "群馬県".
+&lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt;
+    rdfs:label "片品村".</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="409.6">
       <c r="A43" s="12">
         <v>206</v>
       </c>
@@ -4534,27 +5276,33 @@
         <v>737</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="J43" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="4" t="str">
+        <v>365</v>
+      </c>
+      <c r="H43" t="s">
+        <v>465</v>
+      </c>
+      <c r="I43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s">
+        <v>268</v>
+      </c>
+      <c r="M43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:206
     rdf:type crm:E1 ;
@@ -4562,17 +5310,21 @@
 &lt;http://example.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:206 ;
-    crm:P7 "石川県" ;
-    crm:P7 "寺家町、七尾市鵜浦町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
     crm:P67 &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-16" ;
         crm:P115 "2018-12-16" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
+    rdfs:label "石川県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt;
+    rdfs:label "寺家町、七尾市鵜浦町".</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="409.6">
       <c r="A44" s="12">
         <v>208</v>
       </c>
@@ -4581,27 +5333,33 @@
         <v>738</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" t="s">
-        <v>368</v>
+        <v>98</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="H44" t="s">
+        <v>466</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K44" s="4" t="str">
+      <c r="L44" t="s">
+        <v>270</v>
+      </c>
+      <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:208
     rdf:type crm:E1 ;
@@ -4609,17 +5367,21 @@
 &lt;http://example.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:208 ;
-    crm:P7 "静岡県" ;
-    crm:P7 "磐田市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
     crm:P67 &lt;https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-15" ;
         crm:P115 "2018-09-16" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt;
+    rdfs:label "静岡県".
+&lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt;
+    rdfs:label "磐田市".</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="409.6">
       <c r="A45" s="11">
         <v>215</v>
       </c>
@@ -4628,27 +5390,33 @@
         <v>746</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J45" t="s">
-        <v>275</v>
-      </c>
-      <c r="K45" s="4" t="str">
+        <v>367</v>
+      </c>
+      <c r="H45" t="s">
+        <v>467</v>
+      </c>
+      <c r="I45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L45" t="s">
+        <v>273</v>
+      </c>
+      <c r="M45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:215
     rdf:type crm:E1 ;
@@ -4656,17 +5424,21 @@
 &lt;http://example.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:215 ;
-    crm:P7 "富山県" ;
-    crm:P7 "南砺市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
     crm:P4 [
         crm:P116 "2018-05-05" ;
         crm:P115 "2018-05-05" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
+    rdfs:label "富山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt;
+    rdfs:label "南砺市".</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="409.6">
       <c r="A46" s="12">
         <v>216</v>
       </c>
@@ -4675,27 +5447,33 @@
         <v>747</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H46" t="s">
+        <v>468</v>
+      </c>
+      <c r="I46" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K46" s="4" t="str">
+      <c r="L46" t="s">
+        <v>274</v>
+      </c>
+      <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:216
     rdf:type crm:E1 ;
@@ -4703,17 +5481,21 @@
 &lt;http://example.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:216 ;
-    crm:P7 "三重県" ;
-    crm:P7 "伊賀市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
     crm:P67 &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-19" ;
         crm:P115 "2018-10-21" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
+    rdfs:label "三重県".
+&lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt;
+    rdfs:label "伊賀市".</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="409.6">
       <c r="A47" s="11">
         <v>219</v>
       </c>
@@ -4722,27 +5504,33 @@
         <v>754</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H47" t="s">
+        <v>469</v>
+      </c>
+      <c r="I47" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="4" t="str">
+      <c r="L47" t="s">
+        <v>277</v>
+      </c>
+      <c r="M47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:219
     rdf:type crm:E1 ;
@@ -4750,17 +5538,21 @@
 &lt;http://example.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:219 ;
-    crm:P7 "栃木県" ;
-    crm:P7 "鹿沼市今宮町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
+    rdfs:label "栃木県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100&gt;
+    rdfs:label "鹿沼市今宮町".</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="409.6">
       <c r="A48" s="12">
         <v>220</v>
       </c>
@@ -4769,27 +5561,33 @@
         <v>764</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J48" t="s">
-        <v>282</v>
-      </c>
-      <c r="K48" s="4" t="str">
+        <v>370</v>
+      </c>
+      <c r="H48" t="s">
+        <v>470</v>
+      </c>
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:220
     rdf:type crm:E1 ;
@@ -4797,17 +5595,21 @@
 &lt;http://example.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:220 ;
-    crm:P7 "青森県" ;
-    crm:P7 "八戸市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-08-04" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
+    rdfs:label "青森県".
+&lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt;
+    rdfs:label "八戸市".</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A49" s="14">
         <v>226</v>
       </c>
@@ -4816,20 +5618,26 @@
         <v>767</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>373</v>
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="K49" s="4" t="str">
+        <v>371</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="M49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:226
     rdf:type crm:E1 ;
@@ -4837,17 +5645,21 @@
 &lt;http://example.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:226 ;
-    crm:P7 "千葉県" ;
-    crm:P7 "香取市佐原" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
+    rdfs:label "千葉県".
+&lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt;
+    rdfs:label "香取市佐原".</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="409.6">
       <c r="A50" s="11">
         <v>231</v>
       </c>
@@ -4856,27 +5668,33 @@
         <v>795</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J50" t="s">
-        <v>283</v>
-      </c>
-      <c r="K50" s="4" t="str">
+        <v>372</v>
+      </c>
+      <c r="H50" t="s">
+        <v>472</v>
+      </c>
+      <c r="I50" t="s">
+        <v>153</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:231
     rdf:type crm:E1 ;
@@ -4884,17 +5702,21 @@
 &lt;http://example.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:231 ;
-    crm:P7 "埼玉県" ;
-    crm:P7 "川越市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
     crm:P67 &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-20" ;
         crm:P115 "2018-10-21" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
+    rdfs:label "埼玉県".
+&lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt;
+    rdfs:label "川越市".</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="409.6">
       <c r="A51" s="12">
         <v>232</v>
       </c>
@@ -4903,27 +5725,33 @@
         <v>797</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J51" t="s">
-        <v>285</v>
-      </c>
-      <c r="K51" s="4" t="str">
+        <v>373</v>
+      </c>
+      <c r="H51" t="s">
+        <v>473</v>
+      </c>
+      <c r="I51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L51" t="s">
+        <v>283</v>
+      </c>
+      <c r="M51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:232
     rdf:type crm:E1 ;
@@ -4931,17 +5759,21 @@
 &lt;http://example.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:232 ;
-    crm:P7 "千葉県" ;
-    crm:P7 "館山市茂名" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
     crm:P67 &lt;http://nihonguide.net/maturi/1208.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-20" ;
         crm:P115 "2018-02-20" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
+    rdfs:label "千葉県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440&gt;
+    rdfs:label "館山市茂名".</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="409.6">
       <c r="A52" s="12">
         <v>234</v>
       </c>
@@ -4950,27 +5782,33 @@
         <v>798</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J52" t="s">
-        <v>287</v>
-      </c>
-      <c r="K52" s="4" t="str">
+        <v>374</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="I52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L52" t="s">
+        <v>285</v>
+      </c>
+      <c r="M52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:234
     rdf:type crm:E1 ;
@@ -4978,17 +5816,21 @@
 &lt;http://example.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:234 ;
-    crm:P7 "滋賀県" ;
-    crm:P7 "野洲市三上" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
     crm:P67 &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
     crm:P4 [
         crm:P116 "2018-10-08" ;
         crm:P115 "2018-10-08" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
+    rdfs:label "滋賀県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330&gt;
+    rdfs:label "野洲市三上".</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="409.6">
       <c r="A53" s="11">
         <v>243</v>
       </c>
@@ -4997,27 +5839,33 @@
         <v>811</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" t="s">
-        <v>289</v>
-      </c>
-      <c r="K53" s="4" t="str">
+        <v>375</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="I53" t="s">
+        <v>156</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L53" t="s">
+        <v>287</v>
+      </c>
+      <c r="M53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:243
     rdf:type crm:E1 ;
@@ -5025,17 +5873,21 @@
 &lt;http://example.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:243 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "犬山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt;
+    rdfs:label "犬山市".</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="409.6">
       <c r="A54" s="12">
         <v>244</v>
       </c>
@@ -5044,27 +5896,33 @@
         <v>812</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="J54" t="s">
-        <v>290</v>
-      </c>
-      <c r="K54" s="4" t="str">
+        <v>376</v>
+      </c>
+      <c r="H54" t="s">
+        <v>476</v>
+      </c>
+      <c r="I54" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L54" t="s">
+        <v>288</v>
+      </c>
+      <c r="M54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:244
     rdf:type crm:E1 ;
@@ -5072,17 +5930,21 @@
 &lt;http://example.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:244 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "半田市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-04" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt;
+    rdfs:label "半田市".</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="409.6">
       <c r="A55" s="11">
         <v>249</v>
       </c>
@@ -5091,27 +5953,33 @@
         <v>823</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K55" s="4" t="str">
+        <v>377</v>
+      </c>
+      <c r="H55" t="s">
+        <v>477</v>
+      </c>
+      <c r="I55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="M55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:249
     rdf:type crm:E1 ;
@@ -5119,17 +5987,21 @@
 &lt;http://example.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:249 ;
-    crm:P7 "三重県" ;
-    crm:P7 "桑名市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
     crm:P67 &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
+    rdfs:label "三重県".
+&lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt;
+    rdfs:label "桑名市".</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="409.6">
       <c r="A56" s="11">
         <v>259</v>
       </c>
@@ -5138,27 +6010,33 @@
         <v>853</v>
       </c>
       <c r="D56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56" t="s">
+        <v>478</v>
+      </c>
+      <c r="I56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>380</v>
-      </c>
-      <c r="G56" t="s">
-        <v>161</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="J56" s="5" t="s">
+      <c r="K56" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K56" s="4" t="str">
+      <c r="L56" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="M56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:259
     rdf:type crm:E1 ;
@@ -5166,17 +6044,21 @@
 &lt;http://example.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:259 ;
-    crm:P7 "山形県" ;
-    crm:P7 "新庄市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
     crm:P67 &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
     crm:P4 [
         crm:P116 "2018-08-24" ;
         crm:P115 "2018-08-26" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
+    rdfs:label "山形県".
+&lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt;
+    rdfs:label "新庄市".</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A57" s="14">
         <v>270</v>
       </c>
@@ -5185,20 +6067,26 @@
         <v>875</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="K57" s="4" t="str">
+        <v>104</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="M57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:270
     rdf:type crm:E1 ;
@@ -5206,17 +6094,21 @@
 &lt;http://example.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:270 ;
-    crm:P7 "長野県" ;
-    crm:P7 "飯山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt;
+    rdfs:label "長野県".
+&lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt;
+    rdfs:label "飯山市".</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="409.6">
       <c r="A58" s="12">
         <v>272</v>
       </c>
@@ -5225,27 +6117,33 @@
         <v>876</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>404</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J58" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" t="s">
+        <v>480</v>
+      </c>
+      <c r="I58" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K58" s="4" t="str">
+      <c r="L58" t="s">
+        <v>296</v>
+      </c>
+      <c r="M58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:272
     rdf:type crm:E1 ;
@@ -5253,17 +6151,21 @@
 &lt;http://example.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:272 ;
-    crm:P7 "熊本県" ;
-    crm:P7 "八代市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
     crm:P4 [
         crm:P116 "2018-11-22" ;
         crm:P115 "2018-11-23" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C43000-19700401&gt;
+    rdfs:label "熊本県".
+&lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt;
+    rdfs:label "八代市".</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="409.6">
       <c r="A59" s="11">
         <v>273</v>
       </c>
@@ -5272,27 +6174,33 @@
         <v>881</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K59" s="4" t="str">
+        <v>379</v>
+      </c>
+      <c r="H59" t="s">
+        <v>481</v>
+      </c>
+      <c r="I59" t="s">
+        <v>162</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="M59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:273
     rdf:type crm:E1 ;
@@ -5300,17 +6208,21 @@
 &lt;http://example.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:273 ;
-    crm:P7 "山梨県" ;
-    crm:P7 "富士吉田市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-26" ;
         crm:P115 "2018-08-26" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C19000-19700401&gt;
+    rdfs:label "山梨県".
+&lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt;
+    rdfs:label "富士吉田市".</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="409.6">
       <c r="A60" s="11">
         <v>275</v>
       </c>
@@ -5319,27 +6231,33 @@
         <v>882</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="G60" t="s">
-        <v>165</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="J60" t="s">
-        <v>302</v>
-      </c>
-      <c r="K60" s="4" t="str">
+        <v>380</v>
+      </c>
+      <c r="H60" t="s">
+        <v>482</v>
+      </c>
+      <c r="I60" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" t="s">
+        <v>300</v>
+      </c>
+      <c r="M60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:275
     rdf:type crm:E1 ;
@@ -5347,17 +6265,21 @@
 &lt;http://example.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:275 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "蟹江町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
     crm:P67 &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt;
+    rdfs:label "蟹江町".</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="409.6">
       <c r="A61" s="12">
         <v>276</v>
       </c>
@@ -5366,27 +6288,33 @@
         <v>884</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="J61" t="s">
+        <v>381</v>
+      </c>
+      <c r="H61" t="s">
+        <v>483</v>
+      </c>
+      <c r="I61" t="s">
+        <v>164</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K61" s="4" t="str">
+      <c r="L61" t="s">
+        <v>301</v>
+      </c>
+      <c r="M61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:276
     rdf:type crm:E1 ;
@@ -5394,17 +6322,21 @@
 &lt;http://example.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:276 ;
-    crm:P7 "兵庫県" ;
-    crm:P7 "赤穂市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
     crm:P67 &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-13" ;
         crm:P115 "2018-10-14" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt;
+    rdfs:label "兵庫県".
+&lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt;
+    rdfs:label "赤穂市".</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="409.6">
       <c r="A62" s="12">
         <v>282</v>
       </c>
@@ -5413,27 +6345,33 @@
         <v>893</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J62" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I62" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K62" s="4" t="str">
+      <c r="L62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:282
     rdf:type crm:E1 ;
@@ -5441,17 +6379,21 @@
 &lt;http://example.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:282 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "鹿角市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
     crm:P67 &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
     crm:P4 [
         crm:P116 "2018-08-19" ;
         crm:P115 "2018-08-20" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt;
+    rdfs:label "鹿角市".</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="409.6">
       <c r="A63" s="11">
         <v>283</v>
       </c>
@@ -5460,27 +6402,33 @@
         <v>894</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="J63" t="s">
+        <v>383</v>
+      </c>
+      <c r="H63" t="s">
+        <v>485</v>
+      </c>
+      <c r="I63" t="s">
+        <v>166</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K63" s="4" t="str">
+      <c r="L63" t="s">
+        <v>307</v>
+      </c>
+      <c r="M63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:283
     rdf:type crm:E1 ;
@@ -5488,17 +6436,21 @@
 &lt;http://example.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:283 ;
-    crm:P7 "山形県" ;
-    crm:P7 "鶴岡市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
     crm:P67 &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2019-01-01" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
+    rdfs:label "山形県".
+&lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt;
+    rdfs:label "鶴岡市".</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="409.6">
       <c r="A64" s="12">
         <v>288</v>
       </c>
@@ -5507,27 +6459,33 @@
         <v>921</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" t="s">
+        <v>486</v>
+      </c>
+      <c r="I64" t="s">
+        <v>167</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K64" s="4" t="str">
+      <c r="L64" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:288
     rdf:type crm:E1 ;
@@ -5535,17 +6493,21 @@
 &lt;http://example.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:288 ;
-    crm:P7 "岐阜県" ;
-    crm:P7 "大垣市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
     crm:P67 &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
     crm:P4 [
         crm:P116 "2018-05-12" ;
         crm:P115 "2018-05-13" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
+    rdfs:label "岐阜県".
+&lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt;
+    rdfs:label "大垣市".</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="409.6">
       <c r="A65" s="12">
         <v>290</v>
       </c>
@@ -5554,27 +6516,33 @@
         <v>923</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" t="s">
-        <v>387</v>
+        <v>99</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="J65" t="s">
-        <v>315</v>
-      </c>
-      <c r="K65" s="4" t="str">
+        <v>385</v>
+      </c>
+      <c r="H65" t="s">
+        <v>487</v>
+      </c>
+      <c r="I65" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L65" t="s">
+        <v>313</v>
+      </c>
+      <c r="M65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:290
     rdf:type crm:E1 ;
@@ -5582,17 +6550,21 @@
 &lt;http://example.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:290 ;
-    crm:P7 "和歌山県" ;
-    crm:P7 "那智勝浦町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
     crm:P67 &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-14" ;
         crm:P115 "2018-07-14" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
+    rdfs:label "和歌山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt;
+    rdfs:label "那智勝浦町".</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="409.6">
       <c r="A66" s="11">
         <v>291</v>
       </c>
@@ -5601,27 +6573,33 @@
         <v>933</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J66" t="s">
-        <v>317</v>
-      </c>
-      <c r="K66" s="4" t="str">
+        <v>386</v>
+      </c>
+      <c r="H66" t="s">
+        <v>488</v>
+      </c>
+      <c r="I66" t="s">
+        <v>169</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L66" t="s">
+        <v>315</v>
+      </c>
+      <c r="M66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:291
     rdf:type crm:E1 ;
@@ -5629,17 +6607,21 @@
 &lt;http://example.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:291 ;
-    crm:P7 "滋賀県" ;
-    crm:P7 "大津市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
     crm:P67 &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="16" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
+    rdfs:label "滋賀県".
+&lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt;
+    rdfs:label "大津市".</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="16" customFormat="1" ht="409.6">
       <c r="A67" s="14">
         <v>292</v>
       </c>
@@ -5648,51 +6630,65 @@
         <v>934</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K71" si="1">"ifcp:"&amp;A67&amp;"
+        <v>388</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="M67" s="4" t="str">
+        <f t="shared" ref="M67:M71" si="1">"ifcp:"&amp;A67&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D67&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 """&amp;E67&amp;""" ;
-    crm:P7 """&amp;F67&amp;""" ;
-    crm:P14 """&amp;G67&amp;""" ;
-    crm:P67 &lt;"&amp;J67&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;H67&amp;""" ;
-        crm:P115 """&amp;I67&amp;""" 
-    ] ."</f>
+    crm:P7 &lt;"&amp;F67&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H67&amp;"&gt; ;
+    crm:P14 """&amp;I67&amp;""" ;
+    crm:P67 &lt;"&amp;L67&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;J67&amp;""" ;
+        crm:P115 """&amp;K67&amp;""" 
+    ] . 
+&lt;"&amp;F67&amp;"&gt;
+    rdfs:label """&amp;E67&amp;""".
+&lt;"&amp;H67&amp;"&gt;
+    rdfs:label """&amp;G67&amp;"""."</f>
         <v>ifcp:292
     rdf:type crm:E1 ;
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;http://example.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:292 ;
-    crm:P7 "和歌山県" ;
-    crm:P7 "新宮市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
+    rdfs:label "和歌山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt;
+    rdfs:label "新宮市".</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="409.6">
       <c r="A68" s="11">
         <v>293</v>
       </c>
@@ -5701,27 +6697,33 @@
         <v>935</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="G68" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J68" t="s">
-        <v>318</v>
-      </c>
-      <c r="K68" s="4" t="str">
+        <v>103</v>
+      </c>
+      <c r="F68" t="s">
+        <v>399</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L68" t="s">
+        <v>316</v>
+      </c>
+      <c r="M68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ifcp:293
     rdf:type crm:E1 ;
@@ -5729,17 +6731,21 @@
 &lt;http://example.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:293 ;
-    crm:P7 "岡山県" ;
-    crm:P7 "岡山市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
     crm:P67 &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-17" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C33000-19700401&gt;
+    rdfs:label "岡山県".
+&lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt;
+    rdfs:label "岡山市".</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="409.6">
       <c r="A69" s="11">
         <v>295</v>
       </c>
@@ -5748,24 +6754,30 @@
         <v>941</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K69" s="4" t="str">
+        <v>389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>491</v>
+      </c>
+      <c r="I69" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ifcp:295
     rdf:type crm:E1 ;
@@ -5773,17 +6785,21 @@
 &lt;http://example.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:295 ;
-    crm:P7 "茨城県" ;
-    crm:P7 "北茨城市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt;
+    rdfs:label "茨城県".
+&lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt;
+    rdfs:label "北茨城市".</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="409.6">
       <c r="A70" s="11">
         <v>301</v>
       </c>
@@ -5792,27 +6808,33 @@
         <v>951</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="G70" t="s">
-        <v>175</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="J70" t="s">
-        <v>321</v>
-      </c>
-      <c r="K70" s="4" t="str">
+        <v>390</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I70" t="s">
+        <v>173</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L70" t="s">
+        <v>319</v>
+      </c>
+      <c r="M70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ifcp:301
     rdf:type crm:E1 ;
@@ -5820,17 +6842,21 @@
 &lt;http://example.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:301 ;
-    crm:P7 "新潟県" ;
-    crm:P7 "南魚沼市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67 &lt;https://www.wasshoikitaro.site/entry/hadakaoshiai2018&gt; ;
     crm:P4 [
         crm:P116 "2018-03-03" ;
         crm:P115 "2018-03-03" 
-    ] .</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
+    rdfs:label "新潟県".
+&lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt;
+    rdfs:label "南魚沼市".</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="409.6">
       <c r="A71" s="12">
         <v>302</v>
       </c>
@@ -5839,27 +6865,33 @@
         <v>950</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="J71" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71" t="s">
+        <v>493</v>
+      </c>
+      <c r="I71" t="s">
+        <v>174</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K71" s="4" t="str">
+      <c r="L71" t="s">
+        <v>321</v>
+      </c>
+      <c r="M71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>ifcp:302
     rdf:type crm:E1 ;
@@ -5867,26 +6899,39 @@
 &lt;http://example.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:302 ;
-    crm:P7 "新潟県" ;
-    crm:P7 "村上市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;
     crm:P67 &lt;https://www.niikei.jp/19106/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-06" ;
         crm:P115 "2018-07-07" 
-    ] .</v>
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
+    rdfs:label "新潟県".
+&lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt;
+    rdfs:label "村上市".</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E71" xr:uid="{2C1D6245-B618-534D-B1F6-4DEECE8891FB}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{184D46C0-1C81-1048-A99E-F67A5950380D}"/>
-    <hyperlink ref="J20" r:id="rId2" xr:uid="{2B3BE3B4-F9DE-9041-9811-8A7AD0662191}"/>
-    <hyperlink ref="J55" r:id="rId3" xr:uid="{D4D4D11A-8D42-5249-A152-0F91552FC898}"/>
-    <hyperlink ref="J56" r:id="rId4" xr:uid="{2806FFDF-F743-E542-811A-C8A555271FFC}"/>
-    <hyperlink ref="J59" r:id="rId5" xr:uid="{0E5B3C33-2441-9847-9149-3E01C983A492}"/>
-    <hyperlink ref="J62" r:id="rId6" xr:uid="{290B2A49-7DCE-CE43-8799-F2794FA83B85}"/>
-    <hyperlink ref="J64" r:id="rId7" xr:uid="{83078CB4-582C-494E-BE41-5D7E44954B15}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{184D46C0-1C81-1048-A99E-F67A5950380D}"/>
+    <hyperlink ref="L20" r:id="rId2" xr:uid="{2B3BE3B4-F9DE-9041-9811-8A7AD0662191}"/>
+    <hyperlink ref="L55" r:id="rId3" xr:uid="{D4D4D11A-8D42-5249-A152-0F91552FC898}"/>
+    <hyperlink ref="L56" r:id="rId4" xr:uid="{2806FFDF-F743-E542-811A-C8A555271FFC}"/>
+    <hyperlink ref="L59" r:id="rId5" xr:uid="{0E5B3C33-2441-9847-9149-3E01C983A492}"/>
+    <hyperlink ref="L62" r:id="rId6" xr:uid="{290B2A49-7DCE-CE43-8799-F2794FA83B85}"/>
+    <hyperlink ref="L64" r:id="rId7" xr:uid="{83078CB4-582C-494E-BE41-5D7E44954B15}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
+    <hyperlink ref="H34" r:id="rId9" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
+    <hyperlink ref="H35" r:id="rId10" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
+    <hyperlink ref="H52" r:id="rId11" xr:uid="{5A017E99-9ECD-DD40-B8A8-11A4CA85D0C6}"/>
+    <hyperlink ref="H53" r:id="rId12" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
+    <hyperlink ref="H62" r:id="rId13" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
+    <hyperlink ref="H68" r:id="rId14" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
+    <hyperlink ref="H70" r:id="rId15" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7225325D-0E2A-C54F-BCFE-15A2D65F3C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DC3D7B-E946-904F-94D3-8ABDBCA8545D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,1682 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>"@base &lt;http://example.org/ifcp/&gt; .
+    <t>参照URL</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日立風流物</t>
+  </si>
+  <si>
+    <t>烏山の山あげ行事</t>
+  </si>
+  <si>
+    <t>秩父祭の屋台行事と神楽</t>
+  </si>
+  <si>
+    <t>高岡御車山祭の御車山行事</t>
+  </si>
+  <si>
+    <t>高山祭の屋台行事</t>
+  </si>
+  <si>
+    <t>長浜曳山祭の曳山行事</t>
+  </si>
+  <si>
+    <t>京都祇園祭の山鉾行事</t>
+  </si>
+  <si>
+    <t>博多祇園山笠行事</t>
+  </si>
+  <si>
+    <t>青森のねぶた</t>
+  </si>
+  <si>
+    <t>弘前のねぷた</t>
+  </si>
+  <si>
+    <t>秋田の竿灯</t>
+  </si>
+  <si>
+    <t>金沢の羽山ごもり</t>
+  </si>
+  <si>
+    <t>古川祭の起し太鼓・屋台行事</t>
+  </si>
+  <si>
+    <t>尾張津島天王祭の車楽舟行事</t>
+  </si>
+  <si>
+    <t>豊橋神明社の鬼祭</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>戸畑祇園大山笠行事</t>
+  </si>
+  <si>
+    <t>唐津くんちの曳山行事</t>
+  </si>
+  <si>
+    <t>田島祇園祭のおとうや行事</t>
+  </si>
+  <si>
+    <t>熊甲二十日祭の枠旗行事</t>
+  </si>
+  <si>
+    <t>青柏祭の曳山行事</t>
+  </si>
+  <si>
+    <t>岩木山の登拝行事</t>
+  </si>
+  <si>
+    <t>室根神社祭のマツリバ行事</t>
+  </si>
+  <si>
+    <t>東湖八坂神社のトウニン（統人）行事</t>
+  </si>
+  <si>
+    <t>涌出宮の宮座行事</t>
+  </si>
+  <si>
+    <t>角館祭りのやま行事</t>
+  </si>
+  <si>
+    <t>白間津のオオマチ（大祭）行事</t>
+  </si>
+  <si>
+    <t>発光路の強飯式</t>
+  </si>
+  <si>
+    <t>貴船神社の船祭り</t>
+  </si>
+  <si>
+    <t>日田祗園の曳山行事</t>
+  </si>
+  <si>
+    <t>土崎神明社祭の曳山行事</t>
+  </si>
+  <si>
+    <t>魚津のタテモン行事</t>
+  </si>
+  <si>
+    <t>鳥出神社の鯨船行事</t>
+  </si>
+  <si>
+    <t>塩屋湾のウンガミ</t>
+  </si>
+  <si>
+    <t>等覚寺の松会</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>山北のボタモチ祭り</t>
+  </si>
+  <si>
+    <t>滑川のネブタ流し</t>
+  </si>
+  <si>
+    <t>大江八幡神社の御船行事</t>
+  </si>
+  <si>
+    <t>河内祭の御舟行事</t>
+  </si>
+  <si>
+    <t>片品の猿追い祭</t>
+  </si>
+  <si>
+    <t>気多の鵜祭の習俗</t>
+  </si>
+  <si>
+    <t>見付天神裸祭</t>
+  </si>
+  <si>
+    <t>城端神明宮祭の曳山行事</t>
+  </si>
+  <si>
+    <t>上野天神祭のダンジリ行事</t>
+  </si>
+  <si>
+    <t>鹿沼今宮神社祭の屋台行事</t>
+  </si>
+  <si>
+    <t>八戸三社大祭の山車行事</t>
+  </si>
+  <si>
+    <t>佐原の山車行事</t>
+  </si>
+  <si>
+    <t>川越氷川祭の山車行事</t>
+  </si>
+  <si>
+    <t>茂名の里芋祭</t>
+  </si>
+  <si>
+    <t>三上のずいき祭</t>
+  </si>
+  <si>
+    <t>犬山祭の車山行事</t>
+  </si>
+  <si>
+    <t>亀崎潮干祭の山車行事</t>
+  </si>
+  <si>
+    <t>桑名石取祭の祭車行事</t>
+  </si>
+  <si>
+    <t>小菅の柱松行事</t>
+  </si>
+  <si>
+    <t>八代妙見祭の神幸行事</t>
+  </si>
+  <si>
+    <t>吉田の火祭</t>
+  </si>
+  <si>
+    <t>須成祭の車楽船行事と神葭流し</t>
+  </si>
+  <si>
+    <t>坂越の船祭</t>
+  </si>
+  <si>
+    <t>花輪祭の屋台行事</t>
+  </si>
+  <si>
+    <t>松例祭の大松明行事</t>
+  </si>
+  <si>
+    <t>大垣祭の軕行事</t>
+  </si>
+  <si>
+    <t>那智の扇祭り</t>
+  </si>
+  <si>
+    <t>大津祭の曳山行事</t>
+  </si>
+  <si>
+    <t>新宮の速玉祭・御燈祭り</t>
+  </si>
+  <si>
+    <t>西大寺の会陽</t>
+  </si>
+  <si>
+    <t>常陸大津の御船祭</t>
+  </si>
+  <si>
+    <t>浦佐毘沙門堂の裸押合</t>
+  </si>
+  <si>
+    <t>村上祭の屋台行事</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>栃木県</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>和歌山県</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>熊本県</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>飯山市</t>
+  </si>
+  <si>
+    <t>八代市</t>
+  </si>
+  <si>
+    <t>日立郷土芸能保存会</t>
+  </si>
+  <si>
+    <t>烏山山あげ保存会</t>
+  </si>
+  <si>
+    <t>秩父祭保存委員会</t>
+  </si>
+  <si>
+    <t>高岡御車山保存会</t>
+  </si>
+  <si>
+    <t>日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会</t>
+  </si>
+  <si>
+    <t>（公益財団法人）長浜曳山文化協会</t>
+  </si>
+  <si>
+    <t>公益財団法人祇園祭山鉾連合会</t>
+  </si>
+  <si>
+    <t>博多祇園山笠振興会</t>
+  </si>
+  <si>
+    <t>青森ねぶた祭保存会</t>
+  </si>
+  <si>
+    <t>弘前ねぷた保存会</t>
+  </si>
+  <si>
+    <t>秋田市竿灯会</t>
+  </si>
+  <si>
+    <t>羽山ごもり保存会</t>
+  </si>
+  <si>
+    <t>古川祭保存会</t>
+  </si>
+  <si>
+    <t>尾張津島天王祭協賛会</t>
+  </si>
+  <si>
+    <t>豊橋鬼祭保存会</t>
+  </si>
+  <si>
+    <t>戸畑祇園大山笠振興会</t>
+  </si>
+  <si>
+    <t>唐津曳山取締会</t>
+  </si>
+  <si>
+    <t>田島祇園祭のおとうや行事保存会</t>
+  </si>
+  <si>
+    <t>お熊甲祭奉賛会</t>
+  </si>
+  <si>
+    <t>青柏祭でか山保存会</t>
+  </si>
+  <si>
+    <t>お山参詣保存会</t>
+  </si>
+  <si>
+    <t>室根神社祭保存会</t>
+  </si>
+  <si>
+    <t>東湖八坂神社崇敬会、船越町内連合会</t>
+    <rPh sb="0" eb="9">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>涌出宮宮座行事保存会</t>
+  </si>
+  <si>
+    <t>角館のお祭り保存会</t>
+  </si>
+  <si>
+    <t>芋くらべ祭保存会</t>
+  </si>
+  <si>
+    <t>白間津区</t>
+  </si>
+  <si>
+    <t>発光路妙見神社青年部</t>
+  </si>
+  <si>
+    <t>貴船祭保存会</t>
+  </si>
+  <si>
+    <t>日田祗園山鉾振興会</t>
+  </si>
+  <si>
+    <t>土崎神明社奉賛会</t>
+  </si>
+  <si>
+    <t>魚津たてもん保存会</t>
+  </si>
+  <si>
+    <t>富田鯨船保存会連合会</t>
+  </si>
+  <si>
+    <t>田港区、屋古区、塩屋区、白浜区</t>
+  </si>
+  <si>
+    <t>等覚寺松会保存会</t>
+  </si>
+  <si>
+    <t>中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会</t>
+  </si>
+  <si>
+    <t>中川原、常盤町一区・二区・三区</t>
+  </si>
+  <si>
+    <t>大江氏子会</t>
+  </si>
+  <si>
+    <t>古座川河内祭保存会、古座獅子舞保存会</t>
+  </si>
+  <si>
+    <t>猿追い祭保存会</t>
+  </si>
+  <si>
+    <t>気多大社、鵜浦町会</t>
+  </si>
+  <si>
+    <t>見付天神裸祭保存会</t>
+  </si>
+  <si>
+    <t>城端曳山祭保存会</t>
+  </si>
+  <si>
+    <t>上野文化美術保存会</t>
+  </si>
+  <si>
+    <t>鹿沼いまみや付け祭り保存会</t>
+  </si>
+  <si>
+    <t>八戸三社大祭山車祭り行事保存会</t>
+  </si>
+  <si>
+    <t>佐原山車行事伝承保存会</t>
+  </si>
+  <si>
+    <t>川越氷川祭の山車行事保存会</t>
+  </si>
+  <si>
+    <t>茂名区</t>
+  </si>
+  <si>
+    <t>ずいき祭保存会</t>
+  </si>
+  <si>
+    <t>犬山祭保存会</t>
+  </si>
+  <si>
+    <t>亀崎潮干祭保存会</t>
+  </si>
+  <si>
+    <t>桑名石取祭保存会</t>
+  </si>
+  <si>
+    <t>新庄まつり山車行事保存会</t>
+  </si>
+  <si>
+    <t>小菅柱松保存会</t>
+  </si>
+  <si>
+    <t>八代妙見祭保存振興会</t>
+  </si>
+  <si>
+    <t>吉田の火祭保存会</t>
+  </si>
+  <si>
+    <t>須成文化財保護委員会</t>
+  </si>
+  <si>
+    <t>坂越の船渡御祭保存会</t>
+  </si>
+  <si>
+    <t>花輪ばやし祭典委員会</t>
+  </si>
+  <si>
+    <t>松例祭保存会</t>
+  </si>
+  <si>
+    <t>大垣祭保存会</t>
+  </si>
+  <si>
+    <t>那智の扇祭り保存会</t>
+  </si>
+  <si>
+    <t>大津祭保存会</t>
+  </si>
+  <si>
+    <t>熊野速玉大社祭事保存会</t>
+  </si>
+  <si>
+    <t>西大寺会陽保存会</t>
+  </si>
+  <si>
+    <t>常陸大津の御船祭保存会</t>
+  </si>
+  <si>
+    <t>浦佐毘沙門堂裸押合大祭委員会</t>
+  </si>
+  <si>
+    <t>村上まつり保存会</t>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
+  </si>
+  <si>
+    <t>2018-04-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-04-08</t>
+  </si>
+  <si>
+    <t>2018-04-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.shimotsuke.co.jp/articles/-/54273</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-26</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-29</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.saitama-np.co.jp/news/2018/12/04/04_.html</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL514GM8L51PUZB007.html</t>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>subID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.news24.jp/articles/2018/04/14/07390524.html</t>
+  </si>
+  <si>
+    <t>2018-04-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-04-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.gaido.jp/clickalbum/41126.html</t>
+  </si>
+  <si>
+    <t>2018-04-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kyoto-design.jp/event/35063</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hakatayamakasa.com/75640.html</t>
+  </si>
+  <si>
+    <t>2018-07-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL874S06L87UBNB003.html</t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.kantou.gr.jp/reflect/2018.htm</t>
+  </si>
+  <si>
+    <t>2018-08-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://fukuori.com/kitemina/event/124/</t>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-04-19</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/</t>
+  </si>
+  <si>
+    <t>http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/</t>
+  </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html</t>
+  </si>
+  <si>
+    <t>2018-02-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.kitakyushu-museum.jp/resources/3531</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち</t>
+  </si>
+  <si>
+    <t>2018-11-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-11-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.kanko-aizu.com/information/23745/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-24</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350</t>
+  </si>
+  <si>
+    <t>2018-09-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.mutusinpou.co.jp/news/2018/09/52599.html</t>
+  </si>
+  <si>
+    <t>2018-09-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.iwaken.or.jp/info/2018/10/29_1855.html</t>
+  </si>
+  <si>
+    <t>2018-10-26</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://nihonguide.net/maturi/26131.html</t>
+  </si>
+  <si>
+    <t>2018-02-17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-18</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL956SVGL95UBUB010.html</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>近江中山の芋競べ祭り</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://nihonguide.net/maturi/2586.html</t>
+  </si>
+  <si>
+    <t>2018-09-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://bosotown.com/archives/2319</t>
+  </si>
+  <si>
+    <t>開催せず</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.shimotsuke.co.jp/articles/-/11035</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.kanaloco.jp/article/entry-33868.html</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html</t>
+  </si>
+  <si>
+    <t>2018-07-21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/</t>
+  </si>
+  <si>
+    <t>2018-07-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.you-yokkaichi.com/2018/08/15/5133/</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://ryukyushimpo.jp/style/article/entry-785935.html</t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html</t>
+  </si>
+  <si>
+    <t>https://71757238.at.webry.info/201808/article_1.html</t>
+  </si>
+  <si>
+    <t>https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html</t>
+  </si>
+  <si>
+    <t>2018-12-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575</t>
+  </si>
+  <si>
+    <t>https://www.iga-younet.co.jp/2018/10/22/10060/</t>
+  </si>
+  <si>
+    <t>2018-10-19</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html</t>
+  </si>
+  <si>
+    <t>https://nobutsunakai.com/2018-matsuri/200/</t>
+  </si>
+  <si>
+    <t>2018-10-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://nihonguide.net/maturi/1208.html</t>
+  </si>
+  <si>
+    <t>2018-02-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://biwako-wifi-info.jp/event/179?locale=ja</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL475CTWL47OBJB002.html</t>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL533TG6L53OBJB001.html</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://prtimes.jp/main/html/rd/p/000000141.000031071.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新庄まつりの山車行事</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-24</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-26</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-11-23</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm</t>
+  </si>
+  <si>
+    <t>https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html</t>
+  </si>
+  <si>
+    <t>2018-10-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://scoop-scoop.jp/scoop/scoop_hanawabayashi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-19</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://tsurumap.com/2018/12/19/20181231/</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://japan-attractions.jp/ja/festivals/ogaki-fes/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-05-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://wbs.co.jp/news/2018/07/14/120891.html</t>
+  </si>
+  <si>
+    <t>2018-07-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.biwalake-otsuka.com/yado/2018/2018092001.html</t>
+  </si>
+  <si>
+    <t>http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html</t>
+  </si>
+  <si>
+    <t>開催せず</t>
+    <rPh sb="0" eb="1">
+      <t>カイサイセz</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>開催せず</t>
+    <rPh sb="0" eb="1">
+      <t>カイサイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.wasshoikitaro.site/entry/hadakaoshiai2018</t>
+  </si>
+  <si>
+    <t>2018-03-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.niikei.jp/19106/</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日立市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>那須烏山市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秩父市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高岡市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高山市</t>
+    <rPh sb="0" eb="1">
+      <t>タカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>高山市</t>
+    <rPh sb="0" eb="2">
+      <t>タカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>長浜市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>京都市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>福岡市博多</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>青森市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>弘前市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>福島市松川町金沢地区</t>
+    <rPh sb="0" eb="1">
+      <t>フクシマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>飛騨市古川町</t>
+    <rPh sb="0" eb="3">
+      <t>フルカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>津島市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>豊橋市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北九州市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>唐津市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南会津町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>七尾市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>府中町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>弘前市</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロサキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>一関市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>男鹿市、潟上市</t>
+    <rPh sb="0" eb="3">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>木津川市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>仙北市角館</t>
+    <rPh sb="0" eb="2">
+      <t>カクノダテ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日野町</t>
+  </si>
+  <si>
+    <t>南房総市千倉町白間津</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミボウソウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>真鶴町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日田市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒタシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋田市土崎</t>
+    <rPh sb="0" eb="1">
+      <t>アキタシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魚津市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>四日市市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大宜味村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苅田町白川地区</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>村上市</t>
+  </si>
+  <si>
+    <t>滑川市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>牧之原市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>古座町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>片品村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>寺家町、七尾市鵜浦町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>磐田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南砺市</t>
+    <rPh sb="0" eb="2">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>伊賀市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿沼市今宮町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>八戸市</t>
+    <rPh sb="0" eb="1">
+      <t>ハチノヘシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>香取市佐原</t>
+    <rPh sb="0" eb="2">
+      <t>サワラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>川越市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>館山市茂名</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>野洲市三上</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>犬山市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>半田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桑名市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新庄市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>富士吉田市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>蟹江町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>赤穂市</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鹿角市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鶴岡市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大垣市</t>
+    <rPh sb="0" eb="1">
+      <t>オオガキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>那智勝浦町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大津市</t>
+    <rPh sb="0" eb="1">
+      <t>オオツシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡山市</t>
+    <rPh sb="0" eb="1">
+      <t>オカヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新宮市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北茨城市</t>
+    <rPh sb="0" eb="1">
+      <t>キタイバラキシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南魚沼市</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミウオヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>村上市</t>
+    <rPh sb="0" eb="1">
+      <t>ムラカミシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>都道府県URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C33000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C43000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C10000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C19000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C44000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08202-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09215-20120801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11207-20050401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C16202-20051101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21203-20050201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25203-20100101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26100-20041220</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C40132-19720401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02201-20070901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02202-20060227</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05201-20050111</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C07201-20080701</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21217-20040201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23208-19900401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23201-19990401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40100-20081001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41202-20060101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07368-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17202-20090901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03209-20170904</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05211-20050322</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C26214-20070312</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C25383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12466-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C09205-20120801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C44204-20050322</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16204-19890601</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24202-20001101</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47302-19780601</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40621-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15212-20080401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16206-19910325</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22226-20051011</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30423-20050401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C10443-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C22211-20090217</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16210-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24216-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C02203-20170101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C12236-20060327</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11201-20030401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23215-19830301</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23205-19950901</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24205-20041206</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06205-20050218</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20213-20000401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C43202-20050801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C19202-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23425-19960701</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28212-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05209-19980601</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06203-20180131</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C21202-20091031</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30421-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25201-20090401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C30207-20051001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C33201-20090401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C08215-19981001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15226-20051001</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
+  </si>
+  <si>
+    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
@@ -101,1681 +1776,6 @@
 @prefix ifcp: &lt;http://example.org/ifcp/&gt; .
 @prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>参照URL</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>日立風流物</t>
-  </si>
-  <si>
-    <t>烏山の山あげ行事</t>
-  </si>
-  <si>
-    <t>秩父祭の屋台行事と神楽</t>
-  </si>
-  <si>
-    <t>高岡御車山祭の御車山行事</t>
-  </si>
-  <si>
-    <t>高山祭の屋台行事</t>
-  </si>
-  <si>
-    <t>長浜曳山祭の曳山行事</t>
-  </si>
-  <si>
-    <t>京都祇園祭の山鉾行事</t>
-  </si>
-  <si>
-    <t>博多祇園山笠行事</t>
-  </si>
-  <si>
-    <t>青森のねぶた</t>
-  </si>
-  <si>
-    <t>弘前のねぷた</t>
-  </si>
-  <si>
-    <t>秋田の竿灯</t>
-  </si>
-  <si>
-    <t>金沢の羽山ごもり</t>
-  </si>
-  <si>
-    <t>古川祭の起し太鼓・屋台行事</t>
-  </si>
-  <si>
-    <t>尾張津島天王祭の車楽舟行事</t>
-  </si>
-  <si>
-    <t>豊橋神明社の鬼祭</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>戸畑祇園大山笠行事</t>
-  </si>
-  <si>
-    <t>唐津くんちの曳山行事</t>
-  </si>
-  <si>
-    <t>田島祇園祭のおとうや行事</t>
-  </si>
-  <si>
-    <t>熊甲二十日祭の枠旗行事</t>
-  </si>
-  <si>
-    <t>青柏祭の曳山行事</t>
-  </si>
-  <si>
-    <t>岩木山の登拝行事</t>
-  </si>
-  <si>
-    <t>室根神社祭のマツリバ行事</t>
-  </si>
-  <si>
-    <t>東湖八坂神社のトウニン（統人）行事</t>
-  </si>
-  <si>
-    <t>涌出宮の宮座行事</t>
-  </si>
-  <si>
-    <t>角館祭りのやま行事</t>
-  </si>
-  <si>
-    <t>白間津のオオマチ（大祭）行事</t>
-  </si>
-  <si>
-    <t>発光路の強飯式</t>
-  </si>
-  <si>
-    <t>貴船神社の船祭り</t>
-  </si>
-  <si>
-    <t>日田祗園の曳山行事</t>
-  </si>
-  <si>
-    <t>土崎神明社祭の曳山行事</t>
-  </si>
-  <si>
-    <t>魚津のタテモン行事</t>
-  </si>
-  <si>
-    <t>鳥出神社の鯨船行事</t>
-  </si>
-  <si>
-    <t>塩屋湾のウンガミ</t>
-  </si>
-  <si>
-    <t>等覚寺の松会</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>山北のボタモチ祭り</t>
-  </si>
-  <si>
-    <t>滑川のネブタ流し</t>
-  </si>
-  <si>
-    <t>大江八幡神社の御船行事</t>
-  </si>
-  <si>
-    <t>河内祭の御舟行事</t>
-  </si>
-  <si>
-    <t>片品の猿追い祭</t>
-  </si>
-  <si>
-    <t>気多の鵜祭の習俗</t>
-  </si>
-  <si>
-    <t>見付天神裸祭</t>
-  </si>
-  <si>
-    <t>城端神明宮祭の曳山行事</t>
-  </si>
-  <si>
-    <t>上野天神祭のダンジリ行事</t>
-  </si>
-  <si>
-    <t>鹿沼今宮神社祭の屋台行事</t>
-  </si>
-  <si>
-    <t>八戸三社大祭の山車行事</t>
-  </si>
-  <si>
-    <t>佐原の山車行事</t>
-  </si>
-  <si>
-    <t>川越氷川祭の山車行事</t>
-  </si>
-  <si>
-    <t>茂名の里芋祭</t>
-  </si>
-  <si>
-    <t>三上のずいき祭</t>
-  </si>
-  <si>
-    <t>犬山祭の車山行事</t>
-  </si>
-  <si>
-    <t>亀崎潮干祭の山車行事</t>
-  </si>
-  <si>
-    <t>桑名石取祭の祭車行事</t>
-  </si>
-  <si>
-    <t>小菅の柱松行事</t>
-  </si>
-  <si>
-    <t>八代妙見祭の神幸行事</t>
-  </si>
-  <si>
-    <t>吉田の火祭</t>
-  </si>
-  <si>
-    <t>須成祭の車楽船行事と神葭流し</t>
-  </si>
-  <si>
-    <t>坂越の船祭</t>
-  </si>
-  <si>
-    <t>花輪祭の屋台行事</t>
-  </si>
-  <si>
-    <t>松例祭の大松明行事</t>
-  </si>
-  <si>
-    <t>大垣祭の軕行事</t>
-  </si>
-  <si>
-    <t>那智の扇祭り</t>
-  </si>
-  <si>
-    <t>大津祭の曳山行事</t>
-  </si>
-  <si>
-    <t>新宮の速玉祭・御燈祭り</t>
-  </si>
-  <si>
-    <t>西大寺の会陽</t>
-  </si>
-  <si>
-    <t>常陸大津の御船祭</t>
-  </si>
-  <si>
-    <t>浦佐毘沙門堂の裸押合</t>
-  </si>
-  <si>
-    <t>村上祭の屋台行事</t>
-  </si>
-  <si>
-    <t>茨城県</t>
-  </si>
-  <si>
-    <t>栃木県</t>
-  </si>
-  <si>
-    <t>岐阜県</t>
-  </si>
-  <si>
-    <t>滋賀県</t>
-  </si>
-  <si>
-    <t>京都府</t>
-  </si>
-  <si>
-    <t>青森県</t>
-  </si>
-  <si>
-    <t>千葉県</t>
-  </si>
-  <si>
-    <t>大分県</t>
-  </si>
-  <si>
-    <t>静岡県</t>
-  </si>
-  <si>
-    <t>和歌山県</t>
-  </si>
-  <si>
-    <t>群馬県</t>
-  </si>
-  <si>
-    <t>熊本県</t>
-  </si>
-  <si>
-    <t>山梨県</t>
-  </si>
-  <si>
-    <t>岡山県</t>
-  </si>
-  <si>
-    <t>飯山市</t>
-  </si>
-  <si>
-    <t>八代市</t>
-  </si>
-  <si>
-    <t>日立郷土芸能保存会</t>
-  </si>
-  <si>
-    <t>烏山山あげ保存会</t>
-  </si>
-  <si>
-    <t>秩父祭保存委員会</t>
-  </si>
-  <si>
-    <t>高岡御車山保存会</t>
-  </si>
-  <si>
-    <t>日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会</t>
-  </si>
-  <si>
-    <t>（公益財団法人）長浜曳山文化協会</t>
-  </si>
-  <si>
-    <t>公益財団法人祇園祭山鉾連合会</t>
-  </si>
-  <si>
-    <t>博多祇園山笠振興会</t>
-  </si>
-  <si>
-    <t>青森ねぶた祭保存会</t>
-  </si>
-  <si>
-    <t>弘前ねぷた保存会</t>
-  </si>
-  <si>
-    <t>秋田市竿灯会</t>
-  </si>
-  <si>
-    <t>羽山ごもり保存会</t>
-  </si>
-  <si>
-    <t>古川祭保存会</t>
-  </si>
-  <si>
-    <t>尾張津島天王祭協賛会</t>
-  </si>
-  <si>
-    <t>豊橋鬼祭保存会</t>
-  </si>
-  <si>
-    <t>戸畑祇園大山笠振興会</t>
-  </si>
-  <si>
-    <t>唐津曳山取締会</t>
-  </si>
-  <si>
-    <t>田島祇園祭のおとうや行事保存会</t>
-  </si>
-  <si>
-    <t>お熊甲祭奉賛会</t>
-  </si>
-  <si>
-    <t>青柏祭でか山保存会</t>
-  </si>
-  <si>
-    <t>お山参詣保存会</t>
-  </si>
-  <si>
-    <t>室根神社祭保存会</t>
-  </si>
-  <si>
-    <t>東湖八坂神社崇敬会、船越町内連合会</t>
-    <rPh sb="0" eb="9">
-      <t>、</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>涌出宮宮座行事保存会</t>
-  </si>
-  <si>
-    <t>角館のお祭り保存会</t>
-  </si>
-  <si>
-    <t>芋くらべ祭保存会</t>
-  </si>
-  <si>
-    <t>白間津区</t>
-  </si>
-  <si>
-    <t>発光路妙見神社青年部</t>
-  </si>
-  <si>
-    <t>貴船祭保存会</t>
-  </si>
-  <si>
-    <t>日田祗園山鉾振興会</t>
-  </si>
-  <si>
-    <t>土崎神明社奉賛会</t>
-  </si>
-  <si>
-    <t>魚津たてもん保存会</t>
-  </si>
-  <si>
-    <t>富田鯨船保存会連合会</t>
-  </si>
-  <si>
-    <t>田港区、屋古区、塩屋区、白浜区</t>
-  </si>
-  <si>
-    <t>等覚寺松会保存会</t>
-  </si>
-  <si>
-    <t>中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会</t>
-  </si>
-  <si>
-    <t>中川原、常盤町一区・二区・三区</t>
-  </si>
-  <si>
-    <t>大江氏子会</t>
-  </si>
-  <si>
-    <t>古座川河内祭保存会、古座獅子舞保存会</t>
-  </si>
-  <si>
-    <t>猿追い祭保存会</t>
-  </si>
-  <si>
-    <t>気多大社、鵜浦町会</t>
-  </si>
-  <si>
-    <t>見付天神裸祭保存会</t>
-  </si>
-  <si>
-    <t>城端曳山祭保存会</t>
-  </si>
-  <si>
-    <t>上野文化美術保存会</t>
-  </si>
-  <si>
-    <t>鹿沼いまみや付け祭り保存会</t>
-  </si>
-  <si>
-    <t>八戸三社大祭山車祭り行事保存会</t>
-  </si>
-  <si>
-    <t>佐原山車行事伝承保存会</t>
-  </si>
-  <si>
-    <t>川越氷川祭の山車行事保存会</t>
-  </si>
-  <si>
-    <t>茂名区</t>
-  </si>
-  <si>
-    <t>ずいき祭保存会</t>
-  </si>
-  <si>
-    <t>犬山祭保存会</t>
-  </si>
-  <si>
-    <t>亀崎潮干祭保存会</t>
-  </si>
-  <si>
-    <t>桑名石取祭保存会</t>
-  </si>
-  <si>
-    <t>新庄まつり山車行事保存会</t>
-  </si>
-  <si>
-    <t>小菅柱松保存会</t>
-  </si>
-  <si>
-    <t>八代妙見祭保存振興会</t>
-  </si>
-  <si>
-    <t>吉田の火祭保存会</t>
-  </si>
-  <si>
-    <t>須成文化財保護委員会</t>
-  </si>
-  <si>
-    <t>坂越の船渡御祭保存会</t>
-  </si>
-  <si>
-    <t>花輪ばやし祭典委員会</t>
-  </si>
-  <si>
-    <t>松例祭保存会</t>
-  </si>
-  <si>
-    <t>大垣祭保存会</t>
-  </si>
-  <si>
-    <t>那智の扇祭り保存会</t>
-  </si>
-  <si>
-    <t>大津祭保存会</t>
-  </si>
-  <si>
-    <t>熊野速玉大社祭事保存会</t>
-  </si>
-  <si>
-    <t>西大寺会陽保存会</t>
-  </si>
-  <si>
-    <t>常陸大津の御船祭保存会</t>
-  </si>
-  <si>
-    <t>浦佐毘沙門堂裸押合大祭委員会</t>
-  </si>
-  <si>
-    <t>村上まつり保存会</t>
-  </si>
-  <si>
-    <t>開始日</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
-  </si>
-  <si>
-    <t>2018-04-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-04-08</t>
-  </si>
-  <si>
-    <t>2018-04-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.shimotsuke.co.jp/articles/-/54273</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-26</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-29</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.saitama-np.co.jp/news/2018/12/04/04_.html</t>
-  </si>
-  <si>
-    <t>2018-12-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL514GM8L51PUZB007.html</t>
-  </si>
-  <si>
-    <t>2018-05-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>subID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.news24.jp/articles/2018/04/14/07390524.html</t>
-  </si>
-  <si>
-    <t>2018-04-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-04-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html</t>
-  </si>
-  <si>
-    <t>2018-10-09</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.gaido.jp/clickalbum/41126.html</t>
-  </si>
-  <si>
-    <t>2018-04-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-04-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://kyoto-design.jp/event/35063</t>
-  </si>
-  <si>
-    <t>2018-07-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hakatayamakasa.com/75640.html</t>
-  </si>
-  <si>
-    <t>2018-07-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL874S06L87UBNB003.html</t>
-  </si>
-  <si>
-    <t>2018-08-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
-  </si>
-  <si>
-    <t>2018-08-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.kantou.gr.jp/reflect/2018.htm</t>
-  </si>
-  <si>
-    <t>2018-08-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://fukuori.com/kitemina/event/124/</t>
-  </si>
-  <si>
-    <t>2018-01-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-04-19</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-04-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/</t>
-  </si>
-  <si>
-    <t>http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/</t>
-  </si>
-  <si>
-    <t>中止</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html</t>
-  </si>
-  <si>
-    <t>2018-02-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.kitakyushu-museum.jp/resources/3531</t>
-  </si>
-  <si>
-    <t>2018-07-27</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち</t>
-  </si>
-  <si>
-    <t>2018-11-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-11-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.kanko-aizu.com/information/23745/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-22</t>
-  </si>
-  <si>
-    <t>2018-07-22</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-24</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350</t>
-  </si>
-  <si>
-    <t>2018-09-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569</t>
-  </si>
-  <si>
-    <t>2018-05-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-05-05</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.mutusinpou.co.jp/news/2018/09/52599.html</t>
-  </si>
-  <si>
-    <t>2018-09-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-09-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.iwaken.or.jp/info/2018/10/29_1855.html</t>
-  </si>
-  <si>
-    <t>2018-10-26</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-28</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://nihonguide.net/maturi/26131.html</t>
-  </si>
-  <si>
-    <t>2018-02-17</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-18</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL956SVGL95UBUB010.html</t>
-  </si>
-  <si>
-    <t>2018-09-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>近江中山の芋競べ祭り</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://nihonguide.net/maturi/2586.html</t>
-  </si>
-  <si>
-    <t>2018-09-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://bosotown.com/archives/2319</t>
-  </si>
-  <si>
-    <t>開催せず</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.shimotsuke.co.jp/articles/-/11035</t>
-  </si>
-  <si>
-    <t>2018-01-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.kanaloco.jp/article/entry-33868.html</t>
-  </si>
-  <si>
-    <t>2018-07-28</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html</t>
-  </si>
-  <si>
-    <t>2018-07-21</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/</t>
-  </si>
-  <si>
-    <t>2018-07-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.you-yokkaichi.com/2018/08/15/5133/</t>
-  </si>
-  <si>
-    <t>2018-08-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://ryukyushimpo.jp/style/article/entry-785935.html</t>
-  </si>
-  <si>
-    <t>2018-09-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html</t>
-  </si>
-  <si>
-    <t>https://71757238.at.webry.info/201808/article_1.html</t>
-  </si>
-  <si>
-    <t>https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html</t>
-  </si>
-  <si>
-    <t>2018-10-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html</t>
-  </si>
-  <si>
-    <t>2018-12-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html</t>
-  </si>
-  <si>
-    <t>2018-09-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-09-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575</t>
-  </si>
-  <si>
-    <t>https://www.iga-younet.co.jp/2018/10/22/10060/</t>
-  </si>
-  <si>
-    <t>2018-10-19</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-21</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html</t>
-  </si>
-  <si>
-    <t>2018-10-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html</t>
-  </si>
-  <si>
-    <t>https://nobutsunakai.com/2018-matsuri/200/</t>
-  </si>
-  <si>
-    <t>2018-10-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://nihonguide.net/maturi/1208.html</t>
-  </si>
-  <si>
-    <t>2018-02-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://biwako-wifi-info.jp/event/179?locale=ja</t>
-  </si>
-  <si>
-    <t>2018-10-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL475CTWL47OBJB002.html</t>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL533TG6L53OBJB001.html</t>
-  </si>
-  <si>
-    <t>2018-05-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://prtimes.jp/main/html/rd/p/000000141.000031071.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-05</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>新庄まつりの山車行事</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-24</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-26</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html</t>
-  </si>
-  <si>
-    <t>2018-11-22</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-11-23</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm</t>
-  </si>
-  <si>
-    <t>https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html</t>
-  </si>
-  <si>
-    <t>2018-10-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://scoop-scoop.jp/scoop/scoop_hanawabayashi</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-19</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://tsurumap.com/2018/12/19/20181231/</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://japan-attractions.jp/ja/festivals/ogaki-fes/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-05-12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-05-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://wbs.co.jp/news/2018/07/14/120891.html</t>
-  </si>
-  <si>
-    <t>2018-07-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.biwalake-otsuka.com/yado/2018/2018092001.html</t>
-  </si>
-  <si>
-    <t>http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html</t>
-  </si>
-  <si>
-    <t>開催せず</t>
-    <rPh sb="0" eb="1">
-      <t>カイサイセz</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>開催せず</t>
-    <rPh sb="0" eb="1">
-      <t>カイサイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.wasshoikitaro.site/entry/hadakaoshiai2018</t>
-  </si>
-  <si>
-    <t>2018-03-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.niikei.jp/19106/</t>
-  </si>
-  <si>
-    <t>2018-07-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-07-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>日立市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>那須烏山市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>秩父市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>高岡市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>高山市</t>
-    <rPh sb="0" eb="1">
-      <t>タカヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>高山市</t>
-    <rPh sb="0" eb="2">
-      <t>タカヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>長浜市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>京都市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>福岡市博多</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>青森市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>弘前市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>秋田市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>福島市松川町金沢地区</t>
-    <rPh sb="0" eb="1">
-      <t>フクシマシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>飛騨市古川町</t>
-    <rPh sb="0" eb="3">
-      <t>フルカワチョウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>津島市</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>豊橋市</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>北九州市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>唐津市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>南会津町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>七尾市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>府中町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>弘前市</t>
-    <rPh sb="0" eb="1">
-      <t>ヒロサキシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>一関市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>男鹿市、潟上市</t>
-    <rPh sb="0" eb="3">
-      <t>、</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>木津川市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>仙北市角館</t>
-    <rPh sb="0" eb="2">
-      <t>カクノダテ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>日野町</t>
-  </si>
-  <si>
-    <t>南房総市千倉町白間津</t>
-    <rPh sb="0" eb="1">
-      <t>ミナミボウソウシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鹿沼市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>真鶴町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>日田市</t>
-    <rPh sb="0" eb="3">
-      <t>ヒタシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>秋田市土崎</t>
-    <rPh sb="0" eb="1">
-      <t>アキタシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魚津市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>四日市市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大宜味村</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 苅田町白川地区</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>村上市</t>
-  </si>
-  <si>
-    <t>滑川市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>牧之原市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>古座町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>片品村</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>寺家町、七尾市鵜浦町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>磐田市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>南砺市</t>
-    <rPh sb="0" eb="2">
-      <t>ナント</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>伊賀市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鹿沼市今宮町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>八戸市</t>
-    <rPh sb="0" eb="1">
-      <t>ハチノヘシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>香取市佐原</t>
-    <rPh sb="0" eb="2">
-      <t>サワラ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>川越市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>館山市茂名</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>野洲市三上</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>犬山市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>半田市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>桑名市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>新庄市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>富士吉田市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>蟹江町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>赤穂市</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鹿角市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鶴岡市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大垣市</t>
-    <rPh sb="0" eb="1">
-      <t>オオガキシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>那智勝浦町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大津市</t>
-    <rPh sb="0" eb="1">
-      <t>オオツシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>岡山市</t>
-    <rPh sb="0" eb="1">
-      <t>オカヤマシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>新宮市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>北茨城市</t>
-    <rPh sb="0" eb="1">
-      <t>キタイバラキシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>南魚沼市</t>
-    <rPh sb="0" eb="1">
-      <t>ミナミウオヌマシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>村上市</t>
-    <rPh sb="0" eb="1">
-      <t>ムラカミシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>都道府県URI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>所在地URI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>都道府県</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>所在地</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C08000-19700401</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C33000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C03000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C21000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C26000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C43000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C10000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C19000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C25000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C02000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C22000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C12000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C44000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C09000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C30000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C08202-20041101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C09215-20120801</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C11207-20050401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C16202-20051101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C21203-20050201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C25203-20100101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C26100-20041220</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C40132-19720401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C02201-20070901</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C02202-20060227</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05201-20050111</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C07201-20080701</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C21217-20040201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23208-19900401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23201-19990401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40100-20081001</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C41202-20060101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C07368-20060320</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C17202-20090901</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C03209-20170904</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05211-20050322</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C26214-20070312</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C25383-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C12466-20060320</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C09205-20120801</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C14383-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C44204-20050322</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16204-19890601</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24202-20001101</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C47302-19780601</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40621-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C15212-20080401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16206-19910325</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C22226-20051011</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C30423-20050401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C10443-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C22211-20090217</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16210-20041101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24216-20041101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C02203-20170101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C12236-20060327</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C11201-20030401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23215-19830301</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23205-19950901</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24205-20041206</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C06205-20050218</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C20213-20000401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C43202-20050801</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C19202-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23425-19960701</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C28212-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05209-19980601</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C06203-20180131</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C21202-20091031</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C30421-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C25201-20090401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C30207-20051001</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C33201-20090401</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C08215-19981001</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C15226-20051001</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2891,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2900,31 +2900,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.6">
@@ -2936,31 +2936,31 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
@@ -3010,31 +3010,31 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M66" si="0">"ifcp:"&amp;A3&amp;"
@@ -3084,31 +3084,31 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3141,31 +3141,31 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3200,31 +3200,31 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="L6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3259,31 +3259,31 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="L7" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3316,31 +3316,31 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3373,31 +3373,31 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3430,31 +3430,31 @@
         <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3487,31 +3487,31 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L11" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3544,31 +3544,31 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3601,31 +3601,31 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3658,31 +3658,31 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="L14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3715,31 +3715,31 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3772,31 +3772,31 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3829,31 +3829,31 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3886,31 +3886,31 @@
         <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3943,31 +3943,31 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4000,31 +4000,31 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="L20" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4057,31 +4057,31 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4114,31 +4114,31 @@
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="L22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4171,31 +4171,31 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4228,31 +4228,31 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4285,22 +4285,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -4335,31 +4335,31 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4392,31 +4392,31 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4449,31 +4449,31 @@
         <v>95</v>
       </c>
       <c r="D28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
         <v>246</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>411</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="I28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L28" t="s">
-        <v>247</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4506,31 +4506,31 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4563,31 +4563,31 @@
         <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4620,31 +4620,31 @@
         <v>674</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4677,31 +4677,31 @@
         <v>680</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4734,31 +4734,31 @@
         <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
         <v>256</v>
-      </c>
-      <c r="L33" t="s">
-        <v>257</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4791,22 +4791,22 @@
         <v>676</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -4841,31 +4841,31 @@
         <v>678</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="L35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4898,31 +4898,31 @@
         <v>682</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4955,31 +4955,31 @@
         <v>663</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5012,22 +5012,22 @@
         <v>714</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -5062,31 +5062,31 @@
         <v>715</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5119,22 +5119,22 @@
         <v>716</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -5169,22 +5169,22 @@
         <v>717</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -5219,31 +5219,31 @@
         <v>736</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5276,31 +5276,31 @@
         <v>737</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5333,31 +5333,31 @@
         <v>738</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="L44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5390,31 +5390,31 @@
         <v>746</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5447,31 +5447,31 @@
         <v>747</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="L46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5504,31 +5504,31 @@
         <v>754</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5561,31 +5561,31 @@
         <v>764</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5618,22 +5618,22 @@
         <v>767</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -5668,31 +5668,31 @@
         <v>795</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5725,31 +5725,31 @@
         <v>797</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5782,31 +5782,31 @@
         <v>798</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5839,31 +5839,31 @@
         <v>811</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="L53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5896,31 +5896,31 @@
         <v>812</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5953,31 +5953,31 @@
         <v>823</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6010,31 +6010,31 @@
         <v>853</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="L56" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6067,22 +6067,22 @@
         <v>875</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
@@ -6117,31 +6117,31 @@
         <v>876</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6174,31 +6174,31 @@
         <v>881</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6231,31 +6231,31 @@
         <v>882</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6288,31 +6288,31 @@
         <v>884</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6345,31 +6345,31 @@
         <v>893</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="L62" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6402,31 +6402,31 @@
         <v>894</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="L63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6459,31 +6459,31 @@
         <v>921</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="L64" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6516,31 +6516,31 @@
         <v>923</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6573,31 +6573,31 @@
         <v>933</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6630,22 +6630,22 @@
         <v>934</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
@@ -6697,31 +6697,31 @@
         <v>935</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6754,28 +6754,28 @@
         <v>941</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6808,31 +6808,31 @@
         <v>951</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6865,31 +6865,31 @@
         <v>950</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H71" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="L71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M71" s="4" t="str">
         <f t="shared" si="1"/>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DC3D7B-E946-904F-94D3-8ABDBCA8545D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08390C-D0B4-334B-81A0-A6ACF68C9E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1768,13 +1768,13 @@
     <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
   </si>
   <si>
-    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
+    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;http://example.org/ifcp/&gt; .
-@prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
+@prefix ifcp: &lt;https://w3id.org/ifcp/ifcp/&gt; .
+@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2877,8 +2877,8 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2966,7 +2966,7 @@
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
-&lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;F2&amp;"&gt; ;
@@ -2984,7 +2984,7 @@
         <v>ifcp:33
     rdf:type crm:E1 ;
     rdfs:label "日立風流物"@ja .
-&lt;http://example.org/ifcp/33/held/2018/&gt;
+&lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
@@ -6892,11 +6892,28 @@
         <v>320</v>
       </c>
       <c r="M71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>"ifcp:"&amp;A71&amp;"
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D71&amp;"""@ja .
+&lt;https://w3id.org/ifcp/"&amp;A71&amp;"/held/2018/"&amp;B71&amp;"&gt;
+    rdf:type crm:E5 ;
+    crm:P17 ifcp:"&amp;A71&amp;" ;
+    crm:P7 &lt;"&amp;F71&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H71&amp;"&gt; ;
+    crm:P14 """&amp;I71&amp;""" ;
+    crm:P67 &lt;"&amp;L71&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;J71&amp;""" ;
+        crm:P115 """&amp;K71&amp;""" 
+    ] . 
+&lt;"&amp;F71&amp;"&gt;
+    rdfs:label """&amp;E71&amp;""".
+&lt;"&amp;H71&amp;"&gt;
+    rdfs:label """&amp;G71&amp;"""."</f>
         <v>ifcp:302
     rdf:type crm:E1 ;
     rdfs:label "村上祭の屋台行事"@ja .
-&lt;http://example.org/ifcp/302/held/2018/&gt;
+&lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:302 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08390C-D0B4-334B-81A0-A6ACF68C9E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7F5FD-47B4-7241-B653-0EF64DA4C88F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2877,8 +2877,8 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3040,7 +3040,7 @@
         <f t="shared" ref="M3:M66" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
-&lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;F3&amp;"&gt; ;
@@ -3058,7 +3058,7 @@
         <v>ifcp:63
     rdf:type crm:E1 ;
     rdfs:label "烏山の山あげ行事"@ja .
-&lt;http://example.org/ifcp/63/held/2018/&gt;
+&lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:63 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
@@ -3115,7 +3115,7 @@
         <v>ifcp:64
     rdf:type crm:E1 ;
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
-&lt;http://example.org/ifcp/64/held/2018/&gt;
+&lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:64 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
@@ -3172,7 +3172,7 @@
         <v>ifcp:66
     rdf:type crm:E1 ;
     rdfs:label "高岡御車山祭の御車山行事"@ja .
-&lt;http://example.org/ifcp/66/held/2018/&gt;
+&lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:66 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
@@ -3231,7 +3231,7 @@
         <v>ifcp:69
     rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;http://example.org/ifcp/69/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
@@ -3290,7 +3290,7 @@
         <v>ifcp:69
     rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
-&lt;http://example.org/ifcp/69/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
@@ -3347,7 +3347,7 @@
         <v>ifcp:71
     rdf:type crm:E1 ;
     rdfs:label "長浜曳山祭の曳山行事"@ja .
-&lt;http://example.org/ifcp/71/held/2018/&gt;
+&lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:71 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
@@ -3404,7 +3404,7 @@
         <v>ifcp:72
     rdf:type crm:E1 ;
     rdfs:label "京都祇園祭の山鉾行事"@ja .
-&lt;http://example.org/ifcp/72/held/2018/&gt;
+&lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:72 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
@@ -3461,7 +3461,7 @@
         <v>ifcp:79
     rdf:type crm:E1 ;
     rdfs:label "博多祇園山笠行事"@ja .
-&lt;http://example.org/ifcp/79/held/2018/&gt;
+&lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:79 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
@@ -3518,7 +3518,7 @@
         <v>ifcp:81
     rdf:type crm:E1 ;
     rdfs:label "青森のねぶた"@ja .
-&lt;http://example.org/ifcp/81/held/2018/&gt;
+&lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:81 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
@@ -3575,7 +3575,7 @@
         <v>ifcp:82
     rdf:type crm:E1 ;
     rdfs:label "弘前のねぷた"@ja .
-&lt;http://example.org/ifcp/82/held/2018/&gt;
+&lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:82 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
@@ -3632,7 +3632,7 @@
         <v>ifcp:84
     rdf:type crm:E1 ;
     rdfs:label "秋田の竿灯"@ja .
-&lt;http://example.org/ifcp/84/held/2018/&gt;
+&lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:84 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
@@ -3689,7 +3689,7 @@
         <v>ifcp:85
     rdf:type crm:E1 ;
     rdfs:label "金沢の羽山ごもり"@ja .
-&lt;http://example.org/ifcp/85/held/2018/&gt;
+&lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:85 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
@@ -3746,7 +3746,7 @@
         <v>ifcp:90
     rdf:type crm:E1 ;
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
-&lt;http://example.org/ifcp/90/held/2018/&gt;
+&lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
@@ -3803,7 +3803,7 @@
         <v>ifcp:91
     rdf:type crm:E1 ;
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
-&lt;http://example.org/ifcp/91/held/2018/&gt;
+&lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:91 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
@@ -3860,7 +3860,7 @@
         <v>ifcp:92
     rdf:type crm:E1 ;
     rdfs:label "豊橋神明社の鬼祭"@ja .
-&lt;http://example.org/ifcp/92/held/2018/&gt;
+&lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:92 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
@@ -3917,7 +3917,7 @@
         <v>ifcp:95
     rdf:type crm:E1 ;
     rdfs:label "戸畑祇園大山笠行事"@ja .
-&lt;http://example.org/ifcp/95/held/2018/&gt;
+&lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:95 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
@@ -3974,7 +3974,7 @@
         <v>ifcp:96
     rdf:type crm:E1 ;
     rdfs:label "唐津くんちの曳山行事"@ja .
-&lt;http://example.org/ifcp/96/held/2018/&gt;
+&lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:96 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
@@ -4031,7 +4031,7 @@
         <v>ifcp:100
     rdf:type crm:E1 ;
     rdfs:label "田島祇園祭のおとうや行事"@ja .
-&lt;http://example.org/ifcp/100/held/2018/&gt;
+&lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:100 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
@@ -4088,7 +4088,7 @@
         <v>ifcp:102
     rdf:type crm:E1 ;
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
-&lt;http://example.org/ifcp/102/held/2018/&gt;
+&lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:102 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
@@ -4145,7 +4145,7 @@
         <v>ifcp:114
     rdf:type crm:E1 ;
     rdfs:label "青柏祭の曳山行事"@ja .
-&lt;http://example.org/ifcp/114/held/2018/&gt;
+&lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:114 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
@@ -4202,7 +4202,7 @@
         <v>ifcp:120
     rdf:type crm:E1 ;
     rdfs:label "岩木山の登拝行事"@ja .
-&lt;http://example.org/ifcp/120/held/2018/&gt;
+&lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:120 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
@@ -4259,7 +4259,7 @@
         <v>ifcp:122
     rdf:type crm:E1 ;
     rdfs:label "室根神社祭のマツリバ行事"@ja .
-&lt;http://example.org/ifcp/122/held/2018/&gt;
+&lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:122 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03000-19700401&gt; ;
@@ -4309,7 +4309,7 @@
         <v>ifcp:126
     rdf:type crm:E1 ;
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
-&lt;http://example.org/ifcp/126/held/2018/&gt;
+&lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
@@ -4366,7 +4366,7 @@
         <v>ifcp:129
     rdf:type crm:E1 ;
     rdfs:label "涌出宮の宮座行事"@ja .
-&lt;http://example.org/ifcp/129/held/2018/&gt;
+&lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:129 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
@@ -4423,7 +4423,7 @@
         <v>ifcp:149
     rdf:type crm:E1 ;
     rdfs:label "角館祭りのやま行事"@ja .
-&lt;http://example.org/ifcp/149/held/2018/&gt;
+&lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:149 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
@@ -4480,7 +4480,7 @@
         <v>ifcp:150
     rdf:type crm:E1 ;
     rdfs:label "近江中山の芋競べ祭り"@ja .
-&lt;http://example.org/ifcp/150/held/2018/&gt;
+&lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:150 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
@@ -4537,7 +4537,7 @@
         <v>ifcp:153
     rdf:type crm:E1 ;
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
-&lt;http://example.org/ifcp/153/held/2018/&gt;
+&lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:153 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
@@ -4594,7 +4594,7 @@
         <v>ifcp:171
     rdf:type crm:E1 ;
     rdfs:label "発光路の強飯式"@ja .
-&lt;http://example.org/ifcp/171/held/2018/&gt;
+&lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:171 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
@@ -4651,7 +4651,7 @@
         <v>ifcp:172
     rdf:type crm:E1 ;
     rdfs:label "貴船神社の船祭り"@ja .
-&lt;http://example.org/ifcp/172/held/2018/&gt;
+&lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:172 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
@@ -4708,7 +4708,7 @@
         <v>ifcp:176
     rdf:type crm:E1 ;
     rdfs:label "日田祗園の曳山行事"@ja .
-&lt;http://example.org/ifcp/176/held/2018/&gt;
+&lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:176 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44000-19700401&gt; ;
@@ -4765,7 +4765,7 @@
         <v>ifcp:178
     rdf:type crm:E1 ;
     rdfs:label "土崎神明社祭の曳山行事"@ja .
-&lt;http://example.org/ifcp/178/held/2018/&gt;
+&lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:178 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
@@ -4815,7 +4815,7 @@
         <v>ifcp:180
     rdf:type crm:E1 ;
     rdfs:label "魚津のタテモン行事"@ja .
-&lt;http://example.org/ifcp/180/held/2018/&gt;
+&lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
@@ -4872,7 +4872,7 @@
         <v>ifcp:182
     rdf:type crm:E1 ;
     rdfs:label "鳥出神社の鯨船行事"@ja .
-&lt;http://example.org/ifcp/182/held/2018/&gt;
+&lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
@@ -4929,7 +4929,7 @@
         <v>ifcp:187
     rdf:type crm:E1 ;
     rdfs:label "塩屋湾のウンガミ"@ja .
-&lt;http://example.org/ifcp/187/held/2018/&gt;
+&lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:187 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
@@ -4986,7 +4986,7 @@
         <v>ifcp:192
     rdf:type crm:E1 ;
     rdfs:label "等覚寺の松会"@ja .
-&lt;http://example.org/ifcp/192/held/2018/&gt;
+&lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:192 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
@@ -5036,7 +5036,7 @@
         <v>ifcp:197
     rdf:type crm:E1 ;
     rdfs:label "山北のボタモチ祭り"@ja .
-&lt;http://example.org/ifcp/197/held/2018/&gt;
+&lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:197 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
@@ -5093,7 +5093,7 @@
         <v>ifcp:198
     rdf:type crm:E1 ;
     rdfs:label "滑川のネブタ流し"@ja .
-&lt;http://example.org/ifcp/198/held/2018/&gt;
+&lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:198 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
@@ -5143,7 +5143,7 @@
         <v>ifcp:199
     rdf:type crm:E1 ;
     rdfs:label "大江八幡神社の御船行事"@ja .
-&lt;http://example.org/ifcp/199/held/2018/&gt;
+&lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
@@ -5193,7 +5193,7 @@
         <v>ifcp:201
     rdf:type crm:E1 ;
     rdfs:label "河内祭の御舟行事"@ja .
-&lt;http://example.org/ifcp/201/held/2018/&gt;
+&lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
@@ -5250,7 +5250,7 @@
         <v>ifcp:205
     rdf:type crm:E1 ;
     rdfs:label "片品の猿追い祭"@ja .
-&lt;http://example.org/ifcp/205/held/2018/&gt;
+&lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:205 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10000-19700401&gt; ;
@@ -5307,7 +5307,7 @@
         <v>ifcp:206
     rdf:type crm:E1 ;
     rdfs:label "気多の鵜祭の習俗"@ja .
-&lt;http://example.org/ifcp/206/held/2018/&gt;
+&lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:206 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
@@ -5364,7 +5364,7 @@
         <v>ifcp:208
     rdf:type crm:E1 ;
     rdfs:label "見付天神裸祭"@ja .
-&lt;http://example.org/ifcp/208/held/2018/&gt;
+&lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
@@ -5421,7 +5421,7 @@
         <v>ifcp:215
     rdf:type crm:E1 ;
     rdfs:label "城端神明宮祭の曳山行事"@ja .
-&lt;http://example.org/ifcp/215/held/2018/&gt;
+&lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:215 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
@@ -5478,7 +5478,7 @@
         <v>ifcp:216
     rdf:type crm:E1 ;
     rdfs:label "上野天神祭のダンジリ行事"@ja .
-&lt;http://example.org/ifcp/216/held/2018/&gt;
+&lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:216 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
@@ -5535,7 +5535,7 @@
         <v>ifcp:219
     rdf:type crm:E1 ;
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
-&lt;http://example.org/ifcp/219/held/2018/&gt;
+&lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:219 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
@@ -5592,7 +5592,7 @@
         <v>ifcp:220
     rdf:type crm:E1 ;
     rdfs:label "八戸三社大祭の山車行事"@ja .
-&lt;http://example.org/ifcp/220/held/2018/&gt;
+&lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:220 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
@@ -5642,7 +5642,7 @@
         <v>ifcp:226
     rdf:type crm:E1 ;
     rdfs:label "佐原の山車行事"@ja .
-&lt;http://example.org/ifcp/226/held/2018/&gt;
+&lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
@@ -5699,7 +5699,7 @@
         <v>ifcp:231
     rdf:type crm:E1 ;
     rdfs:label "川越氷川祭の山車行事"@ja .
-&lt;http://example.org/ifcp/231/held/2018/&gt;
+&lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:231 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
@@ -5756,7 +5756,7 @@
         <v>ifcp:232
     rdf:type crm:E1 ;
     rdfs:label "茂名の里芋祭"@ja .
-&lt;http://example.org/ifcp/232/held/2018/&gt;
+&lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:232 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
@@ -5813,7 +5813,7 @@
         <v>ifcp:234
     rdf:type crm:E1 ;
     rdfs:label "三上のずいき祭"@ja .
-&lt;http://example.org/ifcp/234/held/2018/&gt;
+&lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:234 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
@@ -5870,7 +5870,7 @@
         <v>ifcp:243
     rdf:type crm:E1 ;
     rdfs:label "犬山祭の車山行事"@ja .
-&lt;http://example.org/ifcp/243/held/2018/&gt;
+&lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:243 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
@@ -5927,7 +5927,7 @@
         <v>ifcp:244
     rdf:type crm:E1 ;
     rdfs:label "亀崎潮干祭の山車行事"@ja .
-&lt;http://example.org/ifcp/244/held/2018/&gt;
+&lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:244 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
@@ -5984,7 +5984,7 @@
         <v>ifcp:249
     rdf:type crm:E1 ;
     rdfs:label "桑名石取祭の祭車行事"@ja .
-&lt;http://example.org/ifcp/249/held/2018/&gt;
+&lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:249 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
@@ -6041,7 +6041,7 @@
         <v>ifcp:259
     rdf:type crm:E1 ;
     rdfs:label "新庄まつりの山車行事"@ja .
-&lt;http://example.org/ifcp/259/held/2018/&gt;
+&lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:259 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
@@ -6091,7 +6091,7 @@
         <v>ifcp:270
     rdf:type crm:E1 ;
     rdfs:label "小菅の柱松行事"@ja .
-&lt;http://example.org/ifcp/270/held/2018/&gt;
+&lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:270 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
@@ -6148,7 +6148,7 @@
         <v>ifcp:272
     rdf:type crm:E1 ;
     rdfs:label "八代妙見祭の神幸行事"@ja .
-&lt;http://example.org/ifcp/272/held/2018/&gt;
+&lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:272 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43000-19700401&gt; ;
@@ -6205,7 +6205,7 @@
         <v>ifcp:273
     rdf:type crm:E1 ;
     rdfs:label "吉田の火祭"@ja .
-&lt;http://example.org/ifcp/273/held/2018/&gt;
+&lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:273 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19000-19700401&gt; ;
@@ -6262,7 +6262,7 @@
         <v>ifcp:275
     rdf:type crm:E1 ;
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
-&lt;http://example.org/ifcp/275/held/2018/&gt;
+&lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:275 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
@@ -6319,7 +6319,7 @@
         <v>ifcp:276
     rdf:type crm:E1 ;
     rdfs:label "坂越の船祭"@ja .
-&lt;http://example.org/ifcp/276/held/2018/&gt;
+&lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:276 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
@@ -6376,7 +6376,7 @@
         <v>ifcp:282
     rdf:type crm:E1 ;
     rdfs:label "花輪祭の屋台行事"@ja .
-&lt;http://example.org/ifcp/282/held/2018/&gt;
+&lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:282 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
@@ -6433,7 +6433,7 @@
         <v>ifcp:283
     rdf:type crm:E1 ;
     rdfs:label "松例祭の大松明行事"@ja .
-&lt;http://example.org/ifcp/283/held/2018/&gt;
+&lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:283 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
@@ -6490,7 +6490,7 @@
         <v>ifcp:288
     rdf:type crm:E1 ;
     rdfs:label "大垣祭の軕行事"@ja .
-&lt;http://example.org/ifcp/288/held/2018/&gt;
+&lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:288 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
@@ -6547,7 +6547,7 @@
         <v>ifcp:290
     rdf:type crm:E1 ;
     rdfs:label "那智の扇祭り"@ja .
-&lt;http://example.org/ifcp/290/held/2018/&gt;
+&lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:290 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
@@ -6604,7 +6604,7 @@
         <v>ifcp:291
     rdf:type crm:E1 ;
     rdfs:label "大津祭の曳山行事"@ja .
-&lt;http://example.org/ifcp/291/held/2018/&gt;
+&lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:291 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
@@ -6653,7 +6653,7 @@
         <f t="shared" ref="M67:M71" si="1">"ifcp:"&amp;A67&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D67&amp;"""@ja .
-&lt;http://example.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
     crm:P7 &lt;"&amp;F67&amp;"&gt; ;
@@ -6671,7 +6671,7 @@
         <v>ifcp:292
     rdf:type crm:E1 ;
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
-&lt;http://example.org/ifcp/292/held/2018/&gt;
+&lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
@@ -6728,7 +6728,7 @@
         <v>ifcp:293
     rdf:type crm:E1 ;
     rdfs:label "西大寺の会陽"@ja .
-&lt;http://example.org/ifcp/293/held/2018/&gt;
+&lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:293 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33000-19700401&gt; ;
@@ -6782,7 +6782,7 @@
         <v>ifcp:295
     rdf:type crm:E1 ;
     rdfs:label "常陸大津の御船祭"@ja .
-&lt;http://example.org/ifcp/295/held/2018/&gt;
+&lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:295 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
@@ -6839,7 +6839,7 @@
         <v>ifcp:301
     rdf:type crm:E1 ;
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
-&lt;http://example.org/ifcp/301/held/2018/&gt;
+&lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
@@ -6892,24 +6892,7 @@
         <v>320</v>
       </c>
       <c r="M71" s="4" t="str">
-        <f>"ifcp:"&amp;A71&amp;"
-    rdf:type crm:E1 ;
-    rdfs:label """&amp;D71&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A71&amp;"/held/2018/"&amp;B71&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P17 ifcp:"&amp;A71&amp;" ;
-    crm:P7 &lt;"&amp;F71&amp;"&gt; ;
-    crm:P7 &lt;"&amp;H71&amp;"&gt; ;
-    crm:P14 """&amp;I71&amp;""" ;
-    crm:P67 &lt;"&amp;L71&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J71&amp;""" ;
-        crm:P115 """&amp;K71&amp;""" 
-    ] . 
-&lt;"&amp;F71&amp;"&gt;
-    rdfs:label """&amp;E71&amp;""".
-&lt;"&amp;H71&amp;"&gt;
-    rdfs:label """&amp;G71&amp;"""."</f>
+        <f t="shared" si="1"/>
         <v>ifcp:302
     rdf:type crm:E1 ;
     rdfs:label "村上祭の屋台行事"@ja .

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7F5FD-47B4-7241-B653-0EF64DA4C88F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A0EA0-FFC6-A64F-8C68-DA068FD5E592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,9 +1569,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C11207-20050401</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C16202-20051101</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C21203-20050201</t>
   </si>
   <si>
@@ -1581,9 +1578,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C26100-20041220</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C40132-19720401</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C02201-20070901</t>
   </si>
   <si>
@@ -1593,9 +1587,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C05201-20050111</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C07201-20080701</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C21217-20040201</t>
   </si>
   <si>
@@ -1617,9 +1608,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C17202-20090901</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C03209-20170904</t>
   </si>
   <si>
@@ -1629,12 +1617,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C26214-20070312</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C25383-19700401</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C12466-20060320</t>
   </si>
   <si>
@@ -1688,9 +1670,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C24216-20041101</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100</t>
-  </si>
-  <si>
     <t>http://data.e-stat.go.jp/lod/sac/C02203-20170101</t>
   </si>
   <si>
@@ -1698,13 +1677,6 @@
   </si>
   <si>
     <t>http://data.e-stat.go.jp/lod/sac/C11201-20030401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>http://data.e-stat.go.jp/lod/sac/C23215-19830301</t>
@@ -1773,9 +1745,41 @@
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;https://w3id.org/ifcp/ifcp/&gt; .
+@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16202-20051101</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40132-19720401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07201-20080701</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2881,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -2924,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.6">
@@ -2969,36 +2973,26 @@
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;F2&amp;"&gt; ;
     crm:P7 &lt;"&amp;H2&amp;"&gt; ;
     crm:P14 """&amp;I2&amp;""" ;
     crm:P67 &lt;"&amp;L2&amp;"&gt; ;
     crm:P4 [
         crm:P116 """&amp;J2&amp;""" ;
         crm:P115 """&amp;K2&amp;""" 
-    ] . 
-&lt;"&amp;F2&amp;"&gt;
-    rdfs:label """&amp;E2&amp;""".
-&lt;"&amp;H2&amp;"&gt;
-    rdfs:label """&amp;G2&amp;"""."</f>
-        <v>ifcp:33
+    ] . "</f>
+        <v xml:space="preserve">ifcp:33
     rdf:type crm:E1 ;
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:33 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
     crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt;
-    rdfs:label "茨城県".
-&lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt;
-    rdfs:label "日立市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6">
@@ -3043,36 +3037,26 @@
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;F3&amp;"&gt; ;
     crm:P7 &lt;"&amp;H3&amp;"&gt; ;
     crm:P14 """&amp;I3&amp;""" ;
     crm:P67 &lt;"&amp;L3&amp;"&gt; ;
     crm:P4 [
         crm:P116 """&amp;J3&amp;""" ;
         crm:P115 """&amp;K3&amp;""" 
-    ] . 
-&lt;"&amp;F3&amp;"&gt;
-    rdfs:label """&amp;E3&amp;""".
-&lt;"&amp;H3&amp;"&gt;
-    rdfs:label """&amp;G3&amp;"""."</f>
-        <v>ifcp:63
+    ] . "</f>
+        <v xml:space="preserve">ifcp:63
     rdf:type crm:E1 ;
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:63 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
     crm:P4 [
         crm:P116 "2018-07-26" ;
         crm:P115 "2018-07-29" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
-    rdfs:label "栃木県".
-&lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt;
-    rdfs:label "那須烏山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="409.6">
@@ -3112,24 +3096,19 @@
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:64
+        <v xml:space="preserve">ifcp:64
     rdf:type crm:E1 ;
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:64 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
     crm:P67 &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-03" ;
         crm:P115 "2018-12-03" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
-    rdfs:label "埼玉県".
-&lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt;
-    rdfs:label "秩父市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.6">
@@ -3152,8 +3131,8 @@
       <c r="G5" t="s">
         <v>326</v>
       </c>
-      <c r="H5" t="s">
-        <v>429</v>
+      <c r="H5" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="I5" t="s">
         <v>108</v>
@@ -3169,24 +3148,19 @@
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:66
+        <v xml:space="preserve">ifcp:66
     rdf:type crm:E1 ;
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:66 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C16202-20051101&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
     crm:P4 [
         crm:P116 "2018-05-01" ;
         crm:P115 "2018-05-01" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
-    rdfs:label "富山県".
-&lt;http://data.e-stat.go.jp/lod/page/sac/C16202-20051101&gt;
-    rdfs:label "高岡市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
@@ -3212,7 +3186,7 @@
         <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
@@ -3228,24 +3202,19 @@
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:69
+        <v xml:space="preserve">ifcp:69
     rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-14" ;
         crm:P115 "2018-04-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
-    rdfs:label "岐阜県".
-&lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt;
-    rdfs:label "高山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="409.6">
@@ -3271,7 +3240,7 @@
         <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
@@ -3287,24 +3256,19 @@
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:69
+        <v xml:space="preserve">ifcp:69
     rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-09" ;
         crm:P115 "2018-10-10" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
-    rdfs:label "岐阜県".
-&lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt;
-    rdfs:label "高山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.6">
@@ -3328,7 +3292,7 @@
         <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I8" t="s">
         <v>110</v>
@@ -3344,24 +3308,19 @@
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:71
+        <v xml:space="preserve">ifcp:71
     rdf:type crm:E1 ;
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:71 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
     crm:P67 &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-13" ;
         crm:P115 "2018-04-16" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
-    rdfs:label "滋賀県".
-&lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt;
-    rdfs:label "長浜市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="409.6">
@@ -3385,7 +3344,7 @@
         <v>330</v>
       </c>
       <c r="H9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I9" t="s">
         <v>111</v>
@@ -3401,24 +3360,19 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:72
+        <v xml:space="preserve">ifcp:72
     rdf:type crm:E1 ;
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:72 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
     crm:P67 &lt;https://kyoto-design.jp/event/35063&gt; ;
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-31" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt;
-    rdfs:label "京都府".
-&lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt;
-    rdfs:label "京都市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="409.6">
@@ -3441,8 +3395,8 @@
       <c r="G10" t="s">
         <v>331</v>
       </c>
-      <c r="H10" t="s">
-        <v>433</v>
+      <c r="H10" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="I10" t="s">
         <v>112</v>
@@ -3458,24 +3412,19 @@
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:79
+        <v xml:space="preserve">ifcp:79
     rdf:type crm:E1 ;
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:79 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C40132-19720401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
     crm:P67 &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
-    rdfs:label "福岡県".
-&lt;http://data.e-stat.go.jp/lod/page/sac/C40132-19720401&gt;
-    rdfs:label "福岡市博多".</v>
+    ] . </v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6">
@@ -3499,7 +3448,7 @@
         <v>332</v>
       </c>
       <c r="H11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I11" t="s">
         <v>113</v>
@@ -3515,24 +3464,19 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:81
+        <v xml:space="preserve">ifcp:81
     rdf:type crm:E1 ;
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:81 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-02" ;
         crm:P115 "2018-08-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
-    rdfs:label "青森県".
-&lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt;
-    rdfs:label "青森市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.6">
@@ -3556,7 +3500,7 @@
         <v>333</v>
       </c>
       <c r="H12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I12" t="s">
         <v>114</v>
@@ -3572,24 +3516,19 @@
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:82
+        <v xml:space="preserve">ifcp:82
     rdf:type crm:E1 ;
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:82 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
     crm:P67 &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
     crm:P4 [
         crm:P116 "2018-08-01" ;
         crm:P115 "2018-08-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
-    rdfs:label "青森県".
-&lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt;
-    rdfs:label "弘前市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="409.6">
@@ -3613,7 +3552,7 @@
         <v>334</v>
       </c>
       <c r="H13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I13" t="s">
         <v>115</v>
@@ -3629,24 +3568,19 @@
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:84
+        <v xml:space="preserve">ifcp:84
     rdf:type crm:E1 ;
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:84 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
     crm:P67 &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-06" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt;
-    rdfs:label "秋田市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="409.6">
@@ -3669,8 +3603,8 @@
       <c r="G14" t="s">
         <v>335</v>
       </c>
-      <c r="H14" t="s">
-        <v>437</v>
+      <c r="H14" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="I14" t="s">
         <v>116</v>
@@ -3686,24 +3620,19 @@
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:85
+        <v xml:space="preserve">ifcp:85
     rdf:type crm:E1 ;
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:85 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C07201-20080701&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
     crm:P67 &lt;https://fukuori.com/kitemina/event/124/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-02" ;
         crm:P115 "2018-01-04" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
-    rdfs:label "福島県".
-&lt;http://data.e-stat.go.jp/lod/page/sac/C07201-20080701&gt;
-    rdfs:label "福島市松川町金沢地区".</v>
+    ] . </v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6">
@@ -3727,7 +3656,7 @@
         <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I15" t="s">
         <v>117</v>
@@ -3743,24 +3672,19 @@
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:90
+        <v xml:space="preserve">ifcp:90
     rdf:type crm:E1 ;
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:90 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
     crm:P67 &lt;https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/&gt; ;
     crm:P4 [
         crm:P116 "2018-04-19" ;
         crm:P115 "2018-04-20" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
-    rdfs:label "岐阜県".
-&lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt;
-    rdfs:label "飛騨市古川町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6">
@@ -3784,7 +3708,7 @@
         <v>337</v>
       </c>
       <c r="H16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I16" t="s">
         <v>118</v>
@@ -3800,24 +3724,19 @@
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:91
+        <v xml:space="preserve">ifcp:91
     rdf:type crm:E1 ;
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:91 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
     crm:P67 &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
     crm:P4 [
         crm:P116 "中止" ;
         crm:P115 "中止" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt;
-    rdfs:label "津島市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6">
@@ -3841,7 +3760,7 @@
         <v>338</v>
       </c>
       <c r="H17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
@@ -3857,24 +3776,19 @@
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:92
+        <v xml:space="preserve">ifcp:92
     rdf:type crm:E1 ;
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:92 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-10" ;
         crm:P115 "2018-02-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt;
-    rdfs:label "豊橋市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="409.6">
@@ -3898,7 +3812,7 @@
         <v>339</v>
       </c>
       <c r="H18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I18" t="s">
         <v>120</v>
@@ -3914,24 +3828,19 @@
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:95
+        <v xml:space="preserve">ifcp:95
     rdf:type crm:E1 ;
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:95 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
     crm:P67 &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-29" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
-    rdfs:label "福岡県".
-&lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt;
-    rdfs:label "北九州市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="409.6">
@@ -3955,7 +3864,7 @@
         <v>340</v>
       </c>
       <c r="H19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I19" t="s">
         <v>121</v>
@@ -3971,24 +3880,19 @@
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:96
+        <v xml:space="preserve">ifcp:96
     rdf:type crm:E1 ;
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:96 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
     crm:P67 &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
     crm:P4 [
         crm:P116 "2018-11-02" ;
         crm:P115 "2018-11-04" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt;
-    rdfs:label "佐賀県".
-&lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt;
-    rdfs:label "唐津市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="409.6">
@@ -4012,7 +3916,7 @@
         <v>341</v>
       </c>
       <c r="H20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I20" t="s">
         <v>122</v>
@@ -4028,24 +3932,19 @@
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:100
+        <v xml:space="preserve">ifcp:100
     rdf:type crm:E1 ;
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:100 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
     crm:P67 &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-22" ;
         crm:P115 "2018-07-24" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
-    rdfs:label "福島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt;
-    rdfs:label "南会津町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6">
@@ -4069,7 +3968,7 @@
         <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I21" t="s">
         <v>123</v>
@@ -4085,24 +3984,19 @@
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:102
+        <v xml:space="preserve">ifcp:102
     rdf:type crm:E1 ;
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:102 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
     crm:P4 [
         crm:P116 "2018-09-20" ;
         crm:P115 "2018-09-20" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
-    rdfs:label "石川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt;
-    rdfs:label "七尾市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6">
@@ -4125,8 +4019,8 @@
       <c r="G22" t="s">
         <v>343</v>
       </c>
-      <c r="H22" t="s">
-        <v>445</v>
+      <c r="H22" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="I22" t="s">
         <v>124</v>
@@ -4142,24 +4036,19 @@
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:114
+        <v xml:space="preserve">ifcp:114
     rdf:type crm:E1 ;
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:114 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-05" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
-    rdfs:label "石川県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S172020010&gt;
-    rdfs:label "府中町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="409.6">
@@ -4183,7 +4072,7 @@
         <v>344</v>
       </c>
       <c r="H23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I23" t="s">
         <v>125</v>
@@ -4199,24 +4088,19 @@
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:120
+        <v xml:space="preserve">ifcp:120
     rdf:type crm:E1 ;
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:120 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
     crm:P67 &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-08" ;
         crm:P115 "2018-09-10" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
-    rdfs:label "青森県".
-&lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt;
-    rdfs:label "弘前市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="409.6">
@@ -4240,7 +4124,7 @@
         <v>345</v>
       </c>
       <c r="H24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I24" t="s">
         <v>126</v>
@@ -4256,24 +4140,19 @@
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:122
+        <v xml:space="preserve">ifcp:122
     rdf:type crm:E1 ;
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:122 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
     crm:P67 &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-26" ;
         crm:P115 "2018-10-28" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C03000-19700401&gt;
-    rdfs:label "岩手県".
-&lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt;
-    rdfs:label "一関市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="25" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -4297,7 +4176,7 @@
         <v>346</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>127</v>
@@ -4306,24 +4185,19 @@
       <c r="K25" s="18"/>
       <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:126
+        <v xml:space="preserve">ifcp:126
     rdf:type crm:E1 ;
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:126 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt;
-    rdfs:label "男鹿市、潟上市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="409.6">
@@ -4347,7 +4221,7 @@
         <v>347</v>
       </c>
       <c r="H26" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
@@ -4363,24 +4237,19 @@
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:129
+        <v xml:space="preserve">ifcp:129
     rdf:type crm:E1 ;
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:129 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/26131.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-18" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C26000-19700401&gt;
-    rdfs:label "京都府".
-&lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt;
-    rdfs:label "木津川市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="409.6">
@@ -4403,8 +4272,8 @@
       <c r="G27" t="s">
         <v>348</v>
       </c>
-      <c r="H27" t="s">
-        <v>449</v>
+      <c r="H27" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
@@ -4420,24 +4289,19 @@
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:149
+        <v xml:space="preserve">ifcp:149
     rdf:type crm:E1 ;
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:149 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-07" ;
         crm:P115 "2018-09-10" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S052150130&gt;
-    rdfs:label "仙北市角館".</v>
+    ] . </v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="409.6">
@@ -4461,7 +4325,7 @@
         <v>349</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="I28" t="s">
         <v>130</v>
@@ -4477,24 +4341,19 @@
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:150
+        <v xml:space="preserve">ifcp:150
     rdf:type crm:E1 ;
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:150 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C25383-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
     crm:P67 &lt;http://nihonguide.net/maturi/2586.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-02" ;
         crm:P115 "2018-09-02" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
-    rdfs:label "滋賀県".
-&lt;http://data.e-stat.go.jp/lod/page/sac/C25383-19700401&gt;
-    rdfs:label "日野町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="409.6">
@@ -4518,7 +4377,7 @@
         <v>350</v>
       </c>
       <c r="H29" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I29" t="s">
         <v>131</v>
@@ -4534,24 +4393,19 @@
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:153
+        <v xml:space="preserve">ifcp:153
     rdf:type crm:E1 ;
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:153 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
     crm:P67 &lt;http://bosotown.com/archives/2319&gt; ;
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
-    rdfs:label "千葉県".
-&lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt;
-    rdfs:label "南房総市千倉町白間津".</v>
+    ] . </v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="409.6">
@@ -4575,7 +4429,7 @@
         <v>351</v>
       </c>
       <c r="H30" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I30" t="s">
         <v>132</v>
@@ -4591,24 +4445,19 @@
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:171
+        <v xml:space="preserve">ifcp:171
     rdf:type crm:E1 ;
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:171 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
     crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
     crm:P4 [
         crm:P116 "2018-01-03" ;
         crm:P115 "2018-01-03" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
-    rdfs:label "栃木県".
-&lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt;
-    rdfs:label "鹿沼市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="409.6">
@@ -4632,7 +4481,7 @@
         <v>352</v>
       </c>
       <c r="H31" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I31" t="s">
         <v>133</v>
@@ -4648,24 +4497,19 @@
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:172
+        <v xml:space="preserve">ifcp:172
     rdf:type crm:E1 ;
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:172 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
     crm:P67 &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-28" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
-    rdfs:label "神奈川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt;
-    rdfs:label "真鶴町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="409.6">
@@ -4689,7 +4533,7 @@
         <v>353</v>
       </c>
       <c r="H32" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I32" t="s">
         <v>134</v>
@@ -4705,24 +4549,19 @@
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:176
+        <v xml:space="preserve">ifcp:176
     rdf:type crm:E1 ;
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:176 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-21" ;
         crm:P115 "2018-07-22" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C44000-19700401&gt;
-    rdfs:label "大分県".
-&lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt;
-    rdfs:label "日田市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="409.6">
@@ -4746,7 +4585,7 @@
         <v>354</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I33" t="s">
         <v>135</v>
@@ -4762,24 +4601,19 @@
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:178
+        <v xml:space="preserve">ifcp:178
     rdf:type crm:E1 ;
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:178 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
     crm:P67 &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-20" ;
         crm:P115 "2018-07-21" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt;
-    rdfs:label "秋田市土崎".</v>
+    ] . </v>
       </c>
     </row>
     <row r="34" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -4803,7 +4637,7 @@
         <v>355</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>136</v>
@@ -4812,24 +4646,19 @@
       <c r="K34" s="18"/>
       <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:180
+        <v xml:space="preserve">ifcp:180
     rdf:type crm:E1 ;
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:180 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
-    rdfs:label "富山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt;
-    rdfs:label "魚津市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="409.6">
@@ -4853,7 +4682,7 @@
         <v>356</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I35" t="s">
         <v>137</v>
@@ -4869,24 +4698,19 @@
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:182
+        <v xml:space="preserve">ifcp:182
     rdf:type crm:E1 ;
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:182 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
     crm:P67 &lt;https://www.you-yokkaichi.com/2018/08/15/5133/&gt; ;
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
-    rdfs:label "三重県".
-&lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt;
-    rdfs:label "四日市市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="409.6">
@@ -4910,7 +4734,7 @@
         <v>357</v>
       </c>
       <c r="H36" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I36" t="s">
         <v>138</v>
@@ -4926,24 +4750,19 @@
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:187
+        <v xml:space="preserve">ifcp:187
     rdf:type crm:E1 ;
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:187 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67 &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-04" ;
         crm:P115 "2018-09-04" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt;
-    rdfs:label "沖縄県".
-&lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt;
-    rdfs:label "大宜味村".</v>
+    ] . </v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="409.6">
@@ -4967,7 +4786,7 @@
         <v>358</v>
       </c>
       <c r="H37" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I37" t="s">
         <v>139</v>
@@ -4983,24 +4802,19 @@
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:192
+        <v xml:space="preserve">ifcp:192
     rdf:type crm:E1 ;
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:192 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-15" ;
         crm:P115 "2018-04-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
-    rdfs:label "福岡県".
-&lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt;
-    rdfs:label " 苅田町白川地区".</v>
+    ] . </v>
       </c>
     </row>
     <row r="38" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -5024,7 +4838,7 @@
         <v>359</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>140</v>
@@ -5033,24 +4847,19 @@
       <c r="K38" s="18"/>
       <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:197
+        <v xml:space="preserve">ifcp:197
     rdf:type crm:E1 ;
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:197 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
-    rdfs:label "新潟県".
-&lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt;
-    rdfs:label "村上市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" ht="409.6">
@@ -5074,7 +4883,7 @@
         <v>360</v>
       </c>
       <c r="H39" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I39" t="s">
         <v>141</v>
@@ -5090,24 +4899,19 @@
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:198
+        <v xml:space="preserve">ifcp:198
     rdf:type crm:E1 ;
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:198 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
     crm:P67 &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-07-31" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
-    rdfs:label "富山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt;
-    rdfs:label "滑川市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="40" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -5131,7 +4935,7 @@
         <v>361</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>142</v>
@@ -5140,24 +4944,19 @@
       <c r="K40" s="18"/>
       <c r="M40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:199
+        <v xml:space="preserve">ifcp:199
     rdf:type crm:E1 ;
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:199 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt;
-    rdfs:label "静岡県".
-&lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt;
-    rdfs:label "牧之原市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="41" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -5181,7 +4980,7 @@
         <v>362</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>143</v>
@@ -5190,24 +4989,19 @@
       <c r="K41" s="18"/>
       <c r="M41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:201
+        <v xml:space="preserve">ifcp:201
     rdf:type crm:E1 ;
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:201 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
-    rdfs:label "和歌山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt;
-    rdfs:label "古座町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="409.6">
@@ -5231,7 +5025,7 @@
         <v>363</v>
       </c>
       <c r="H42" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I42" t="s">
         <v>144</v>
@@ -5247,24 +5041,19 @@
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:205
+        <v xml:space="preserve">ifcp:205
     rdf:type crm:E1 ;
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:205 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
     crm:P67 &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-31" ;
         crm:P115 "2018-10-31" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C10000-19700401&gt;
-    rdfs:label "群馬県".
-&lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt;
-    rdfs:label "片品村".</v>
+    ] . </v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="409.6">
@@ -5288,7 +5077,7 @@
         <v>364</v>
       </c>
       <c r="H43" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I43" t="s">
         <v>145</v>
@@ -5304,24 +5093,19 @@
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:206
+        <v xml:space="preserve">ifcp:206
     rdf:type crm:E1 ;
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:206 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
     crm:P67 &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-16" ;
         crm:P115 "2018-12-16" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
-    rdfs:label "石川県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt;
-    rdfs:label "寺家町、七尾市鵜浦町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="409.6">
@@ -5345,7 +5129,7 @@
         <v>365</v>
       </c>
       <c r="H44" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
         <v>146</v>
@@ -5361,24 +5145,19 @@
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:208
+        <v xml:space="preserve">ifcp:208
     rdf:type crm:E1 ;
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:208 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
     crm:P67 &lt;https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-15" ;
         crm:P115 "2018-09-16" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C22000-19700401&gt;
-    rdfs:label "静岡県".
-&lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt;
-    rdfs:label "磐田市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="409.6">
@@ -5402,7 +5181,7 @@
         <v>366</v>
       </c>
       <c r="H45" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I45" t="s">
         <v>147</v>
@@ -5418,24 +5197,19 @@
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:215
+        <v xml:space="preserve">ifcp:215
     rdf:type crm:E1 ;
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:215 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
     crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
     crm:P4 [
         crm:P116 "2018-05-05" ;
         crm:P115 "2018-05-05" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
-    rdfs:label "富山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt;
-    rdfs:label "南砺市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="409.6">
@@ -5459,7 +5233,7 @@
         <v>367</v>
       </c>
       <c r="H46" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I46" t="s">
         <v>148</v>
@@ -5475,24 +5249,19 @@
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:216
+        <v xml:space="preserve">ifcp:216
     rdf:type crm:E1 ;
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:216 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
     crm:P67 &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-19" ;
         crm:P115 "2018-10-21" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
-    rdfs:label "三重県".
-&lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt;
-    rdfs:label "伊賀市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="409.6">
@@ -5516,7 +5285,7 @@
         <v>368</v>
       </c>
       <c r="H47" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="I47" t="s">
         <v>149</v>
@@ -5532,24 +5301,19 @@
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:219
+        <v xml:space="preserve">ifcp:219
     rdf:type crm:E1 ;
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:219 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C09000-19700401&gt;
-    rdfs:label "栃木県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S092050100&gt;
-    rdfs:label "鹿沼市今宮町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="409.6">
@@ -5573,7 +5337,7 @@
         <v>369</v>
       </c>
       <c r="H48" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="I48" t="s">
         <v>150</v>
@@ -5589,24 +5353,19 @@
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:220
+        <v xml:space="preserve">ifcp:220
     rdf:type crm:E1 ;
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:220 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-08-04" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C02000-19700401&gt;
-    rdfs:label "青森県".
-&lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt;
-    rdfs:label "八戸市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="49" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -5630,7 +5389,7 @@
         <v>370</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>151</v>
@@ -5639,24 +5398,19 @@
       <c r="K49" s="18"/>
       <c r="M49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:226
+        <v xml:space="preserve">ifcp:226
     rdf:type crm:E1 ;
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:226 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
-    rdfs:label "千葉県".
-&lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt;
-    rdfs:label "香取市佐原".</v>
+    ] . </v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="409.6">
@@ -5680,7 +5434,7 @@
         <v>371</v>
       </c>
       <c r="H50" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I50" t="s">
         <v>152</v>
@@ -5696,24 +5450,19 @@
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:231
+        <v xml:space="preserve">ifcp:231
     rdf:type crm:E1 ;
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:231 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
     crm:P67 &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-20" ;
         crm:P115 "2018-10-21" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
-    rdfs:label "埼玉県".
-&lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt;
-    rdfs:label "川越市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="409.6">
@@ -5737,7 +5486,7 @@
         <v>372</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="I51" t="s">
         <v>153</v>
@@ -5753,24 +5502,19 @@
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:232
+        <v xml:space="preserve">ifcp:232
     rdf:type crm:E1 ;
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:232 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
     crm:P67 &lt;http://nihonguide.net/maturi/1208.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-20" ;
         crm:P115 "2018-02-20" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C12000-19700401&gt;
-    rdfs:label "千葉県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S122050440&gt;
-    rdfs:label "館山市茂名".</v>
+    ] . </v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="409.6">
@@ -5794,7 +5538,7 @@
         <v>373</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="I52" t="s">
         <v>154</v>
@@ -5810,24 +5554,19 @@
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:234
+        <v xml:space="preserve">ifcp:234
     rdf:type crm:E1 ;
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:234 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
     crm:P67 &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
     crm:P4 [
         crm:P116 "2018-10-08" ;
         crm:P115 "2018-10-08" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
-    rdfs:label "滋賀県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S252100330&gt;
-    rdfs:label "野洲市三上".</v>
+    ] . </v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="409.6">
@@ -5851,7 +5590,7 @@
         <v>374</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="I53" t="s">
         <v>155</v>
@@ -5867,24 +5606,19 @@
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:243
+        <v xml:space="preserve">ifcp:243
     rdf:type crm:E1 ;
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:243 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt;
-    rdfs:label "犬山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="409.6">
@@ -5908,7 +5642,7 @@
         <v>375</v>
       </c>
       <c r="H54" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I54" t="s">
         <v>156</v>
@@ -5924,24 +5658,19 @@
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:244
+        <v xml:space="preserve">ifcp:244
     rdf:type crm:E1 ;
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:244 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-04" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt;
-    rdfs:label "半田市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="409.6">
@@ -5965,7 +5694,7 @@
         <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I55" t="s">
         <v>157</v>
@@ -5981,24 +5710,19 @@
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:249
+        <v xml:space="preserve">ifcp:249
     rdf:type crm:E1 ;
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:249 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
     crm:P67 &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
-    rdfs:label "三重県".
-&lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt;
-    rdfs:label "桑名市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="409.6">
@@ -6022,7 +5746,7 @@
         <v>377</v>
       </c>
       <c r="H56" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="I56" t="s">
         <v>158</v>
@@ -6038,24 +5762,19 @@
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:259
+        <v xml:space="preserve">ifcp:259
     rdf:type crm:E1 ;
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:259 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
     crm:P67 &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
     crm:P4 [
         crm:P116 "2018-08-24" ;
         crm:P115 "2018-08-26" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
-    rdfs:label "山形県".
-&lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt;
-    rdfs:label "新庄市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="57" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -6079,7 +5798,7 @@
         <v>103</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>159</v>
@@ -6088,24 +5807,19 @@
       <c r="K57" s="18"/>
       <c r="M57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:270
+        <v xml:space="preserve">ifcp:270
     rdf:type crm:E1 ;
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:270 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt;
-    rdfs:label "長野県".
-&lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt;
-    rdfs:label "飯山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="409.6">
@@ -6129,7 +5843,7 @@
         <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I58" t="s">
         <v>160</v>
@@ -6145,24 +5859,19 @@
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:272
+        <v xml:space="preserve">ifcp:272
     rdf:type crm:E1 ;
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:272 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
     crm:P4 [
         crm:P116 "2018-11-22" ;
         crm:P115 "2018-11-23" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C43000-19700401&gt;
-    rdfs:label "熊本県".
-&lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt;
-    rdfs:label "八代市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="409.6">
@@ -6186,7 +5895,7 @@
         <v>378</v>
       </c>
       <c r="H59" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I59" t="s">
         <v>161</v>
@@ -6202,24 +5911,19 @@
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:273
+        <v xml:space="preserve">ifcp:273
     rdf:type crm:E1 ;
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:273 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-26" ;
         crm:P115 "2018-08-26" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C19000-19700401&gt;
-    rdfs:label "山梨県".
-&lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt;
-    rdfs:label "富士吉田市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="409.6">
@@ -6243,7 +5947,7 @@
         <v>379</v>
       </c>
       <c r="H60" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="I60" t="s">
         <v>162</v>
@@ -6259,24 +5963,19 @@
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:275
+        <v xml:space="preserve">ifcp:275
     rdf:type crm:E1 ;
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:275 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
     crm:P67 &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt;
-    rdfs:label "蟹江町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="409.6">
@@ -6300,7 +5999,7 @@
         <v>380</v>
       </c>
       <c r="H61" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I61" t="s">
         <v>163</v>
@@ -6316,24 +6015,19 @@
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:276
+        <v xml:space="preserve">ifcp:276
     rdf:type crm:E1 ;
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:276 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
     crm:P67 &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-13" ;
         crm:P115 "2018-10-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt;
-    rdfs:label "兵庫県".
-&lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt;
-    rdfs:label "赤穂市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="409.6">
@@ -6357,7 +6051,7 @@
         <v>381</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="I62" t="s">
         <v>164</v>
@@ -6373,24 +6067,19 @@
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:282
+        <v xml:space="preserve">ifcp:282
     rdf:type crm:E1 ;
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:282 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
     crm:P67 &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
     crm:P4 [
         crm:P116 "2018-08-19" ;
         crm:P115 "2018-08-20" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt;
-    rdfs:label "鹿角市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="409.6">
@@ -6414,7 +6103,7 @@
         <v>382</v>
       </c>
       <c r="H63" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I63" t="s">
         <v>165</v>
@@ -6430,24 +6119,19 @@
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:283
+        <v xml:space="preserve">ifcp:283
     rdf:type crm:E1 ;
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:283 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
     crm:P67 &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2019-01-01" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
-    rdfs:label "山形県".
-&lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt;
-    rdfs:label "鶴岡市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="409.6">
@@ -6471,7 +6155,7 @@
         <v>383</v>
       </c>
       <c r="H64" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="I64" t="s">
         <v>166</v>
@@ -6487,24 +6171,19 @@
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:288
+        <v xml:space="preserve">ifcp:288
     rdf:type crm:E1 ;
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:288 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
     crm:P67 &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
     crm:P4 [
         crm:P116 "2018-05-12" ;
         crm:P115 "2018-05-13" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C21000-19700401&gt;
-    rdfs:label "岐阜県".
-&lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt;
-    rdfs:label "大垣市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="409.6">
@@ -6528,7 +6207,7 @@
         <v>384</v>
       </c>
       <c r="H65" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I65" t="s">
         <v>167</v>
@@ -6544,24 +6223,19 @@
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:290
+        <v xml:space="preserve">ifcp:290
     rdf:type crm:E1 ;
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:290 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
     crm:P67 &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
     crm:P4 [
         crm:P116 "2018-07-14" ;
         crm:P115 "2018-07-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
-    rdfs:label "和歌山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt;
-    rdfs:label "那智勝浦町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="409.6">
@@ -6585,7 +6259,7 @@
         <v>385</v>
       </c>
       <c r="H66" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="I66" t="s">
         <v>168</v>
@@ -6601,24 +6275,19 @@
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:291
+        <v xml:space="preserve">ifcp:291
     rdf:type crm:E1 ;
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:291 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
     crm:P67 &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C25000-19700401&gt;
-    rdfs:label "滋賀県".
-&lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt;
-    rdfs:label "大津市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="67" spans="1:13" s="16" customFormat="1" ht="409.6">
@@ -6642,7 +6311,7 @@
         <v>387</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>169</v>
@@ -6656,36 +6325,26 @@
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 &lt;"&amp;F67&amp;"&gt; ;
     crm:P7 &lt;"&amp;H67&amp;"&gt; ;
     crm:P14 """&amp;I67&amp;""" ;
     crm:P67 &lt;"&amp;L67&amp;"&gt; ;
     crm:P4 [
         crm:P116 """&amp;J67&amp;""" ;
         crm:P115 """&amp;K67&amp;""" 
-    ] . 
-&lt;"&amp;F67&amp;"&gt;
-    rdfs:label """&amp;E67&amp;""".
-&lt;"&amp;H67&amp;"&gt;
-    rdfs:label """&amp;G67&amp;"""."</f>
-        <v>ifcp:292
+    ] . "</f>
+        <v xml:space="preserve">ifcp:292
     rdf:type crm:E1 ;
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:292 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C30000-19700401&gt;
-    rdfs:label "和歌山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt;
-    rdfs:label "新宮市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="409.6">
@@ -6709,7 +6368,7 @@
         <v>386</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="I68" t="s">
         <v>170</v>
@@ -6725,24 +6384,19 @@
       </c>
       <c r="M68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ifcp:293
+        <v xml:space="preserve">ifcp:293
     rdf:type crm:E1 ;
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:293 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
     crm:P67 &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-17" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C33000-19700401&gt;
-    rdfs:label "岡山県".
-&lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt;
-    rdfs:label "岡山市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="409.6">
@@ -6766,7 +6420,7 @@
         <v>388</v>
       </c>
       <c r="H69" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="I69" t="s">
         <v>171</v>
@@ -6779,24 +6433,19 @@
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ifcp:295
+        <v xml:space="preserve">ifcp:295
     rdf:type crm:E1 ;
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:295 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C08000-19700401&gt;
-    rdfs:label "茨城県".
-&lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt;
-    rdfs:label "北茨城市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="409.6">
@@ -6820,7 +6469,7 @@
         <v>389</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="I70" t="s">
         <v>172</v>
@@ -6836,24 +6485,19 @@
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ifcp:301
+        <v xml:space="preserve">ifcp:301
     rdf:type crm:E1 ;
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:301 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67 &lt;https://www.wasshoikitaro.site/entry/hadakaoshiai2018&gt; ;
     crm:P4 [
         crm:P116 "2018-03-03" ;
         crm:P115 "2018-03-03" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
-    rdfs:label "新潟県".
-&lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt;
-    rdfs:label "南魚沼市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="409.6">
@@ -6877,7 +6521,7 @@
         <v>390</v>
       </c>
       <c r="H71" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I71" t="s">
         <v>173</v>
@@ -6893,24 +6537,19 @@
       </c>
       <c r="M71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>ifcp:302
+        <v xml:space="preserve">ifcp:302
     rdf:type crm:E1 ;
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:302 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;
     crm:P67 &lt;https://www.niikei.jp/19106/&gt; ;
     crm:P4 [
         crm:P116 "2018-07-06" ;
         crm:P115 "2018-07-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
-    rdfs:label "新潟県".
-&lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt;
-    rdfs:label "村上市".</v>
+    ] . </v>
       </c>
     </row>
   </sheetData>
@@ -6927,11 +6566,15 @@
     <hyperlink ref="F2" r:id="rId8" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
     <hyperlink ref="H34" r:id="rId9" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
     <hyperlink ref="H35" r:id="rId10" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
-    <hyperlink ref="H52" r:id="rId11" xr:uid="{5A017E99-9ECD-DD40-B8A8-11A4CA85D0C6}"/>
-    <hyperlink ref="H53" r:id="rId12" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
-    <hyperlink ref="H62" r:id="rId13" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
-    <hyperlink ref="H68" r:id="rId14" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
-    <hyperlink ref="H70" r:id="rId15" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
+    <hyperlink ref="H53" r:id="rId11" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
+    <hyperlink ref="H62" r:id="rId12" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
+    <hyperlink ref="H68" r:id="rId13" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
+    <hyperlink ref="H70" r:id="rId14" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
+    <hyperlink ref="H5" r:id="rId15" xr:uid="{2E1878D3-CDCB-1F46-84D8-709CB0BB16C3}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{6F29CB32-5464-C842-8022-60830F035917}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
+    <hyperlink ref="H27" r:id="rId19" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A0EA0-FFC6-A64F-8C68-DA068FD5E592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2024C7-3898-7A48-AC5D-B2E1FABCC947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2881,7 +2881,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -2968,7 +2968,6 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
@@ -2981,7 +2980,6 @@
         crm:P115 """&amp;K2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:33
-    rdf:type crm:E1 ;
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3032,7 +3030,6 @@
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M66" si="0">"ifcp:"&amp;A3&amp;"
-    rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
@@ -3045,7 +3042,6 @@
         crm:P115 """&amp;K3&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:63
-    rdf:type crm:E1 ;
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3097,7 +3093,6 @@
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:64
-    rdf:type crm:E1 ;
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3149,7 +3144,6 @@
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:66
-    rdf:type crm:E1 ;
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3203,7 +3197,6 @@
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:69
-    rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
@@ -3257,7 +3250,6 @@
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:69
-    rdf:type crm:E1 ;
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
@@ -3309,7 +3301,6 @@
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:71
-    rdf:type crm:E1 ;
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3361,7 +3352,6 @@
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:72
-    rdf:type crm:E1 ;
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3413,7 +3403,6 @@
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:79
-    rdf:type crm:E1 ;
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3465,7 +3454,6 @@
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:81
-    rdf:type crm:E1 ;
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3517,7 +3505,6 @@
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:82
-    rdf:type crm:E1 ;
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3569,7 +3556,6 @@
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:84
-    rdf:type crm:E1 ;
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3621,7 +3607,6 @@
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:85
-    rdf:type crm:E1 ;
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3673,7 +3658,6 @@
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:90
-    rdf:type crm:E1 ;
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3725,7 +3709,6 @@
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:91
-    rdf:type crm:E1 ;
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3777,7 +3760,6 @@
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:92
-    rdf:type crm:E1 ;
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3829,7 +3811,6 @@
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:95
-    rdf:type crm:E1 ;
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3881,7 +3862,6 @@
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:96
-    rdf:type crm:E1 ;
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3933,7 +3913,6 @@
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:100
-    rdf:type crm:E1 ;
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3985,7 +3964,6 @@
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:102
-    rdf:type crm:E1 ;
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4037,7 +4015,6 @@
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:114
-    rdf:type crm:E1 ;
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4089,7 +4066,6 @@
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:120
-    rdf:type crm:E1 ;
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4141,7 +4117,6 @@
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:122
-    rdf:type crm:E1 ;
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4186,7 +4161,6 @@
       <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:126
-    rdf:type crm:E1 ;
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4238,7 +4212,6 @@
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:129
-    rdf:type crm:E1 ;
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4290,7 +4263,6 @@
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:149
-    rdf:type crm:E1 ;
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4342,7 +4314,6 @@
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:150
-    rdf:type crm:E1 ;
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4394,7 +4365,6 @@
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:153
-    rdf:type crm:E1 ;
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4446,7 +4416,6 @@
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:171
-    rdf:type crm:E1 ;
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4498,7 +4467,6 @@
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:172
-    rdf:type crm:E1 ;
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4550,7 +4518,6 @@
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:176
-    rdf:type crm:E1 ;
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4602,7 +4569,6 @@
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:178
-    rdf:type crm:E1 ;
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4647,7 +4613,6 @@
       <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:180
-    rdf:type crm:E1 ;
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4699,7 +4664,6 @@
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:182
-    rdf:type crm:E1 ;
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4751,7 +4715,6 @@
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:187
-    rdf:type crm:E1 ;
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4803,7 +4766,6 @@
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:192
-    rdf:type crm:E1 ;
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4848,7 +4810,6 @@
       <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:197
-    rdf:type crm:E1 ;
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4900,7 +4861,6 @@
       <c r="M39" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:198
-    rdf:type crm:E1 ;
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4945,7 +4905,6 @@
       <c r="M40" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:199
-    rdf:type crm:E1 ;
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -4990,7 +4949,6 @@
       <c r="M41" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:201
-    rdf:type crm:E1 ;
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5042,7 +5000,6 @@
       <c r="M42" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:205
-    rdf:type crm:E1 ;
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5094,7 +5051,6 @@
       <c r="M43" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:206
-    rdf:type crm:E1 ;
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5146,7 +5102,6 @@
       <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:208
-    rdf:type crm:E1 ;
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5198,7 +5153,6 @@
       <c r="M45" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:215
-    rdf:type crm:E1 ;
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5250,7 +5204,6 @@
       <c r="M46" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:216
-    rdf:type crm:E1 ;
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5302,7 +5255,6 @@
       <c r="M47" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:219
-    rdf:type crm:E1 ;
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5354,7 +5306,6 @@
       <c r="M48" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:220
-    rdf:type crm:E1 ;
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5399,7 +5350,6 @@
       <c r="M49" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:226
-    rdf:type crm:E1 ;
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5451,7 +5401,6 @@
       <c r="M50" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:231
-    rdf:type crm:E1 ;
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5503,7 +5452,6 @@
       <c r="M51" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:232
-    rdf:type crm:E1 ;
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5555,7 +5503,6 @@
       <c r="M52" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:234
-    rdf:type crm:E1 ;
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5607,7 +5554,6 @@
       <c r="M53" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:243
-    rdf:type crm:E1 ;
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5659,7 +5605,6 @@
       <c r="M54" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:244
-    rdf:type crm:E1 ;
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5711,7 +5656,6 @@
       <c r="M55" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:249
-    rdf:type crm:E1 ;
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5763,7 +5707,6 @@
       <c r="M56" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:259
-    rdf:type crm:E1 ;
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5808,7 +5751,6 @@
       <c r="M57" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:270
-    rdf:type crm:E1 ;
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5860,7 +5802,6 @@
       <c r="M58" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:272
-    rdf:type crm:E1 ;
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5912,7 +5853,6 @@
       <c r="M59" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:273
-    rdf:type crm:E1 ;
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -5964,7 +5904,6 @@
       <c r="M60" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:275
-    rdf:type crm:E1 ;
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6016,7 +5955,6 @@
       <c r="M61" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:276
-    rdf:type crm:E1 ;
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6068,7 +6006,6 @@
       <c r="M62" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:282
-    rdf:type crm:E1 ;
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6120,7 +6057,6 @@
       <c r="M63" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:283
-    rdf:type crm:E1 ;
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6172,7 +6108,6 @@
       <c r="M64" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:288
-    rdf:type crm:E1 ;
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6224,7 +6159,6 @@
       <c r="M65" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:290
-    rdf:type crm:E1 ;
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6276,7 +6210,6 @@
       <c r="M66" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:291
-    rdf:type crm:E1 ;
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6320,7 +6253,6 @@
       <c r="K67" s="18"/>
       <c r="M67" s="4" t="str">
         <f t="shared" ref="M67:M71" si="1">"ifcp:"&amp;A67&amp;"
-    rdf:type crm:E1 ;
     rdfs:label """&amp;D67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
@@ -6333,7 +6265,6 @@
         crm:P115 """&amp;K67&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:292
-    rdf:type crm:E1 ;
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6385,7 +6316,6 @@
       <c r="M68" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:293
-    rdf:type crm:E1 ;
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6434,7 +6364,6 @@
       <c r="M69" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:295
-    rdf:type crm:E1 ;
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6486,7 +6415,6 @@
       <c r="M70" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:301
-    rdf:type crm:E1 ;
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -6538,7 +6466,6 @@
       <c r="M71" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:302
-    rdf:type crm:E1 ;
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2024C7-3898-7A48-AC5D-B2E1FABCC947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653458CF-CD1B-6947-AF4B-5EDB9F59DCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37680" yWindow="1320" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="503">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -569,9 +569,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
-  </si>
-  <si>
     <t>2018-04-07</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -675,9 +672,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
-  </si>
-  <si>
     <t>2018-08-01</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -710,9 +704,6 @@
   <si>
     <t>2018-04-20</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/</t>
   </si>
   <si>
     <t>http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/</t>
@@ -873,9 +864,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.you-yokkaichi.com/2018/08/15/5133/</t>
-  </si>
-  <si>
     <t>2018-08-14</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -909,9 +897,6 @@
   <si>
     <t>2018-12-16</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html</t>
   </si>
   <si>
     <t>2018-09-15</t>
@@ -1094,9 +1079,6 @@
       <t>カイサイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.wasshoikitaro.site/entry/hadakaoshiai2018</t>
   </si>
   <si>
     <t>2018-03-03</t>
@@ -1780,6 +1762,57 @@
   </si>
   <si>
     <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330</t>
+  </si>
+  <si>
+    <t>URLレイヤー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hida-kankou.jp/event/1313/</t>
+  </si>
+  <si>
+    <t>http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html</t>
+  </si>
+  <si>
+    <t>http://tatemon-uozu.com/pg155.html</t>
+  </si>
+  <si>
+    <t>https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html</t>
+  </si>
+  <si>
+    <t>https://art-fuji.info/event/3066.html/</t>
+  </si>
+  <si>
+    <t>http://nukisaki-akagi.seesaa.net/article/461088227.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kanko-iwata.jp/2018/09/post-6059/</t>
+  </si>
+  <si>
+    <t>http://suigosanto.com/news/webdir/2.html</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://kumanohayatama.jp/?page_id=8</t>
+  </si>
+  <si>
+    <t>2018-02-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.tsumugi-kan.jp/season/dtl.html?id=23</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2501,9 +2534,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2519,8 +2549,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="42" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2878,11 +2926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2890,12 +2938,12 @@
     <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1">
+    <row r="1" spans="1:14" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2904,16 +2952,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -2927,11 +2975,14 @@
       <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.6">
+      <c r="M1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.6">
       <c r="A2" s="11">
         <v>33</v>
       </c>
@@ -2946,27 +2997,30 @@
         <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
         <v>105</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="4" t="str">
+        <v>489</v>
+      </c>
+      <c r="M2" s="22">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
@@ -2993,7 +3047,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="409.6">
+    <row r="3" spans="1:14" ht="409.6">
       <c r="A3" s="11">
         <v>63</v>
       </c>
@@ -3008,28 +3062,31 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I3" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f t="shared" ref="M3:M66" si="0">"ifcp:"&amp;A3&amp;"
+        <v>178</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
@@ -3055,7 +3112,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.6">
+    <row r="4" spans="1:14" ht="409.6">
       <c r="A4" s="12">
         <v>64</v>
       </c>
@@ -3070,27 +3127,30 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I4" t="s">
         <v>107</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4" s="4" t="str">
+        <v>181</v>
+      </c>
+      <c r="M4" s="22">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
@@ -3106,7 +3166,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="409.6">
+    <row r="5" spans="1:14" ht="409.6">
       <c r="A5" s="12">
         <v>66</v>
       </c>
@@ -3121,27 +3181,30 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I5" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="4" t="str">
+        <v>183</v>
+      </c>
+      <c r="M5" s="22">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
@@ -3157,7 +3220,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="11">
         <v>69</v>
       </c>
@@ -3174,27 +3237,30 @@
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="L6" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6" s="4" t="str">
+        <v>186</v>
+      </c>
+      <c r="M6" s="22">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
@@ -3210,7 +3276,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="409.6">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="409.6">
       <c r="A7" s="11">
         <v>69</v>
       </c>
@@ -3227,27 +3293,30 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="L7" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="4" t="str">
+        <v>189</v>
+      </c>
+      <c r="M7" s="22">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
@@ -3263,7 +3332,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="409.6">
+    <row r="8" spans="1:14" ht="409.6">
       <c r="A8" s="11">
         <v>71</v>
       </c>
@@ -3278,27 +3347,30 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I8" t="s">
         <v>110</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="4" t="str">
+        <v>192</v>
+      </c>
+      <c r="M8" s="22">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
@@ -3314,7 +3386,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="409.6">
+    <row r="9" spans="1:14" ht="409.6">
       <c r="A9" s="12">
         <v>72</v>
       </c>
@@ -3329,27 +3401,28 @@
         <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I9" t="s">
         <v>111</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="4" t="str">
+        <v>195</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
@@ -3365,7 +3438,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.6">
+    <row r="10" spans="1:14" ht="409.6">
       <c r="A10" s="11">
         <v>79</v>
       </c>
@@ -3380,27 +3453,30 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I10" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" s="4" t="str">
+        <v>198</v>
+      </c>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
@@ -3416,7 +3492,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.6">
+    <row r="11" spans="1:14" ht="409.6">
       <c r="A11" s="11">
         <v>81</v>
       </c>
@@ -3431,27 +3507,30 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="I11" t="s">
         <v>113</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M11" s="4" t="str">
+        <v>200</v>
+      </c>
+      <c r="M11" s="22">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:81
     rdfs:label "青森のねぶた"@ja .
@@ -3467,7 +3546,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="409.6">
+    <row r="12" spans="1:14" ht="409.6">
       <c r="A12" s="12">
         <v>82</v>
       </c>
@@ -3482,27 +3561,30 @@
         <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I12" t="s">
         <v>114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="M12" s="4" t="str">
+        <v>490</v>
+      </c>
+      <c r="M12" s="22">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:82
     rdfs:label "弘前のねぷた"@ja .
@@ -3518,7 +3600,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="409.6">
+    <row r="13" spans="1:14" ht="409.6">
       <c r="A13" s="12">
         <v>84</v>
       </c>
@@ -3533,27 +3615,30 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I13" t="s">
         <v>115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M13" s="4" t="str">
+        <v>204</v>
+      </c>
+      <c r="M13" s="22">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:84
     rdfs:label "秋田の竿灯"@ja .
@@ -3569,7 +3654,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="409.6">
+    <row r="14" spans="1:14" ht="409.6">
       <c r="A14" s="11">
         <v>85</v>
       </c>
@@ -3584,27 +3669,30 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I14" t="s">
         <v>116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" t="s">
-        <v>209</v>
-      </c>
-      <c r="M14" s="4" t="str">
+        <v>207</v>
+      </c>
+      <c r="M14" s="22">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
@@ -3620,7 +3708,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="409.6">
+    <row r="15" spans="1:14" ht="409.6">
       <c r="A15" s="12">
         <v>90</v>
       </c>
@@ -3635,27 +3723,30 @@
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H15" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I15" t="s">
         <v>117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="M15" s="4" t="str">
+        <v>491</v>
+      </c>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
@@ -3664,14 +3755,14 @@
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
-    crm:P67 &lt;https://www.yomiuri.co.jp/local/gifu/news/20190420-OYTNT50094/&gt; ;
+    crm:P67 &lt;https://www.hida-kankou.jp/event/1313/&gt; ;
     crm:P4 [
         crm:P116 "2018-04-19" ;
         crm:P115 "2018-04-20" 
     ] . </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="409.6">
+    <row r="16" spans="1:14" ht="409.6">
       <c r="A16" s="11">
         <v>91</v>
       </c>
@@ -3686,27 +3777,30 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I16" t="s">
         <v>118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M16" s="4" t="str">
+        <v>212</v>
+      </c>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
@@ -3722,7 +3816,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="409.6">
+    <row r="17" spans="1:14" ht="409.6">
       <c r="A17" s="12">
         <v>92</v>
       </c>
@@ -3737,27 +3831,30 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s">
-        <v>217</v>
-      </c>
-      <c r="M17" s="4" t="str">
+        <v>214</v>
+      </c>
+      <c r="M17" s="22">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
@@ -3773,7 +3870,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="409.6">
+    <row r="18" spans="1:14" ht="409.6">
       <c r="A18" s="11">
         <v>95</v>
       </c>
@@ -3788,27 +3885,30 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G18" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I18" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="4" t="str">
+        <v>217</v>
+      </c>
+      <c r="M18" s="22">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
@@ -3824,7 +3924,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="409.6">
+    <row r="19" spans="1:14" ht="409.6">
       <c r="A19" s="12">
         <v>96</v>
       </c>
@@ -3839,27 +3939,30 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I19" t="s">
         <v>121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="4" t="str">
+        <v>219</v>
+      </c>
+      <c r="M19" s="22">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
@@ -3875,7 +3978,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="409.6">
+    <row r="20" spans="1:14" ht="409.6">
       <c r="A20" s="12">
         <v>100</v>
       </c>
@@ -3890,27 +3993,30 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H20" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I20" t="s">
         <v>122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="4" t="str">
+        <v>222</v>
+      </c>
+      <c r="M20" s="22">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
@@ -3926,7 +4032,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="409.6">
+    <row r="21" spans="1:14" ht="409.6">
       <c r="A21" s="12">
         <v>102</v>
       </c>
@@ -3941,27 +4047,30 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H21" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I21" t="s">
         <v>123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M21" s="4" t="str">
+        <v>226</v>
+      </c>
+      <c r="M21" s="22">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
@@ -3977,7 +4086,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.6">
+    <row r="22" spans="1:14" ht="409.6">
       <c r="A22" s="12">
         <v>114</v>
       </c>
@@ -3992,27 +4101,30 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I22" t="s">
         <v>124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>231</v>
-      </c>
-      <c r="M22" s="4" t="str">
+        <v>228</v>
+      </c>
+      <c r="M22" s="22">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
@@ -4028,7 +4140,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="409.6">
+    <row r="23" spans="1:14" ht="409.6">
       <c r="A23" s="12">
         <v>120</v>
       </c>
@@ -4043,27 +4155,30 @@
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G23" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H23" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I23" t="s">
         <v>125</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
-      </c>
-      <c r="M23" s="4" t="str">
+        <v>231</v>
+      </c>
+      <c r="M23" s="22">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
@@ -4079,7 +4194,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="409.6">
+    <row r="24" spans="1:14" ht="409.6">
       <c r="A24" s="12">
         <v>122</v>
       </c>
@@ -4094,27 +4209,30 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I24" t="s">
         <v>126</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
-      </c>
-      <c r="M24" s="4" t="str">
+        <v>234</v>
+      </c>
+      <c r="M24" s="22">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
@@ -4130,35 +4248,45 @@
     ] . </v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A25" s="14">
+    <row r="25" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A25" s="23">
         <v>126</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16">
+      <c r="B25" s="24"/>
+      <c r="C25" s="8">
         <v>22</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>411</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="M25" s="4" t="str">
+      <c r="J25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
@@ -4167,14 +4295,14 @@
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="409.6">
+    crm:P67 &lt;http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html&gt; ;
+    crm:P4 [
+        crm:P116 "2018-07-07" ;
+        crm:P115 "2018-07-07" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="409.6">
       <c r="A26" s="11">
         <v>129</v>
       </c>
@@ -4189,27 +4317,30 @@
         <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G26" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H26" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I26" t="s">
         <v>128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
-      </c>
-      <c r="M26" s="4" t="str">
+        <v>237</v>
+      </c>
+      <c r="M26" s="22">
+        <v>4</v>
+      </c>
+      <c r="N26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
@@ -4225,7 +4356,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.6">
+    <row r="27" spans="1:14" ht="409.6">
       <c r="A27" s="11">
         <v>149</v>
       </c>
@@ -4240,27 +4371,30 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I27" t="s">
         <v>129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="M27" s="4" t="str">
+        <v>240</v>
+      </c>
+      <c r="M27" s="22">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
@@ -4276,7 +4410,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="409.6">
+    <row r="28" spans="1:14" ht="409.6">
       <c r="A28" s="12">
         <v>150</v>
       </c>
@@ -4285,33 +4419,36 @@
         <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
         <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>410</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>490</v>
+        <v>404</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="I28" t="s">
         <v>130</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
-      </c>
-      <c r="M28" s="4" t="str">
+        <v>243</v>
+      </c>
+      <c r="M28" s="22">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
@@ -4327,7 +4464,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="409.6">
+    <row r="29" spans="1:14" ht="409.6">
       <c r="A29" s="11">
         <v>153</v>
       </c>
@@ -4342,27 +4479,30 @@
         <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G29" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I29" t="s">
         <v>131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
-      </c>
-      <c r="M29" s="4" t="str">
+        <v>245</v>
+      </c>
+      <c r="M29" s="22">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
@@ -4378,7 +4518,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="409.6">
+    <row r="30" spans="1:14" ht="409.6">
       <c r="A30" s="11">
         <v>171</v>
       </c>
@@ -4393,27 +4533,30 @@
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I30" t="s">
         <v>132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="M30" s="4" t="str">
+        <v>247</v>
+      </c>
+      <c r="M30" s="22">
+        <v>3</v>
+      </c>
+      <c r="N30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:171
     rdfs:label "発光路の強飯式"@ja .
@@ -4429,7 +4572,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="409.6">
+    <row r="31" spans="1:14" ht="409.6">
       <c r="A31" s="12">
         <v>172</v>
       </c>
@@ -4444,27 +4587,30 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G31" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I31" t="s">
         <v>133</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" s="4" t="str">
+        <v>249</v>
+      </c>
+      <c r="M31" s="22">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
@@ -4480,7 +4626,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="409.6">
+    <row r="32" spans="1:14" ht="409.6">
       <c r="A32" s="12">
         <v>176</v>
       </c>
@@ -4495,27 +4641,30 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H32" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I32" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
-      </c>
-      <c r="M32" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M32" s="22">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
@@ -4531,7 +4680,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="409.6">
+    <row r="33" spans="1:14" ht="409.6">
       <c r="A33" s="12">
         <v>178</v>
       </c>
@@ -4546,27 +4695,30 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H33" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I33" t="s">
         <v>135</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
-      </c>
-      <c r="M33" s="4" t="str">
+        <v>253</v>
+      </c>
+      <c r="M33" s="22">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
@@ -4582,35 +4734,45 @@
     ] . </v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A34" s="14">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A34" s="23">
         <v>180</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16">
+      <c r="B34" s="24"/>
+      <c r="C34" s="8">
         <v>676</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F34" t="s">
-        <v>421</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="I34" s="16" t="s">
+      <c r="F34" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="M34" s="4" t="str">
+      <c r="J34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="M34" s="25">
+        <v>2</v>
+      </c>
+      <c r="N34" s="26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
@@ -4619,14 +4781,14 @@
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="409.6">
+    crm:P67 &lt;http://tatemon-uozu.com/pg155.html&gt; ;
+    crm:P4 [
+        crm:P116 "2018-08-04" ;
+        crm:P115 "2018-08-05" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="409.6">
       <c r="A35" s="12">
         <v>182</v>
       </c>
@@ -4641,27 +4803,30 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G35" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="I35" t="s">
         <v>137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s">
-        <v>258</v>
-      </c>
-      <c r="M35" s="4" t="str">
+        <v>494</v>
+      </c>
+      <c r="M35" s="22">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
@@ -4670,14 +4835,14 @@
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
-    crm:P67 &lt;https://www.you-yokkaichi.com/2018/08/15/5133/&gt; ;
+    crm:P67 &lt;https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
     ] . </v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.6">
+    <row r="36" spans="1:14" ht="409.6">
       <c r="A36" s="11">
         <v>187</v>
       </c>
@@ -4692,27 +4857,30 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G36" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H36" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I36" t="s">
         <v>138</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
-      </c>
-      <c r="M36" s="4" t="str">
+        <v>257</v>
+      </c>
+      <c r="M36" s="22">
+        <v>3</v>
+      </c>
+      <c r="N36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
@@ -4728,7 +4896,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6">
+    <row r="37" spans="1:14" ht="409.6">
       <c r="A37" s="12">
         <v>192</v>
       </c>
@@ -4743,27 +4911,30 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G37" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H37" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I37" t="s">
         <v>139</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
-      </c>
-      <c r="M37" s="4" t="str">
+        <v>259</v>
+      </c>
+      <c r="M37" s="22">
+        <v>3</v>
+      </c>
+      <c r="N37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:192
     rdfs:label "等覚寺の松会"@ja .
@@ -4779,8 +4950,8 @@
     ] . </v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A38" s="19">
+    <row r="38" spans="1:14" s="16" customFormat="1" ht="409.6">
+      <c r="A38" s="18">
         <v>197</v>
       </c>
       <c r="B38" s="15"/>
@@ -4794,20 +4965,21 @@
         <v>9</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>453</v>
+        <v>406</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>447</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="M38" s="4" t="str">
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
@@ -4823,7 +4995,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="8" customFormat="1" ht="409.6">
+    <row r="39" spans="1:14" s="8" customFormat="1" ht="409.6">
       <c r="A39" s="12">
         <v>198</v>
       </c>
@@ -4838,27 +5010,30 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G39" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H39" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I39" t="s">
         <v>141</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="M39" s="4" t="str">
+        <v>260</v>
+      </c>
+      <c r="M39" s="22">
+        <v>4</v>
+      </c>
+      <c r="N39" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
@@ -4874,35 +5049,45 @@
     ] . </v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A40" s="19">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A40" s="28">
         <v>199</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16">
+      <c r="B40" s="24"/>
+      <c r="C40" s="8">
         <v>716</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="I40" s="16" t="s">
+      <c r="F40" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="M40" s="4" t="str">
+      <c r="J40" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M40" s="25">
+        <v>2</v>
+      </c>
+      <c r="N40" s="26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
@@ -4911,42 +5096,52 @@
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A41" s="19">
+    crm:P67 &lt;https://art-fuji.info/event/3066.html/&gt; ;
+    crm:P4 [
+        crm:P116 "2018-09-16" ;
+        crm:P115 "2018-09-16" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A41" s="28">
         <v>201</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16">
+      <c r="B41" s="24"/>
+      <c r="C41" s="8">
         <v>717</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="F41" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="M41" s="4" t="str">
+      <c r="J41" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="M41" s="25">
+        <v>4</v>
+      </c>
+      <c r="N41" s="26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
@@ -4955,14 +5150,14 @@
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="409.6">
+    crm:P67 &lt;http://nukisaki-akagi.seesaa.net/article/461088227.html&gt; ;
+    crm:P4 [
+        crm:P116 "2018-07-21" ;
+        crm:P115 "2018-07-22" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="409.6">
       <c r="A42" s="11">
         <v>205</v>
       </c>
@@ -4977,27 +5172,30 @@
         <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H42" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I42" t="s">
         <v>144</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s">
-        <v>265</v>
-      </c>
-      <c r="M42" s="4" t="str">
+        <v>261</v>
+      </c>
+      <c r="M42" s="22">
+        <v>4</v>
+      </c>
+      <c r="N42" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
@@ -5013,7 +5211,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="409.6">
+    <row r="43" spans="1:14" ht="409.6">
       <c r="A43" s="12">
         <v>206</v>
       </c>
@@ -5028,27 +5226,30 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H43" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I43" t="s">
         <v>145</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s">
-        <v>267</v>
-      </c>
-      <c r="M43" s="4" t="str">
+        <v>263</v>
+      </c>
+      <c r="M43" s="22">
+        <v>4</v>
+      </c>
+      <c r="N43" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
@@ -5064,7 +5265,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="409.6">
+    <row r="44" spans="1:14" ht="409.6">
       <c r="A44" s="12">
         <v>208</v>
       </c>
@@ -5079,27 +5280,30 @@
         <v>97</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H44" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I44" t="s">
         <v>146</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L44" t="s">
-        <v>269</v>
-      </c>
-      <c r="M44" s="4" t="str">
+        <v>497</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2</v>
+      </c>
+      <c r="N44" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:208
     rdfs:label "見付天神裸祭"@ja .
@@ -5108,14 +5312,14 @@
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
-    crm:P67 &lt;https://www.chunichi.co.jp/article/shizuoka/tokai-news/CK2018091602000097.html&gt; ;
+    crm:P67 &lt;https://kanko-iwata.jp/2018/09/post-6059/&gt; ;
     crm:P4 [
         crm:P116 "2018-09-15" ;
         crm:P115 "2018-09-16" 
     ] . </v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="409.6">
+    <row r="45" spans="1:14" ht="409.6">
       <c r="A45" s="11">
         <v>215</v>
       </c>
@@ -5130,27 +5334,30 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H45" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
-      </c>
-      <c r="M45" s="4" t="str">
+        <v>267</v>
+      </c>
+      <c r="M45" s="22">
+        <v>3</v>
+      </c>
+      <c r="N45" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
@@ -5166,7 +5373,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="409.6">
+    <row r="46" spans="1:14" ht="409.6">
       <c r="A46" s="12">
         <v>216</v>
       </c>
@@ -5181,27 +5388,30 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H46" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I46" t="s">
         <v>148</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s">
-        <v>273</v>
-      </c>
-      <c r="M46" s="4" t="str">
+        <v>268</v>
+      </c>
+      <c r="M46" s="22">
+        <v>4</v>
+      </c>
+      <c r="N46" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
@@ -5217,7 +5427,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="409.6">
+    <row r="47" spans="1:14" ht="409.6">
       <c r="A47" s="11">
         <v>219</v>
       </c>
@@ -5232,27 +5442,30 @@
         <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H47" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I47" t="s">
         <v>149</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
-      </c>
-      <c r="M47" s="4" t="str">
+        <v>271</v>
+      </c>
+      <c r="M47" s="22">
+        <v>3</v>
+      </c>
+      <c r="N47" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
@@ -5268,7 +5481,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="409.6">
+    <row r="48" spans="1:14" ht="409.6">
       <c r="A48" s="12">
         <v>220</v>
       </c>
@@ -5283,27 +5496,30 @@
         <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G48" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H48" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I48" t="s">
         <v>150</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s">
-        <v>279</v>
-      </c>
-      <c r="M48" s="4" t="str">
+        <v>274</v>
+      </c>
+      <c r="M48" s="22">
+        <v>3</v>
+      </c>
+      <c r="N48" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
@@ -5319,35 +5535,45 @@
     ] . </v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A49" s="14">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A49" s="23">
         <v>226</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16">
+      <c r="B49" s="24"/>
+      <c r="C49" s="8">
         <v>767</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F49" t="s">
-        <v>417</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="I49" s="16" t="s">
+      <c r="F49" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="M49" s="4" t="str">
+      <c r="J49" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="M49" s="25">
+        <v>2</v>
+      </c>
+      <c r="N49" s="26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:226
     rdfs:label "佐原の山車行事"@ja .
@@ -5356,14 +5582,14 @@
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="409.6">
+    crm:P67 &lt;http://suigosanto.com/news/webdir/2.html&gt; ;
+    crm:P4 [
+        crm:P116 "2018-10-12" ;
+        crm:P115 "2018-10-14" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="409.6">
       <c r="A50" s="11">
         <v>231</v>
       </c>
@@ -5378,27 +5604,30 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H50" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I50" t="s">
         <v>152</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K50" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s">
         <v>275</v>
       </c>
-      <c r="L50" t="s">
-        <v>280</v>
-      </c>
-      <c r="M50" s="4" t="str">
+      <c r="M50" s="22">
+        <v>2</v>
+      </c>
+      <c r="N50" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
@@ -5414,7 +5643,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="409.6">
+    <row r="51" spans="1:14" ht="409.6">
       <c r="A51" s="12">
         <v>232</v>
       </c>
@@ -5429,27 +5658,30 @@
         <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I51" t="s">
         <v>153</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s">
-        <v>282</v>
-      </c>
-      <c r="M51" s="4" t="str">
+        <v>277</v>
+      </c>
+      <c r="M51" s="22">
+        <v>4</v>
+      </c>
+      <c r="N51" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
@@ -5465,7 +5697,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="409.6">
+    <row r="52" spans="1:14" ht="409.6">
       <c r="A52" s="12">
         <v>234</v>
       </c>
@@ -5480,27 +5712,30 @@
         <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G52" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I52" t="s">
         <v>154</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L52" t="s">
-        <v>284</v>
-      </c>
-      <c r="M52" s="4" t="str">
+        <v>279</v>
+      </c>
+      <c r="M52" s="22">
+        <v>4</v>
+      </c>
+      <c r="N52" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:234
     rdfs:label "三上のずいき祭"@ja .
@@ -5516,7 +5751,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="409.6">
+    <row r="53" spans="1:14" ht="409.6">
       <c r="A53" s="11">
         <v>243</v>
       </c>
@@ -5531,27 +5766,30 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G53" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I53" t="s">
         <v>155</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="L53" t="s">
-        <v>286</v>
-      </c>
-      <c r="M53" s="4" t="str">
+        <v>281</v>
+      </c>
+      <c r="M53" s="22">
+        <v>3</v>
+      </c>
+      <c r="N53" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
@@ -5567,7 +5805,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="409.6">
+    <row r="54" spans="1:14" ht="409.6">
       <c r="A54" s="12">
         <v>244</v>
       </c>
@@ -5582,27 +5820,30 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H54" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I54" t="s">
         <v>156</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s">
-        <v>287</v>
-      </c>
-      <c r="M54" s="4" t="str">
+        <v>282</v>
+      </c>
+      <c r="M54" s="22">
+        <v>3</v>
+      </c>
+      <c r="N54" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
@@ -5618,7 +5859,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="409.6">
+    <row r="55" spans="1:14" ht="409.6">
       <c r="A55" s="11">
         <v>249</v>
       </c>
@@ -5633,27 +5874,30 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H55" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I55" t="s">
         <v>157</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="M55" s="4" t="str">
+        <v>284</v>
+      </c>
+      <c r="M55" s="22">
+        <v>4</v>
+      </c>
+      <c r="N55" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
@@ -5669,7 +5913,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="409.6">
+    <row r="56" spans="1:14" ht="409.6">
       <c r="A56" s="11">
         <v>259</v>
       </c>
@@ -5678,33 +5922,36 @@
         <v>853</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G56" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H56" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I56" t="s">
         <v>158</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M56" s="4" t="str">
+        <v>287</v>
+      </c>
+      <c r="M56" s="22">
+        <v>2</v>
+      </c>
+      <c r="N56" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
@@ -5720,7 +5967,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="16" customFormat="1" ht="409.6">
+    <row r="57" spans="1:14" s="16" customFormat="1" ht="409.6">
       <c r="A57" s="14">
         <v>270</v>
       </c>
@@ -5735,20 +5982,21 @@
         <v>12</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="M57" s="4" t="str">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
@@ -5764,7 +6012,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="409.6">
+    <row r="58" spans="1:14" ht="409.6">
       <c r="A58" s="12">
         <v>272</v>
       </c>
@@ -5779,27 +6027,30 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G58" t="s">
         <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I58" t="s">
         <v>160</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s">
-        <v>295</v>
-      </c>
-      <c r="M58" s="4" t="str">
+        <v>290</v>
+      </c>
+      <c r="M58" s="22">
+        <v>3</v>
+      </c>
+      <c r="N58" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
@@ -5815,7 +6066,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="409.6">
+    <row r="59" spans="1:14" ht="409.6">
       <c r="A59" s="11">
         <v>273</v>
       </c>
@@ -5830,27 +6081,30 @@
         <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H59" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I59" t="s">
         <v>161</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="M59" s="4" t="str">
+        <v>293</v>
+      </c>
+      <c r="M59" s="22">
+        <v>3</v>
+      </c>
+      <c r="N59" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:273
     rdfs:label "吉田の火祭"@ja .
@@ -5866,7 +6120,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="409.6">
+    <row r="60" spans="1:14" ht="409.6">
       <c r="A60" s="11">
         <v>275</v>
       </c>
@@ -5881,27 +6135,30 @@
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="I60" t="s">
         <v>162</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L60" t="s">
-        <v>299</v>
-      </c>
-      <c r="M60" s="4" t="str">
+        <v>294</v>
+      </c>
+      <c r="M60" s="22">
+        <v>4</v>
+      </c>
+      <c r="N60" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
@@ -5917,7 +6174,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="409.6">
+    <row r="61" spans="1:14" ht="409.6">
       <c r="A61" s="12">
         <v>276</v>
       </c>
@@ -5932,27 +6189,30 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H61" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I61" t="s">
         <v>163</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L61" t="s">
-        <v>300</v>
-      </c>
-      <c r="M61" s="4" t="str">
+        <v>295</v>
+      </c>
+      <c r="M61" s="22">
+        <v>4</v>
+      </c>
+      <c r="N61" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:276
     rdfs:label "坂越の船祭"@ja .
@@ -5968,7 +6228,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="409.6">
+    <row r="62" spans="1:14" ht="409.6">
       <c r="A62" s="12">
         <v>282</v>
       </c>
@@ -5983,27 +6243,30 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G62" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I62" t="s">
         <v>164</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M62" s="4" t="str">
+        <v>298</v>
+      </c>
+      <c r="M62" s="22">
+        <v>4</v>
+      </c>
+      <c r="N62" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
@@ -6019,7 +6282,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="409.6">
+    <row r="63" spans="1:14" ht="409.6">
       <c r="A63" s="11">
         <v>283</v>
       </c>
@@ -6034,27 +6297,30 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G63" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H63" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I63" t="s">
         <v>165</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L63" t="s">
-        <v>306</v>
-      </c>
-      <c r="M63" s="4" t="str">
+        <v>301</v>
+      </c>
+      <c r="M63" s="22">
+        <v>4</v>
+      </c>
+      <c r="N63" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
@@ -6070,7 +6336,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="409.6">
+    <row r="64" spans="1:14" ht="409.6">
       <c r="A64" s="12">
         <v>288</v>
       </c>
@@ -6085,27 +6351,30 @@
         <v>91</v>
       </c>
       <c r="F64" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G64" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H64" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I64" t="s">
         <v>166</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="M64" s="4" t="str">
+        <v>304</v>
+      </c>
+      <c r="M64" s="22">
+        <v>4</v>
+      </c>
+      <c r="N64" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
@@ -6121,7 +6390,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="409.6">
+    <row r="65" spans="1:14" ht="409.6">
       <c r="A65" s="12">
         <v>290</v>
       </c>
@@ -6136,27 +6405,30 @@
         <v>98</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G65" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H65" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I65" t="s">
         <v>167</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s">
-        <v>312</v>
-      </c>
-      <c r="M65" s="4" t="str">
+        <v>307</v>
+      </c>
+      <c r="M65" s="22">
+        <v>4</v>
+      </c>
+      <c r="N65" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:290
     rdfs:label "那智の扇祭り"@ja .
@@ -6172,7 +6444,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="409.6">
+    <row r="66" spans="1:14" ht="409.6">
       <c r="A66" s="11">
         <v>291</v>
       </c>
@@ -6187,27 +6459,30 @@
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G66" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H66" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="I66" t="s">
         <v>168</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L66" t="s">
-        <v>314</v>
-      </c>
-      <c r="M66" s="4" t="str">
+        <v>309</v>
+      </c>
+      <c r="M66" s="22">
+        <v>4</v>
+      </c>
+      <c r="N66" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
@@ -6223,36 +6498,46 @@
     ] . </v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="16" customFormat="1" ht="409.6">
-      <c r="A67" s="14">
+    <row r="67" spans="1:14" s="8" customFormat="1" ht="409.6">
+      <c r="A67" s="23">
         <v>292</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="16">
+      <c r="B67" s="24"/>
+      <c r="C67" s="8">
         <v>934</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="I67" s="16" t="s">
+      <c r="F67" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="I67" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="M67" s="4" t="str">
-        <f t="shared" ref="M67:M71" si="1">"ifcp:"&amp;A67&amp;"
+      <c r="J67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" s="25">
+        <v>2</v>
+      </c>
+      <c r="N67" s="26" t="str">
+        <f t="shared" ref="N67:N71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;D67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
@@ -6271,14 +6556,14 @@
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="409.6">
+    crm:P67 &lt;http://kumanohayatama.jp/?page_id=8&gt; ;
+    crm:P4 [
+        crm:P116 "2018-02-06" ;
+        crm:P115 "2018-02-06" 
+    ] . </v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="409.6">
       <c r="A68" s="11">
         <v>293</v>
       </c>
@@ -6293,27 +6578,30 @@
         <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>398</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>386</v>
+        <v>392</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I68" t="s">
         <v>170</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L68" t="s">
-        <v>315</v>
-      </c>
-      <c r="M68" s="4" t="str">
+        <v>310</v>
+      </c>
+      <c r="M68" s="22">
+        <v>3</v>
+      </c>
+      <c r="N68" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:293
     rdfs:label "西大寺の会陽"@ja .
@@ -6329,7 +6617,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="409.6">
+    <row r="69" spans="1:14" ht="409.6">
       <c r="A69" s="11">
         <v>295</v>
       </c>
@@ -6344,24 +6632,25 @@
         <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G69" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H69" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I69" t="s">
         <v>171</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M69" s="4" t="str">
+        <v>312</v>
+      </c>
+      <c r="M69" s="22"/>
+      <c r="N69" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
@@ -6377,7 +6666,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="409.6">
+    <row r="70" spans="1:14" ht="409.6">
       <c r="A70" s="11">
         <v>301</v>
       </c>
@@ -6392,27 +6681,30 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I70" t="s">
         <v>172</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L70" t="s">
-        <v>318</v>
-      </c>
-      <c r="M70" s="4" t="str">
+        <v>502</v>
+      </c>
+      <c r="M70" s="22">
+        <v>4</v>
+      </c>
+      <c r="N70" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
@@ -6421,14 +6713,14 @@
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
-    crm:P67 &lt;https://www.wasshoikitaro.site/entry/hadakaoshiai2018&gt; ;
+    crm:P67 &lt;http://www.tsumugi-kan.jp/season/dtl.html?id=23&gt; ;
     crm:P4 [
         crm:P116 "2018-03-03" ;
         crm:P115 "2018-03-03" 
     ] . </v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="409.6">
+    <row r="71" spans="1:14" ht="409.6">
       <c r="A71" s="12">
         <v>302</v>
       </c>
@@ -6443,27 +6735,30 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G71" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H71" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I71" t="s">
         <v>173</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L71" t="s">
-        <v>320</v>
-      </c>
-      <c r="M71" s="4" t="str">
+        <v>314</v>
+      </c>
+      <c r="M71" s="22">
+        <v>3</v>
+      </c>
+      <c r="N71" s="4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
@@ -6502,6 +6797,9 @@
     <hyperlink ref="H14" r:id="rId17" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
     <hyperlink ref="H22" r:id="rId18" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
     <hyperlink ref="H27" r:id="rId19" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
+    <hyperlink ref="L2" r:id="rId20" xr:uid="{6B3CB02E-3F8C-2F47-8192-BB369A1D2F5B}"/>
+    <hyperlink ref="L12" r:id="rId21" xr:uid="{F63801AA-C119-E34C-83A6-766E60F9C99E}"/>
+    <hyperlink ref="L41" r:id="rId22" xr:uid="{40318539-E304-AF48-9071-C7CFF53F25F4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653458CF-CD1B-6947-AF4B-5EDB9F59DCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E7576-0B0C-1D4F-A413-F482120CA911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37680" yWindow="1320" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$F$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="504">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1813,6 +1813,10 @@
   </si>
   <si>
     <t>http://www.tsumugi-kan.jp/season/dtl.html?id=23</t>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2482,7 +2486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2560,9 +2564,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2926,19 +2927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2949,40 +2950,43 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.6">
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2" s="11">
         <v>33</v>
       </c>
@@ -2990,53 +2994,58 @@
       <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>317</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>420</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="M2" s="22">
+      <c r="N2" s="22">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdfs:label """&amp;D2&amp;"""@ja .
+    rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
-    crm:P14 """&amp;I2&amp;""" ;
-    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J2&amp;""" ;
-        crm:P115 """&amp;K2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:33
+    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14 """&amp;J2&amp;""" ;
+    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K2&amp;""" ;
+        crm:P115 """&amp;L2&amp;""" 
+    ] ."</f>
+        <v>ifcp:33
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:33 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
@@ -3044,10 +3053,10 @@
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.6">
+    <row r="3" spans="1:15" ht="409.6">
       <c r="A3" s="11">
         <v>63</v>
       </c>
@@ -3055,53 +3064,58 @@
       <c r="C3">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>414</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>318</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>421</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="22">
+      <c r="N3" s="22">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N66" si="0">"ifcp:"&amp;A3&amp;"
-    rdfs:label """&amp;D3&amp;"""@ja .
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
+    rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
-    crm:P14 """&amp;I3&amp;""" ;
-    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J3&amp;""" ;
-        crm:P115 """&amp;K3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:63
+    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14 """&amp;J3&amp;""" ;
+    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K3&amp;""" ;
+        crm:P115 """&amp;L3&amp;""" 
+    ] ."</f>
+        <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:63 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
@@ -3109,10 +3123,10 @@
     crm:P4 [
         crm:P116 "2018-07-26" ;
         crm:P115 "2018-07-29" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.6">
+    <row r="4" spans="1:15" ht="409.6">
       <c r="A4" s="12">
         <v>64</v>
       </c>
@@ -3120,42 +3134,46 @@
       <c r="C4">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>400</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>319</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>422</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>107</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="22">
+      <c r="N4" s="22">
         <v>3</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:64
+        <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:64 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
@@ -3163,10 +3181,10 @@
     crm:P4 [
         crm:P116 "2018-12-03" ;
         crm:P115 "2018-12-03" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6">
+    <row r="5" spans="1:15" ht="409.6">
       <c r="A5" s="12">
         <v>66</v>
       </c>
@@ -3174,42 +3192,46 @@
       <c r="C5">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>415</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>108</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="M5" s="22">
+      <c r="N5" s="22">
         <v>3</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:66
+        <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:66 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
@@ -3217,10 +3239,10 @@
     crm:P4 [
         crm:P116 "2018-05-01" ;
         crm:P115 "2018-05-01" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="11">
         <v>69</v>
       </c>
@@ -3230,42 +3252,46 @@
       <c r="C6">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>395</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>423</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="22">
+      <c r="N6" s="22">
         <v>4</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:69
+        <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3273,10 +3299,10 @@
     crm:P4 [
         crm:P116 "2018-04-14" ;
         crm:P115 "2018-04-15" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A7" s="11">
         <v>69</v>
       </c>
@@ -3286,42 +3312,46 @@
       <c r="C7">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>395</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>322</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>423</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M7" s="22">
+      <c r="N7" s="22">
         <v>3</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:69
+        <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3329,10 +3359,10 @@
     crm:P4 [
         crm:P116 "2018-10-09" ;
         crm:P115 "2018-10-10" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6">
+    <row r="8" spans="1:15" ht="409.6">
       <c r="A8" s="11">
         <v>71</v>
       </c>
@@ -3340,42 +3370,46 @@
       <c r="C8">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>404</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>323</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>424</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="22">
+      <c r="N8" s="22">
         <v>4</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:71
+        <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:71 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
@@ -3383,10 +3417,10 @@
     crm:P4 [
         crm:P116 "2018-04-13" ;
         crm:P115 "2018-04-16" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.6">
+    <row r="9" spans="1:15" ht="409.6">
       <c r="A9" s="12">
         <v>72</v>
       </c>
@@ -3394,40 +3428,44 @@
       <c r="C9">
         <v>97</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>93</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>396</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>324</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>425</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="4" t="str">
+      <c r="N9" s="22"/>
+      <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:72
+        <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:72 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
@@ -3435,10 +3473,10 @@
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-31" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6">
+    <row r="10" spans="1:15" ht="409.6">
       <c r="A10" s="11">
         <v>79</v>
       </c>
@@ -3446,42 +3484,46 @@
       <c r="C10">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>416</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>198</v>
       </c>
-      <c r="M10" s="22">
+      <c r="N10" s="22">
         <v>2</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:79
+        <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:79 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
@@ -3489,10 +3531,10 @@
     crm:P4 [
         crm:P116 "2018-07-01" ;
         crm:P115 "2018-07-15" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6">
+    <row r="11" spans="1:15" ht="409.6">
       <c r="A11" s="11">
         <v>81</v>
       </c>
@@ -3500,42 +3542,46 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>408</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>326</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>426</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="22">
+      <c r="N11" s="22">
         <v>3</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:81
+        <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:81 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
@@ -3543,10 +3589,10 @@
     crm:P4 [
         crm:P116 "2018-08-02" ;
         crm:P115 "2018-08-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.6">
+    <row r="12" spans="1:15" ht="409.6">
       <c r="A12" s="12">
         <v>82</v>
       </c>
@@ -3554,42 +3600,46 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>408</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>327</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>427</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="M12" s="22">
+      <c r="N12" s="22">
         <v>4</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:82
+        <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:82 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
@@ -3597,10 +3647,10 @@
     crm:P4 [
         crm:P116 "2018-08-01" ;
         crm:P115 "2018-08-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6">
+    <row r="13" spans="1:15" ht="409.6">
       <c r="A13" s="12">
         <v>84</v>
       </c>
@@ -3608,42 +3658,46 @@
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2018</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>405</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>328</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>428</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N13" s="22">
         <v>2</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:84
+        <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:84 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
@@ -3651,10 +3705,10 @@
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-06" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.6">
+    <row r="14" spans="1:15" ht="409.6">
       <c r="A14" s="11">
         <v>85</v>
       </c>
@@ -3662,42 +3716,46 @@
       <c r="C14">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>417</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>207</v>
       </c>
-      <c r="M14" s="22">
+      <c r="N14" s="22">
         <v>4</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:85
+        <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:85 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
@@ -3705,10 +3763,10 @@
     crm:P4 [
         crm:P116 "2018-01-02" ;
         crm:P115 "2018-01-04" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="409.6">
+    <row r="15" spans="1:15" ht="409.6">
       <c r="A15" s="12">
         <v>90</v>
       </c>
@@ -3716,42 +3774,46 @@
       <c r="C15">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>395</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>330</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>429</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="M15" s="22">
+      <c r="N15" s="22">
         <v>2</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:90
+        <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
@@ -3759,10 +3821,10 @@
     crm:P4 [
         crm:P116 "2018-04-19" ;
         crm:P115 "2018-04-20" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6">
+    <row r="16" spans="1:15" ht="409.6">
       <c r="A16" s="11">
         <v>91</v>
       </c>
@@ -3770,42 +3832,46 @@
       <c r="C16">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>391</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>331</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>430</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>118</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M16" s="22">
+      <c r="N16" s="22">
         <v>2</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:91
+        <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:91 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
@@ -3813,10 +3879,10 @@
     crm:P4 [
         crm:P116 "中止" ;
         crm:P115 "中止" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="409.6">
+    <row r="17" spans="1:15" ht="409.6">
       <c r="A17" s="12">
         <v>92</v>
       </c>
@@ -3824,42 +3890,46 @@
       <c r="C17">
         <v>87</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>391</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>332</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>431</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>214</v>
       </c>
-      <c r="M17" s="22">
+      <c r="N17" s="22">
         <v>3</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:92
+        <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:92 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
@@ -3867,10 +3937,10 @@
     crm:P4 [
         crm:P116 "2018-02-10" ;
         crm:P115 "2018-02-11" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6">
+    <row r="18" spans="1:15" ht="409.6">
       <c r="A18" s="11">
         <v>95</v>
       </c>
@@ -3878,42 +3948,46 @@
       <c r="C18">
         <v>135</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>416</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>333</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>432</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>217</v>
       </c>
-      <c r="M18" s="22">
+      <c r="N18" s="22">
         <v>2</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:95
+        <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:95 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
@@ -3921,10 +3995,10 @@
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-29" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="409.6">
+    <row r="19" spans="1:15" ht="409.6">
       <c r="A19" s="12">
         <v>96</v>
       </c>
@@ -3932,42 +4006,46 @@
       <c r="C19">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>2018</v>
+      </c>
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>399</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>334</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>433</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="22">
+      <c r="N19" s="22">
         <v>3</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:96
+        <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:96 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
@@ -3975,10 +4053,10 @@
     crm:P4 [
         crm:P116 "2018-11-02" ;
         crm:P115 "2018-11-04" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="409.6">
+    <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="12">
         <v>100</v>
       </c>
@@ -3986,42 +4064,46 @@
       <c r="C20">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>417</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>335</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>434</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="22">
+      <c r="N20" s="22">
         <v>2</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:100
+        <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:100 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
@@ -4029,10 +4111,10 @@
     crm:P4 [
         crm:P116 "2018-07-22" ;
         crm:P115 "2018-07-24" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="409.6">
+    <row r="21" spans="1:15" ht="409.6">
       <c r="A21" s="12">
         <v>102</v>
       </c>
@@ -4040,42 +4122,46 @@
       <c r="C21">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>410</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>336</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>435</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>123</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M21" s="22">
+      <c r="N21" s="22">
         <v>3</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:102
+        <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:102 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
@@ -4083,10 +4169,10 @@
     crm:P4 [
         crm:P116 "2018-09-20" ;
         crm:P115 "2018-09-20" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="409.6">
+    <row r="22" spans="1:15" ht="409.6">
       <c r="A22" s="12">
         <v>114</v>
       </c>
@@ -4094,42 +4180,46 @@
       <c r="C22">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2018</v>
+      </c>
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>410</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>337</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>228</v>
       </c>
-      <c r="M22" s="22">
+      <c r="N22" s="22">
         <v>3</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:114
+        <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:114 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
@@ -4137,10 +4227,10 @@
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-05" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="409.6">
+    <row r="23" spans="1:15" ht="409.6">
       <c r="A23" s="12">
         <v>120</v>
       </c>
@@ -4148,42 +4238,46 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>94</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>408</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>338</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>427</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>125</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>231</v>
       </c>
-      <c r="M23" s="22">
+      <c r="N23" s="22">
         <v>3</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:120
+        <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:120 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
@@ -4191,10 +4285,10 @@
     crm:P4 [
         crm:P116 "2018-09-08" ;
         crm:P115 "2018-09-10" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="409.6">
+    <row r="24" spans="1:15" ht="409.6">
       <c r="A24" s="12">
         <v>122</v>
       </c>
@@ -4202,42 +4296,46 @@
       <c r="C24">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>394</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>339</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>436</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>234</v>
       </c>
-      <c r="M24" s="22">
+      <c r="N24" s="22">
         <v>4</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:122
+        <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:122 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
@@ -4245,10 +4343,10 @@
     crm:P4 [
         crm:P116 "2018-10-26" ;
         crm:P115 "2018-10-28" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A25" s="23">
         <v>126</v>
       </c>
@@ -4256,42 +4354,46 @@
       <c r="C25" s="8">
         <v>22</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25">
+        <v>2018</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="M25" s="25">
+      <c r="N25" s="25">
         <v>1</v>
       </c>
-      <c r="N25" s="26" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:126
+        <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
@@ -4299,10 +4401,10 @@
     crm:P4 [
         crm:P116 "2018-07-07" ;
         crm:P115 "2018-07-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="409.6">
+    <row r="26" spans="1:15" ht="409.6">
       <c r="A26" s="11">
         <v>129</v>
       </c>
@@ -4310,42 +4412,46 @@
       <c r="C26">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>396</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>341</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>438</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>237</v>
       </c>
-      <c r="M26" s="22">
+      <c r="N26" s="22">
         <v>4</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:129
+        <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:129 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
@@ -4353,10 +4459,10 @@
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-18" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="409.6">
+    <row r="27" spans="1:15" ht="409.6">
       <c r="A27" s="11">
         <v>149</v>
       </c>
@@ -4364,42 +4470,46 @@
       <c r="C27">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>405</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>342</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>129</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="M27" s="22">
+      <c r="N27" s="22">
         <v>3</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:149
+        <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:149 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
@@ -4407,10 +4517,10 @@
     crm:P4 [
         crm:P116 "2018-09-07" ;
         crm:P115 "2018-09-10" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="409.6">
+    <row r="28" spans="1:15" ht="409.6">
       <c r="A28" s="12">
         <v>150</v>
       </c>
@@ -4418,42 +4528,46 @@
       <c r="C28">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
         <v>242</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="H28" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="I28" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>130</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s">
         <v>243</v>
       </c>
-      <c r="M28" s="22">
+      <c r="N28" s="22">
         <v>4</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:150
+        <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:150 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
@@ -4461,10 +4575,10 @@
     crm:P4 [
         crm:P116 "2018-09-02" ;
         crm:P115 "2018-09-02" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="409.6">
+    <row r="29" spans="1:15" ht="409.6">
       <c r="A29" s="11">
         <v>153</v>
       </c>
@@ -4472,42 +4586,46 @@
       <c r="C29">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>411</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>344</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>439</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>131</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="s">
         <v>245</v>
       </c>
-      <c r="M29" s="22">
+      <c r="N29" s="22">
         <v>4</v>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:153
+        <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:153 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
@@ -4515,10 +4633,10 @@
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="409.6">
+    <row r="30" spans="1:15" ht="409.6">
       <c r="A30" s="11">
         <v>171</v>
       </c>
@@ -4526,42 +4644,46 @@
       <c r="C30">
         <v>677</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>90</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>414</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>345</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>440</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>132</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M30" s="22">
+      <c r="N30" s="22">
         <v>3</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:171
+        <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:171 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
@@ -4569,10 +4691,10 @@
     crm:P4 [
         crm:P116 "2018-01-03" ;
         crm:P115 "2018-01-03" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="409.6">
+    <row r="31" spans="1:15" ht="409.6">
       <c r="A31" s="12">
         <v>172</v>
       </c>
@@ -4580,42 +4702,46 @@
       <c r="C31">
         <v>674</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>407</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>346</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>441</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>249</v>
       </c>
-      <c r="M31" s="22">
+      <c r="N31" s="22">
         <v>3</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:172
+        <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:172 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
@@ -4623,10 +4749,10 @@
     crm:P4 [
         crm:P116 "2018-07-27" ;
         crm:P115 "2018-07-28" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="409.6">
+    <row r="32" spans="1:15" ht="409.6">
       <c r="A32" s="12">
         <v>176</v>
       </c>
@@ -4634,42 +4760,46 @@
       <c r="C32">
         <v>680</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>96</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>412</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>347</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>442</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>251</v>
       </c>
-      <c r="M32" s="22">
+      <c r="N32" s="22">
         <v>3</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:176
+        <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:176 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
@@ -4677,10 +4807,10 @@
     crm:P4 [
         crm:P116 "2018-07-21" ;
         crm:P115 "2018-07-22" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="409.6">
+    <row r="33" spans="1:15" ht="409.6">
       <c r="A33" s="12">
         <v>178</v>
       </c>
@@ -4688,42 +4818,46 @@
       <c r="C33">
         <v>673</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>405</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>348</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>428</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>135</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>253</v>
       </c>
-      <c r="M33" s="22">
+      <c r="N33" s="22">
         <v>4</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:178
+        <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:178 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
@@ -4731,10 +4865,10 @@
     crm:P4 [
         crm:P116 "2018-07-20" ;
         crm:P115 "2018-07-21" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A34" s="23">
         <v>180</v>
       </c>
@@ -4742,42 +4876,46 @@
       <c r="C34" s="8">
         <v>676</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="M34" s="25">
+      <c r="N34" s="25">
         <v>2</v>
       </c>
-      <c r="N34" s="26" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:180
+        <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
@@ -4785,10 +4923,10 @@
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="409.6">
+    <row r="35" spans="1:15" ht="409.6">
       <c r="A35" s="12">
         <v>182</v>
       </c>
@@ -4796,42 +4934,46 @@
       <c r="C35">
         <v>678</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>401</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>137</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>494</v>
       </c>
-      <c r="M35" s="22">
+      <c r="N35" s="22">
         <v>2</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:182
+        <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
@@ -4839,10 +4981,10 @@
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="409.6">
+    <row r="36" spans="1:15" ht="409.6">
       <c r="A36" s="11">
         <v>187</v>
       </c>
@@ -4850,42 +4992,46 @@
       <c r="C36">
         <v>682</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>2018</v>
+      </c>
+      <c r="E36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>393</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>351</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>445</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>138</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="s">
         <v>257</v>
       </c>
-      <c r="M36" s="22">
+      <c r="N36" s="22">
         <v>3</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:187
+        <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:187 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
@@ -4893,10 +5039,10 @@
     crm:P4 [
         crm:P116 "2018-09-04" ;
         crm:P115 "2018-09-04" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="409.6">
+    <row r="37" spans="1:15" ht="409.6">
       <c r="A37" s="12">
         <v>192</v>
       </c>
@@ -4904,42 +5050,46 @@
       <c r="C37">
         <v>663</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>2018</v>
+      </c>
+      <c r="E37" t="s">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>416</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>352</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>446</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>139</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" t="s">
         <v>259</v>
       </c>
-      <c r="M37" s="22">
+      <c r="N37" s="22">
         <v>3</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:192
+        <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:192 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
@@ -4947,10 +5097,10 @@
     crm:P4 [
         crm:P116 "2018-04-15" ;
         crm:P115 "2018-04-15" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="16" customFormat="1" ht="409.6">
+    <row r="38" spans="1:15" s="16" customFormat="1" ht="409.6">
       <c r="A38" s="18">
         <v>197</v>
       </c>
@@ -4958,33 +5108,37 @@
       <c r="C38" s="16">
         <v>714</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="H38" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="I38" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="J38" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J38" s="17"/>
       <c r="K38" s="17"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="4" t="str">
+      <c r="L38" s="17"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:197
+        <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:197 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
@@ -4992,10 +5146,10 @@
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="39" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A39" s="12">
         <v>198</v>
       </c>
@@ -5003,42 +5157,46 @@
       <c r="C39">
         <v>715</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39" t="s">
         <v>57</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>415</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>354</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>448</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>141</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="M39" s="22">
+      <c r="N39" s="22">
         <v>4</v>
       </c>
-      <c r="N39" s="4" t="str">
+      <c r="O39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:198
+        <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:198 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
@@ -5046,53 +5204,57 @@
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-07-31" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="409.6">
-      <c r="A40" s="28">
+    <row r="40" spans="1:15" s="8" customFormat="1" ht="409.6">
+      <c r="A40" s="27">
         <v>199</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="8">
         <v>716</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40">
+        <v>2018</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="M40" s="25">
+      <c r="N40" s="25">
         <v>2</v>
       </c>
-      <c r="N40" s="26" t="str">
+      <c r="O40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:199
+        <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
@@ -5100,53 +5262,57 @@
     crm:P4 [
         crm:P116 "2018-09-16" ;
         crm:P115 "2018-09-16" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="8" customFormat="1" ht="409.6">
-      <c r="A41" s="28">
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="409.6">
+      <c r="A41" s="27">
         <v>201</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="8">
         <v>717</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41">
+        <v>2018</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="K41" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="M41" s="25">
+      <c r="N41" s="25">
         <v>4</v>
       </c>
-      <c r="N41" s="26" t="str">
+      <c r="O41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:201
+        <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
@@ -5154,10 +5320,10 @@
     crm:P4 [
         crm:P116 "2018-07-21" ;
         crm:P115 "2018-07-22" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="409.6">
+    <row r="42" spans="1:15" ht="409.6">
       <c r="A42" s="11">
         <v>205</v>
       </c>
@@ -5165,42 +5331,46 @@
       <c r="C42">
         <v>736</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>2018</v>
+      </c>
+      <c r="E42" t="s">
         <v>60</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>99</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>398</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>357</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>451</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>144</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="s">
         <v>261</v>
       </c>
-      <c r="M42" s="22">
+      <c r="N42" s="22">
         <v>4</v>
       </c>
-      <c r="N42" s="4" t="str">
+      <c r="O42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:205
+        <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:205 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
@@ -5208,10 +5378,10 @@
     crm:P4 [
         crm:P116 "2018-10-31" ;
         crm:P115 "2018-10-31" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="409.6">
+    <row r="43" spans="1:15" ht="409.6">
       <c r="A43" s="12">
         <v>206</v>
       </c>
@@ -5219,42 +5389,46 @@
       <c r="C43">
         <v>737</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>2018</v>
+      </c>
+      <c r="E43" t="s">
         <v>61</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>410</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>358</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>452</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>145</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" t="s">
         <v>263</v>
       </c>
-      <c r="M43" s="22">
+      <c r="N43" s="22">
         <v>4</v>
       </c>
-      <c r="N43" s="4" t="str">
+      <c r="O43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:206
+        <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:206 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
@@ -5262,10 +5436,10 @@
     crm:P4 [
         crm:P116 "2018-12-16" ;
         crm:P115 "2018-12-16" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="409.6">
+    <row r="44" spans="1:15" ht="409.6">
       <c r="A44" s="12">
         <v>208</v>
       </c>
@@ -5273,42 +5447,46 @@
       <c r="C44">
         <v>738</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>2018</v>
+      </c>
+      <c r="E44" t="s">
         <v>62</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>359</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>453</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>497</v>
       </c>
-      <c r="M44" s="22">
+      <c r="N44" s="22">
         <v>2</v>
       </c>
-      <c r="N44" s="4" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:208
+        <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
@@ -5316,10 +5494,10 @@
     crm:P4 [
         crm:P116 "2018-09-15" ;
         crm:P115 "2018-09-16" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="409.6">
+    <row r="45" spans="1:15" ht="409.6">
       <c r="A45" s="11">
         <v>215</v>
       </c>
@@ -5327,42 +5505,46 @@
       <c r="C45">
         <v>746</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>2018</v>
+      </c>
+      <c r="E45" t="s">
         <v>63</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>415</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>360</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>454</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>147</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" t="s">
         <v>267</v>
       </c>
-      <c r="M45" s="22">
+      <c r="N45" s="22">
         <v>3</v>
       </c>
-      <c r="N45" s="4" t="str">
+      <c r="O45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:215
+        <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:215 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
@@ -5370,10 +5552,10 @@
     crm:P4 [
         crm:P116 "2018-05-05" ;
         crm:P115 "2018-05-05" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="409.6">
+    <row r="46" spans="1:15" ht="409.6">
       <c r="A46" s="12">
         <v>216</v>
       </c>
@@ -5381,42 +5563,46 @@
       <c r="C46">
         <v>747</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>2018</v>
+      </c>
+      <c r="E46" t="s">
         <v>64</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>401</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>361</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>455</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>268</v>
       </c>
-      <c r="M46" s="22">
+      <c r="N46" s="22">
         <v>4</v>
       </c>
-      <c r="N46" s="4" t="str">
+      <c r="O46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:216
+        <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:216 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
@@ -5424,10 +5610,10 @@
     crm:P4 [
         crm:P116 "2018-10-19" ;
         crm:P115 "2018-10-21" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="409.6">
+    <row r="47" spans="1:15" ht="409.6">
       <c r="A47" s="11">
         <v>219</v>
       </c>
@@ -5435,42 +5621,46 @@
       <c r="C47">
         <v>754</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>2018</v>
+      </c>
+      <c r="E47" t="s">
         <v>65</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>90</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>414</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>362</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>485</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>271</v>
       </c>
-      <c r="M47" s="22">
+      <c r="N47" s="22">
         <v>3</v>
       </c>
-      <c r="N47" s="4" t="str">
+      <c r="O47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:219
+        <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:219 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
@@ -5478,10 +5668,10 @@
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="409.6">
+    <row r="48" spans="1:15" ht="409.6">
       <c r="A48" s="12">
         <v>220</v>
       </c>
@@ -5489,42 +5679,46 @@
       <c r="C48">
         <v>764</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>2018</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>94</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>408</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>363</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>456</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>150</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>274</v>
       </c>
-      <c r="M48" s="22">
+      <c r="N48" s="22">
         <v>3</v>
       </c>
-      <c r="N48" s="4" t="str">
+      <c r="O48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:220
+        <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:220 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
@@ -5532,10 +5726,10 @@
     crm:P4 [
         crm:P116 "2018-07-31" ;
         crm:P115 "2018-08-04" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="49" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A49" s="23">
         <v>226</v>
       </c>
@@ -5543,42 +5737,46 @@
       <c r="C49" s="8">
         <v>767</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49">
+        <v>2018</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="K49" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="M49" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="M49" s="25">
+      <c r="N49" s="25">
         <v>2</v>
       </c>
-      <c r="N49" s="26" t="str">
+      <c r="O49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:226
+        <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
@@ -5586,10 +5784,10 @@
     crm:P4 [
         crm:P116 "2018-10-12" ;
         crm:P115 "2018-10-14" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="409.6">
+    <row r="50" spans="1:15" ht="409.6">
       <c r="A50" s="11">
         <v>231</v>
       </c>
@@ -5597,42 +5795,46 @@
       <c r="C50">
         <v>795</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>2018</v>
+      </c>
+      <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>400</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>365</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>458</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>152</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>275</v>
       </c>
-      <c r="M50" s="22">
+      <c r="N50" s="22">
         <v>2</v>
       </c>
-      <c r="N50" s="4" t="str">
+      <c r="O50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:231
+        <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:231 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
@@ -5640,10 +5842,10 @@
     crm:P4 [
         crm:P116 "2018-10-20" ;
         crm:P115 "2018-10-21" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="409.6">
+    <row r="51" spans="1:15" ht="409.6">
       <c r="A51" s="12">
         <v>232</v>
       </c>
@@ -5651,42 +5853,46 @@
       <c r="C51">
         <v>797</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>2018</v>
+      </c>
+      <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>95</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>411</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>366</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>486</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>153</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M51" t="s">
         <v>277</v>
       </c>
-      <c r="M51" s="22">
+      <c r="N51" s="22">
         <v>4</v>
       </c>
-      <c r="N51" s="4" t="str">
+      <c r="O51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:232
+        <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:232 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
@@ -5694,10 +5900,10 @@
     crm:P4 [
         crm:P116 "2018-02-20" ;
         crm:P115 "2018-02-20" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="409.6">
+    <row r="52" spans="1:15" ht="409.6">
       <c r="A52" s="12">
         <v>234</v>
       </c>
@@ -5705,42 +5911,46 @@
       <c r="C52">
         <v>798</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>2018</v>
+      </c>
+      <c r="E52" t="s">
         <v>70</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>92</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>404</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>154</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M52" t="s">
         <v>279</v>
       </c>
-      <c r="M52" s="22">
+      <c r="N52" s="22">
         <v>4</v>
       </c>
-      <c r="N52" s="4" t="str">
+      <c r="O52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:234
+        <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:234 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
@@ -5748,10 +5958,10 @@
     crm:P4 [
         crm:P116 "2018-10-08" ;
         crm:P115 "2018-10-08" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="409.6">
+    <row r="53" spans="1:15" ht="409.6">
       <c r="A53" s="11">
         <v>243</v>
       </c>
@@ -5759,42 +5969,46 @@
       <c r="C53">
         <v>811</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>2018</v>
+      </c>
+      <c r="E53" t="s">
         <v>71</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>391</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>368</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>155</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>281</v>
       </c>
-      <c r="M53" s="22">
+      <c r="N53" s="22">
         <v>3</v>
       </c>
-      <c r="N53" s="4" t="str">
+      <c r="O53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:243
+        <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:243 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
@@ -5802,10 +6016,10 @@
     crm:P4 [
         crm:P116 "2018-04-07" ;
         crm:P115 "2018-04-08" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="409.6">
+    <row r="54" spans="1:15" ht="409.6">
       <c r="A54" s="12">
         <v>244</v>
       </c>
@@ -5813,42 +6027,46 @@
       <c r="C54">
         <v>812</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>2018</v>
+      </c>
+      <c r="E54" t="s">
         <v>72</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>391</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>369</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>460</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>156</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>282</v>
       </c>
-      <c r="M54" s="22">
+      <c r="N54" s="22">
         <v>3</v>
       </c>
-      <c r="N54" s="4" t="str">
+      <c r="O54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:244
+        <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:244 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
@@ -5856,10 +6074,10 @@
     crm:P4 [
         crm:P116 "2018-05-03" ;
         crm:P115 "2018-05-04" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="409.6">
+    <row r="55" spans="1:15" ht="409.6">
       <c r="A55" s="11">
         <v>249</v>
       </c>
@@ -5867,42 +6085,46 @@
       <c r="C55">
         <v>823</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55">
+        <v>2018</v>
+      </c>
+      <c r="E55" t="s">
         <v>73</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>401</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>370</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>461</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="M55" s="22">
+      <c r="N55" s="22">
         <v>4</v>
       </c>
-      <c r="N55" s="4" t="str">
+      <c r="O55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:249
+        <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:249 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
@@ -5910,10 +6132,10 @@
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="409.6">
+    <row r="56" spans="1:15" ht="409.6">
       <c r="A56" s="11">
         <v>259</v>
       </c>
@@ -5921,42 +6143,46 @@
       <c r="C56">
         <v>853</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56">
+        <v>2018</v>
+      </c>
+      <c r="E56" t="s">
         <v>286</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>6</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>402</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>371</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>462</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>158</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="M56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="M56" s="22">
+      <c r="N56" s="22">
         <v>2</v>
       </c>
-      <c r="N56" s="4" t="str">
+      <c r="O56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:259
+        <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:259 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
@@ -5964,10 +6190,10 @@
     crm:P4 [
         crm:P116 "2018-08-24" ;
         crm:P115 "2018-08-26" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="16" customFormat="1" ht="409.6">
+    <row r="57" spans="1:15" s="16" customFormat="1" ht="409.6">
       <c r="A57" s="14">
         <v>270</v>
       </c>
@@ -5975,33 +6201,37 @@
       <c r="C57" s="16">
         <v>875</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57">
+        <v>2018</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="F57" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="H57" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="I57" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="J57" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J57" s="17"/>
       <c r="K57" s="17"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="4" t="str">
+      <c r="L57" s="17"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:270
+        <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:270 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
@@ -6009,10 +6239,10 @@
     crm:P4 [
         crm:P116 "" ;
         crm:P115 "" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="409.6">
+    <row r="58" spans="1:15" ht="409.6">
       <c r="A58" s="12">
         <v>272</v>
       </c>
@@ -6020,42 +6250,46 @@
       <c r="C58">
         <v>876</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58">
+        <v>2018</v>
+      </c>
+      <c r="E58" t="s">
         <v>75</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>100</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>397</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>104</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>464</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>160</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>290</v>
       </c>
-      <c r="M58" s="22">
+      <c r="N58" s="22">
         <v>3</v>
       </c>
-      <c r="N58" s="4" t="str">
+      <c r="O58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:272
+        <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:272 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
@@ -6063,10 +6297,10 @@
     crm:P4 [
         crm:P116 "2018-11-22" ;
         crm:P115 "2018-11-23" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="409.6">
+    <row r="59" spans="1:15" ht="409.6">
       <c r="A59" s="11">
         <v>273</v>
       </c>
@@ -6074,42 +6308,46 @@
       <c r="C59">
         <v>881</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59">
+        <v>2018</v>
+      </c>
+      <c r="E59" t="s">
         <v>76</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>101</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>403</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>372</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>465</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>161</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M59" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M59" s="22">
+      <c r="N59" s="22">
         <v>3</v>
       </c>
-      <c r="N59" s="4" t="str">
+      <c r="O59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:273
+        <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:273 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
@@ -6117,10 +6355,10 @@
     crm:P4 [
         crm:P116 "2018-08-26" ;
         crm:P115 "2018-08-26" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="409.6">
+    <row r="60" spans="1:15" ht="409.6">
       <c r="A60" s="11">
         <v>275</v>
       </c>
@@ -6128,42 +6366,46 @@
       <c r="C60">
         <v>882</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60">
+        <v>2018</v>
+      </c>
+      <c r="E60" t="s">
         <v>77</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>13</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>391</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>373</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>466</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>162</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>294</v>
       </c>
-      <c r="M60" s="22">
+      <c r="N60" s="22">
         <v>4</v>
       </c>
-      <c r="N60" s="4" t="str">
+      <c r="O60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:275
+        <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:275 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
@@ -6171,10 +6413,10 @@
     crm:P4 [
         crm:P116 "2018-08-04" ;
         crm:P115 "2018-08-05" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="409.6">
+    <row r="61" spans="1:15" ht="409.6">
       <c r="A61" s="12">
         <v>276</v>
       </c>
@@ -6182,42 +6424,46 @@
       <c r="C61">
         <v>884</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61">
+        <v>2018</v>
+      </c>
+      <c r="E61" t="s">
         <v>78</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>418</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>374</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>467</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>163</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>295</v>
       </c>
-      <c r="M61" s="22">
+      <c r="N61" s="22">
         <v>4</v>
       </c>
-      <c r="N61" s="4" t="str">
+      <c r="O61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:276
+        <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:276 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
@@ -6225,10 +6471,10 @@
     crm:P4 [
         crm:P116 "2018-10-13" ;
         crm:P115 "2018-10-14" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="409.6">
+    <row r="62" spans="1:15" ht="409.6">
       <c r="A62" s="12">
         <v>282</v>
       </c>
@@ -6236,42 +6482,46 @@
       <c r="C62">
         <v>893</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62">
+        <v>2018</v>
+      </c>
+      <c r="E62" t="s">
         <v>79</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>405</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>375</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>164</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="M62" s="22">
+      <c r="N62" s="22">
         <v>4</v>
       </c>
-      <c r="N62" s="4" t="str">
+      <c r="O62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:282
+        <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:282 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
@@ -6279,10 +6529,10 @@
     crm:P4 [
         crm:P116 "2018-08-19" ;
         crm:P115 "2018-08-20" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="409.6">
+    <row r="63" spans="1:15" ht="409.6">
       <c r="A63" s="11">
         <v>283</v>
       </c>
@@ -6290,42 +6540,46 @@
       <c r="C63">
         <v>894</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63">
+        <v>2018</v>
+      </c>
+      <c r="E63" t="s">
         <v>80</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>6</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>402</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>376</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>469</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>165</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>301</v>
       </c>
-      <c r="M63" s="22">
+      <c r="N63" s="22">
         <v>4</v>
       </c>
-      <c r="N63" s="4" t="str">
+      <c r="O63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:283
+        <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:283 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
@@ -6333,10 +6587,10 @@
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2019-01-01" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="409.6">
+    <row r="64" spans="1:15" ht="409.6">
       <c r="A64" s="12">
         <v>288</v>
       </c>
@@ -6344,42 +6598,46 @@
       <c r="C64">
         <v>921</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>2018</v>
+      </c>
+      <c r="E64" t="s">
         <v>81</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>91</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>395</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>377</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>470</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>166</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="M64" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="M64" s="22">
+      <c r="N64" s="22">
         <v>4</v>
       </c>
-      <c r="N64" s="4" t="str">
+      <c r="O64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:288
+        <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:288 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
@@ -6387,10 +6645,10 @@
     crm:P4 [
         crm:P116 "2018-05-12" ;
         crm:P115 "2018-05-13" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="409.6">
+    <row r="65" spans="1:15" ht="409.6">
       <c r="A65" s="12">
         <v>290</v>
       </c>
@@ -6398,42 +6656,46 @@
       <c r="C65">
         <v>923</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65">
+        <v>2018</v>
+      </c>
+      <c r="E65" t="s">
         <v>82</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>378</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>471</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>167</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M65" t="s">
         <v>307</v>
       </c>
-      <c r="M65" s="22">
+      <c r="N65" s="22">
         <v>4</v>
       </c>
-      <c r="N65" s="4" t="str">
+      <c r="O65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:290
+        <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:290 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
@@ -6441,10 +6703,10 @@
     crm:P4 [
         crm:P116 "2018-07-14" ;
         crm:P115 "2018-07-14" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="409.6">
+    <row r="66" spans="1:15" ht="409.6">
       <c r="A66" s="11">
         <v>291</v>
       </c>
@@ -6452,42 +6714,46 @@
       <c r="C66">
         <v>933</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66">
+        <v>2018</v>
+      </c>
+      <c r="E66" t="s">
         <v>83</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>92</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>404</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>379</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>472</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>168</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>309</v>
       </c>
-      <c r="M66" s="22">
+      <c r="N66" s="22">
         <v>4</v>
       </c>
-      <c r="N66" s="4" t="str">
+      <c r="O66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:291
+        <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:291 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
@@ -6495,10 +6761,10 @@
     crm:P4 [
         crm:P116 "2018-10-06" ;
         crm:P115 "2018-10-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="67" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A67" s="23">
         <v>292</v>
       </c>
@@ -6506,53 +6772,58 @@
       <c r="C67" s="8">
         <v>934</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67">
+        <v>2018</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="I67" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>501</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="M67" s="25">
+      <c r="N67" s="25">
         <v>2</v>
       </c>
-      <c r="N67" s="26" t="str">
-        <f t="shared" ref="N67:N71" si="1">"ifcp:"&amp;A67&amp;"
-    rdfs:label """&amp;D67&amp;"""@ja .
+      <c r="O67" s="4" t="str">
+        <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
+    rdfs:label """&amp;E67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D67&amp;" ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 &lt;"&amp;H67&amp;"&gt; ;
-    crm:P14 """&amp;I67&amp;""" ;
-    crm:P67 &lt;"&amp;L67&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;J67&amp;""" ;
-        crm:P115 """&amp;K67&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:292
+    crm:P7 &lt;"&amp;I67&amp;"&gt; ;
+    crm:P14 """&amp;J67&amp;""" ;
+    crm:P67 &lt;"&amp;M67&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;K67&amp;""" ;
+        crm:P115 """&amp;L67&amp;""" 
+    ] ."</f>
+        <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
@@ -6560,10 +6831,10 @@
     crm:P4 [
         crm:P116 "2018-02-06" ;
         crm:P115 "2018-02-06" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="409.6">
+    <row r="68" spans="1:15" ht="409.6">
       <c r="A68" s="11">
         <v>293</v>
       </c>
@@ -6571,42 +6842,46 @@
       <c r="C68">
         <v>935</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <v>2018</v>
+      </c>
+      <c r="E68" t="s">
         <v>85</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>102</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>392</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="H68" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>170</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M68" t="s">
         <v>310</v>
       </c>
-      <c r="M68" s="22">
+      <c r="N68" s="22">
         <v>3</v>
       </c>
-      <c r="N68" s="4" t="str">
+      <c r="O68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:293
+        <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:293 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
@@ -6614,10 +6889,10 @@
     crm:P4 [
         crm:P116 "2018-02-17" ;
         crm:P115 "2018-02-17" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="409.6">
+    <row r="69" spans="1:15" ht="409.6">
       <c r="A69" s="11">
         <v>295</v>
       </c>
@@ -6625,37 +6900,41 @@
       <c r="C69">
         <v>941</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69">
+        <v>2018</v>
+      </c>
+      <c r="E69" t="s">
         <v>86</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>89</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>389</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>382</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>475</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>171</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="4" t="str">
+      <c r="N69" s="22"/>
+      <c r="O69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:295
+        <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:295 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
@@ -6663,10 +6942,10 @@
     crm:P4 [
         crm:P116 "開催せず" ;
         crm:P115 "開催せず" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="409.6">
+    <row r="70" spans="1:15" ht="409.6">
       <c r="A70" s="11">
         <v>301</v>
       </c>
@@ -6674,42 +6953,46 @@
       <c r="C70">
         <v>951</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70">
+        <v>2018</v>
+      </c>
+      <c r="E70" t="s">
         <v>87</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>406</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>383</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>172</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M70" t="s">
         <v>502</v>
       </c>
-      <c r="M70" s="22">
+      <c r="N70" s="22">
         <v>4</v>
       </c>
-      <c r="N70" s="4" t="str">
+      <c r="O70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:301
+        <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
@@ -6717,10 +7000,10 @@
     crm:P4 [
         crm:P116 "2018-03-03" ;
         crm:P115 "2018-03-03" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="409.6">
+    <row r="71" spans="1:15" ht="409.6">
       <c r="A71" s="12">
         <v>302</v>
       </c>
@@ -6728,42 +7011,46 @@
       <c r="C71">
         <v>950</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71">
+        <v>2018</v>
+      </c>
+      <c r="E71" t="s">
         <v>88</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>406</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>384</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>477</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>173</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="L71" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>314</v>
       </c>
-      <c r="M71" s="22">
+      <c r="N71" s="22">
         <v>3</v>
       </c>
-      <c r="N71" s="4" t="str">
+      <c r="O71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ifcp:302
+        <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:302 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;
@@ -6771,35 +7058,35 @@
     crm:P4 [
         crm:P116 "2018-07-06" ;
         crm:P115 "2018-07-07" 
-    ] . </v>
+    ] .</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E71" xr:uid="{2C1D6245-B618-534D-B1F6-4DEECE8891FB}"/>
+  <autoFilter ref="F1:F71" xr:uid="{2C1D6245-B618-534D-B1F6-4DEECE8891FB}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{184D46C0-1C81-1048-A99E-F67A5950380D}"/>
-    <hyperlink ref="L20" r:id="rId2" xr:uid="{2B3BE3B4-F9DE-9041-9811-8A7AD0662191}"/>
-    <hyperlink ref="L55" r:id="rId3" xr:uid="{D4D4D11A-8D42-5249-A152-0F91552FC898}"/>
-    <hyperlink ref="L56" r:id="rId4" xr:uid="{2806FFDF-F743-E542-811A-C8A555271FFC}"/>
-    <hyperlink ref="L59" r:id="rId5" xr:uid="{0E5B3C33-2441-9847-9149-3E01C983A492}"/>
-    <hyperlink ref="L62" r:id="rId6" xr:uid="{290B2A49-7DCE-CE43-8799-F2794FA83B85}"/>
-    <hyperlink ref="L64" r:id="rId7" xr:uid="{83078CB4-582C-494E-BE41-5D7E44954B15}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
-    <hyperlink ref="H34" r:id="rId9" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
-    <hyperlink ref="H35" r:id="rId10" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
-    <hyperlink ref="H53" r:id="rId11" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
-    <hyperlink ref="H62" r:id="rId12" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
-    <hyperlink ref="H68" r:id="rId13" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
-    <hyperlink ref="H70" r:id="rId14" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
-    <hyperlink ref="H5" r:id="rId15" xr:uid="{2E1878D3-CDCB-1F46-84D8-709CB0BB16C3}"/>
-    <hyperlink ref="H10" r:id="rId16" xr:uid="{6F29CB32-5464-C842-8022-60830F035917}"/>
-    <hyperlink ref="H14" r:id="rId17" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
-    <hyperlink ref="H27" r:id="rId19" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
-    <hyperlink ref="L2" r:id="rId20" xr:uid="{6B3CB02E-3F8C-2F47-8192-BB369A1D2F5B}"/>
-    <hyperlink ref="L12" r:id="rId21" xr:uid="{F63801AA-C119-E34C-83A6-766E60F9C99E}"/>
-    <hyperlink ref="L41" r:id="rId22" xr:uid="{40318539-E304-AF48-9071-C7CFF53F25F4}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{184D46C0-1C81-1048-A99E-F67A5950380D}"/>
+    <hyperlink ref="M20" r:id="rId2" xr:uid="{2B3BE3B4-F9DE-9041-9811-8A7AD0662191}"/>
+    <hyperlink ref="M55" r:id="rId3" xr:uid="{D4D4D11A-8D42-5249-A152-0F91552FC898}"/>
+    <hyperlink ref="M56" r:id="rId4" xr:uid="{2806FFDF-F743-E542-811A-C8A555271FFC}"/>
+    <hyperlink ref="M59" r:id="rId5" xr:uid="{0E5B3C33-2441-9847-9149-3E01C983A492}"/>
+    <hyperlink ref="M62" r:id="rId6" xr:uid="{290B2A49-7DCE-CE43-8799-F2794FA83B85}"/>
+    <hyperlink ref="M64" r:id="rId7" xr:uid="{83078CB4-582C-494E-BE41-5D7E44954B15}"/>
+    <hyperlink ref="G2" r:id="rId8" xr:uid="{B96028CE-791A-0C4C-ABBE-3667E82CD0FD}"/>
+    <hyperlink ref="I34" r:id="rId9" xr:uid="{B41E3D5A-054D-FF48-B9A9-354497192E16}"/>
+    <hyperlink ref="I35" r:id="rId10" xr:uid="{E8D6E37C-CE7E-6B4E-94C4-C582695AC616}"/>
+    <hyperlink ref="I53" r:id="rId11" xr:uid="{46904CFB-38E3-644D-8824-D1CE4BB69257}"/>
+    <hyperlink ref="I62" r:id="rId12" xr:uid="{00B31248-936D-2547-85BB-6C6E49D42575}"/>
+    <hyperlink ref="I68" r:id="rId13" xr:uid="{73227319-7AD1-9D41-BC7E-588DAD6D010D}"/>
+    <hyperlink ref="I70" r:id="rId14" xr:uid="{D5932380-8CE9-5C4F-850D-E62133C7A59D}"/>
+    <hyperlink ref="I5" r:id="rId15" xr:uid="{2E1878D3-CDCB-1F46-84D8-709CB0BB16C3}"/>
+    <hyperlink ref="I10" r:id="rId16" xr:uid="{6F29CB32-5464-C842-8022-60830F035917}"/>
+    <hyperlink ref="I14" r:id="rId17" xr:uid="{A58E152C-8016-BE4F-9321-8E6CB2CA5166}"/>
+    <hyperlink ref="I22" r:id="rId18" xr:uid="{6034268F-5CF0-4646-BF62-8903117AAFFC}"/>
+    <hyperlink ref="I27" r:id="rId19" xr:uid="{E0E33CB3-F726-5745-B319-DE38403C16AD}"/>
+    <hyperlink ref="M2" r:id="rId20" xr:uid="{6B3CB02E-3F8C-2F47-8192-BB369A1D2F5B}"/>
+    <hyperlink ref="M12" r:id="rId21" xr:uid="{F63801AA-C119-E34C-83A6-766E60F9C99E}"/>
+    <hyperlink ref="M41" r:id="rId22" xr:uid="{40318539-E304-AF48-9071-C7CFF53F25F4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E7576-0B0C-1D4F-A413-F482120CA911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D956B25-DEE0-E84C-99C2-F7B81E712438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37680" yWindow="1320" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3032,7 +3032,7 @@
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D2&amp;" ;
+    crm:P12 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;I2&amp;"&gt; ;
     crm:P14 """&amp;J2&amp;""" ;
@@ -3045,7 +3045,7 @@
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:33 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14 "日立郷土芸能保存会" ;
@@ -3102,7 +3102,7 @@
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D3&amp;" ;
+    crm:P12 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;I3&amp;"&gt; ;
     crm:P14 """&amp;J3&amp;""" ;
@@ -3115,7 +3115,7 @@
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:63 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14 "烏山山あげ保存会" ;
@@ -3173,7 +3173,7 @@
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:64 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14 "秩父祭保存委員会" ;
@@ -3231,7 +3231,7 @@
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:66 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14 "高岡御車山保存会" ;
@@ -3291,7 +3291,7 @@
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3351,7 +3351,7 @@
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:69 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
@@ -3409,7 +3409,7 @@
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:71 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14 "（公益財団法人）長浜曳山文化協会" ;
@@ -3465,7 +3465,7 @@
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:72 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14 "公益財団法人祇園祭山鉾連合会" ;
@@ -3523,7 +3523,7 @@
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:79 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14 "博多祇園山笠振興会" ;
@@ -3581,7 +3581,7 @@
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:81 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14 "青森ねぶた祭保存会" ;
@@ -3639,7 +3639,7 @@
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:82 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "弘前ねぷた保存会" ;
@@ -3697,7 +3697,7 @@
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:84 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "秋田市竿灯会" ;
@@ -3755,7 +3755,7 @@
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:85 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14 "羽山ごもり保存会" ;
@@ -3813,7 +3813,7 @@
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:90 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14 "古川祭保存会" ;
@@ -3871,7 +3871,7 @@
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:91 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14 "尾張津島天王祭協賛会" ;
@@ -3929,7 +3929,7 @@
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:92 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14 "豊橋鬼祭保存会" ;
@@ -3987,7 +3987,7 @@
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:95 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14 "戸畑祇園大山笠振興会" ;
@@ -4045,7 +4045,7 @@
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:96 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14 "唐津曳山取締会" ;
@@ -4103,7 +4103,7 @@
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:100 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14 "田島祇園祭のおとうや行事保存会" ;
@@ -4161,7 +4161,7 @@
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:102 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14 "お熊甲祭奉賛会" ;
@@ -4219,7 +4219,7 @@
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:114 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14 "青柏祭でか山保存会" ;
@@ -4277,7 +4277,7 @@
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:120 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14 "お山参詣保存会" ;
@@ -4335,7 +4335,7 @@
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:122 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14 "室根神社祭保存会" ;
@@ -4393,7 +4393,7 @@
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:126 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
@@ -4451,7 +4451,7 @@
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:129 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14 "涌出宮宮座行事保存会" ;
@@ -4509,7 +4509,7 @@
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:149 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14 "角館のお祭り保存会" ;
@@ -4567,7 +4567,7 @@
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:150 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14 "芋くらべ祭保存会" ;
@@ -4625,7 +4625,7 @@
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:153 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14 "白間津区" ;
@@ -4683,7 +4683,7 @@
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:171 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14 "発光路妙見神社青年部" ;
@@ -4741,7 +4741,7 @@
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:172 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14 "貴船祭保存会" ;
@@ -4799,7 +4799,7 @@
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:176 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14 "日田祗園山鉾振興会" ;
@@ -4857,7 +4857,7 @@
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:178 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14 "土崎神明社奉賛会" ;
@@ -4915,7 +4915,7 @@
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:180 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14 "魚津たてもん保存会" ;
@@ -4973,7 +4973,7 @@
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:182 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14 "富田鯨船保存会連合会" ;
@@ -5031,7 +5031,7 @@
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:187 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
@@ -5089,7 +5089,7 @@
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:192 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14 "等覚寺松会保存会" ;
@@ -5138,7 +5138,7 @@
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:197 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
@@ -5196,7 +5196,7 @@
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:198 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14 "中川原、常盤町一区・二区・三区" ;
@@ -5254,7 +5254,7 @@
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:199 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14 "大江氏子会" ;
@@ -5312,7 +5312,7 @@
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:201 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
@@ -5370,7 +5370,7 @@
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:205 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14 "猿追い祭保存会" ;
@@ -5428,7 +5428,7 @@
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:206 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14 "気多大社、鵜浦町会" ;
@@ -5486,7 +5486,7 @@
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:208 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14 "見付天神裸祭保存会" ;
@@ -5544,7 +5544,7 @@
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:215 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14 "城端曳山祭保存会" ;
@@ -5602,7 +5602,7 @@
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:216 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14 "上野文化美術保存会" ;
@@ -5660,7 +5660,7 @@
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:219 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14 "鹿沼いまみや付け祭り保存会" ;
@@ -5718,7 +5718,7 @@
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:220 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14 "八戸三社大祭山車祭り行事保存会" ;
@@ -5776,7 +5776,7 @@
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:226 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14 "佐原山車行事伝承保存会" ;
@@ -5834,7 +5834,7 @@
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:231 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14 "川越氷川祭の山車行事保存会" ;
@@ -5892,7 +5892,7 @@
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:232 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14 "茂名区" ;
@@ -5950,7 +5950,7 @@
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:234 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14 "ずいき祭保存会" ;
@@ -6008,7 +6008,7 @@
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:243 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14 "犬山祭保存会" ;
@@ -6066,7 +6066,7 @@
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:244 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14 "亀崎潮干祭保存会" ;
@@ -6124,7 +6124,7 @@
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:249 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14 "桑名石取祭保存会" ;
@@ -6182,7 +6182,7 @@
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:259 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14 "新庄まつり山車行事保存会" ;
@@ -6231,7 +6231,7 @@
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:270 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14 "小菅柱松保存会" ;
@@ -6289,7 +6289,7 @@
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:272 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14 "八代妙見祭保存振興会" ;
@@ -6347,7 +6347,7 @@
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:273 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14 "吉田の火祭保存会" ;
@@ -6405,7 +6405,7 @@
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:275 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14 "須成文化財保護委員会" ;
@@ -6463,7 +6463,7 @@
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:276 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14 "坂越の船渡御祭保存会" ;
@@ -6521,7 +6521,7 @@
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:282 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14 "花輪ばやし祭典委員会" ;
@@ -6579,7 +6579,7 @@
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:283 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14 "松例祭保存会" ;
@@ -6637,7 +6637,7 @@
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:288 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14 "大垣祭保存会" ;
@@ -6695,7 +6695,7 @@
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:290 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14 "那智の扇祭り保存会" ;
@@ -6753,7 +6753,7 @@
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:291 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14 "大津祭保存会" ;
@@ -6810,7 +6810,7 @@
     rdfs:label """&amp;E67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D67&amp;" ;
+    crm:P12 "&amp;D67&amp;" ;
     crm:P17 ifcp:"&amp;A67&amp;" ;
     crm:P7 &lt;"&amp;I67&amp;"&gt; ;
     crm:P14 """&amp;J67&amp;""" ;
@@ -6823,7 +6823,7 @@
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:292 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14 "熊野速玉大社祭事保存会" ;
@@ -6881,7 +6881,7 @@
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:293 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14 "西大寺会陽保存会" ;
@@ -6934,7 +6934,7 @@
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:295 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14 "常陸大津の御船祭保存会" ;
@@ -6992,7 +6992,7 @@
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:301 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
@@ -7050,7 +7050,7 @@
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:302 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14 "村上まつり保存会" ;

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D956B25-DEE0-E84C-99C2-F7B81E712438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2CBF9-D3E1-B840-BC8C-9D8386F406F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="1320" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1722,100 +1722,100 @@
     <t>http://data.e-stat.go.jp/lod/sac/C15212-20100616</t>
   </si>
   <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16202-20051101</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40132-19720401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07201-20080701</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C25383-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330</t>
+  </si>
+  <si>
+    <t>URLレイヤー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hida-kankou.jp/event/1313/</t>
+  </si>
+  <si>
+    <t>http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html</t>
+  </si>
+  <si>
+    <t>http://tatemon-uozu.com/pg155.html</t>
+  </si>
+  <si>
+    <t>https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html</t>
+  </si>
+  <si>
+    <t>https://art-fuji.info/event/3066.html/</t>
+  </si>
+  <si>
+    <t>http://nukisaki-akagi.seesaa.net/article/461088227.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kanko-iwata.jp/2018/09/post-6059/</t>
+  </si>
+  <si>
+    <t>http://suigosanto.com/news/webdir/2.html</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://kumanohayatama.jp/?page_id=8</t>
+  </si>
+  <si>
+    <t>2018-02-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.tsumugi-kan.jp/season/dtl.html?id=23</t>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
-@prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
+@prefix crm: &lt;http://www.cidoc-crm.org/cidoc-crm/&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
 @prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16202-20051101</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40132-19720401</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C07201-20080701</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C25383-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330</t>
-  </si>
-  <si>
-    <t>URLレイヤー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.kankou-hitachi.jp/page/page000060.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://blog.tugarujikukan.info/archives/hirosaki-neputa</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hida-kankou.jp/event/1313/</t>
-  </si>
-  <si>
-    <t>http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html</t>
-  </si>
-  <si>
-    <t>http://tatemon-uozu.com/pg155.html</t>
-  </si>
-  <si>
-    <t>https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html</t>
-  </si>
-  <si>
-    <t>https://art-fuji.info/event/3066.html/</t>
-  </si>
-  <si>
-    <t>http://nukisaki-akagi.seesaa.net/article/461088227.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://kanko-iwata.jp/2018/09/post-6059/</t>
-  </si>
-  <si>
-    <t>http://suigosanto.com/news/webdir/2.html</t>
-  </si>
-  <si>
-    <t>2018-10-12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://kumanohayatama.jp/?page_id=8</t>
-  </si>
-  <si>
-    <t>2018-02-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.tsumugi-kan.jp/season/dtl.html?id=23</t>
-  </si>
-  <si>
-    <t>開催年</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2930,7 +2930,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2980,10 +2980,10 @@
         <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -3022,7 +3022,7 @@
         <v>177</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N2" s="22">
         <v>2</v>
@@ -3031,28 +3031,28 @@
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D2&amp;" ;
-    crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
-    crm:P14 """&amp;J2&amp;""" ;
-    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K2&amp;""" ;
-        crm:P115 """&amp;L2&amp;""" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J2&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K2&amp;""" ;
+        crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
         <v>ifcp:33
     rdfs:label "日立風流物"@ja .
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:33 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
-    crm:P14 "日立郷土芸能保存会" ;
-    crm:P67 &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-07" ;
-        crm:P115 "2018-04-08" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:33 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
+    crm:P14_carried_out_by "日立郷土芸能保存会" ;
+    crm:P67_refers_to &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-07" ;
+        crm:P115_finishes "2018-04-08" 
     ] .</v>
       </c>
     </row>
@@ -3101,28 +3101,28 @@
         <f t="shared" ref="O3:O66" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D3&amp;" ;
-    crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
-    crm:P14 """&amp;J3&amp;""" ;
-    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K3&amp;""" ;
-        crm:P115 """&amp;L3&amp;""" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J3&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K3&amp;""" ;
+        crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
         <v>ifcp:63
     rdfs:label "烏山の山あげ行事"@ja .
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:63 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
-    crm:P14 "烏山山あげ保存会" ;
-    crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-26" ;
-        crm:P115 "2018-07-29" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:63 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
+    crm:P14_carried_out_by "烏山山あげ保存会" ;
+    crm:P67_refers_to &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-26" ;
+        crm:P115_finishes "2018-07-29" 
     ] .</v>
       </c>
     </row>
@@ -3172,15 +3172,15 @@
         <v>ifcp:64
     rdfs:label "秩父祭の屋台行事と神楽"@ja .
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:64 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
-    crm:P14 "秩父祭保存委員会" ;
-    crm:P67 &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-12-03" ;
-        crm:P115 "2018-12-03" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:64 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
+    crm:P14_carried_out_by "秩父祭保存委員会" ;
+    crm:P67_refers_to &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-12-03" ;
+        crm:P115_finishes "2018-12-03" 
     ] .</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
         <v>320</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
@@ -3230,15 +3230,15 @@
         <v>ifcp:66
     rdfs:label "高岡御車山祭の御車山行事"@ja .
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:66 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
-    crm:P14 "高岡御車山保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-05-01" ;
-        crm:P115 "2018-05-01" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:66 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
+    crm:P14_carried_out_by "高岡御車山保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-05-01" ;
+        crm:P115_finishes "2018-05-01" 
     ] .</v>
       </c>
     </row>
@@ -3290,15 +3290,15 @@
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
-    crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
-    crm:P67 &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-14" ;
-        crm:P115 "2018-04-15" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
+    crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
+    crm:P67_refers_to &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-14" ;
+        crm:P115_finishes "2018-04-15" 
     ] .</v>
       </c>
     </row>
@@ -3350,15 +3350,15 @@
         <v>ifcp:69
     rdfs:label "高山祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:69 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
-    crm:P14 "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-09" ;
-        crm:P115 "2018-10-10" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
+    crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-09" ;
+        crm:P115_finishes "2018-10-10" 
     ] .</v>
       </c>
     </row>
@@ -3408,15 +3408,15 @@
         <v>ifcp:71
     rdfs:label "長浜曳山祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:71 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
-    crm:P14 "（公益財団法人）長浜曳山文化協会" ;
-    crm:P67 &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-13" ;
-        crm:P115 "2018-04-16" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:71 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
+    crm:P14_carried_out_by "（公益財団法人）長浜曳山文化協会" ;
+    crm:P67_refers_to &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-13" ;
+        crm:P115_finishes "2018-04-16" 
     ] .</v>
       </c>
     </row>
@@ -3464,15 +3464,15 @@
         <v>ifcp:72
     rdfs:label "京都祇園祭の山鉾行事"@ja .
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:72 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
-    crm:P14 "公益財団法人祇園祭山鉾連合会" ;
-    crm:P67 &lt;https://kyoto-design.jp/event/35063&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-01" ;
-        crm:P115 "2018-07-31" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:72 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
+    crm:P14_carried_out_by "公益財団法人祇園祭山鉾連合会" ;
+    crm:P67_refers_to &lt;https://kyoto-design.jp/event/35063&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-01" ;
+        crm:P115_finishes "2018-07-31" 
     ] .</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
         <v>325</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J10" t="s">
         <v>112</v>
@@ -3522,15 +3522,15 @@
         <v>ifcp:79
     rdfs:label "博多祇園山笠行事"@ja .
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:79 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
-    crm:P14 "博多祇園山笠振興会" ;
-    crm:P67 &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-01" ;
-        crm:P115 "2018-07-15" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:79 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
+    crm:P14_carried_out_by "博多祇園山笠振興会" ;
+    crm:P67_refers_to &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-01" ;
+        crm:P115_finishes "2018-07-15" 
     ] .</v>
       </c>
     </row>
@@ -3580,15 +3580,15 @@
         <v>ifcp:81
     rdfs:label "青森のねぶた"@ja .
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:81 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
-    crm:P14 "青森ねぶた祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-02" ;
-        crm:P115 "2018-08-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:81 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
+    crm:P14_carried_out_by "青森ねぶた祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-02" ;
+        crm:P115_finishes "2018-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>202</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N12" s="22">
         <v>4</v>
@@ -3638,15 +3638,15 @@
         <v>ifcp:82
     rdfs:label "弘前のねぷた"@ja .
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:82 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
-    crm:P14 "弘前ねぷた保存会" ;
-    crm:P67 &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-01" ;
-        crm:P115 "2018-08-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:82 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
+    crm:P14_carried_out_by "弘前ねぷた保存会" ;
+    crm:P67_refers_to &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-01" ;
+        crm:P115_finishes "2018-08-07" 
     ] .</v>
       </c>
     </row>
@@ -3696,15 +3696,15 @@
         <v>ifcp:84
     rdfs:label "秋田の竿灯"@ja .
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:84 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
-    crm:P14 "秋田市竿灯会" ;
-    crm:P67 &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-06" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:84 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
+    crm:P14_carried_out_by "秋田市竿灯会" ;
+    crm:P67_refers_to &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-04" ;
+        crm:P115_finishes "2018-08-06" 
     ] .</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>329</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J14" t="s">
         <v>116</v>
@@ -3754,15 +3754,15 @@
         <v>ifcp:85
     rdfs:label "金沢の羽山ごもり"@ja .
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:85 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
-    crm:P14 "羽山ごもり保存会" ;
-    crm:P67 &lt;https://fukuori.com/kitemina/event/124/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-02" ;
-        crm:P115 "2018-01-04" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:85 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
+    crm:P14_carried_out_by "羽山ごもり保存会" ;
+    crm:P67_refers_to &lt;https://fukuori.com/kitemina/event/124/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-02" ;
+        crm:P115_finishes "2018-01-04" 
     ] .</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>211</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N15" s="22">
         <v>2</v>
@@ -3812,15 +3812,15 @@
         <v>ifcp:90
     rdfs:label "古川祭の起し太鼓・屋台行事"@ja .
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:90 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
-    crm:P14 "古川祭保存会" ;
-    crm:P67 &lt;https://www.hida-kankou.jp/event/1313/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-19" ;
-        crm:P115 "2018-04-20" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:90 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
+    crm:P14_carried_out_by "古川祭保存会" ;
+    crm:P67_refers_to &lt;https://www.hida-kankou.jp/event/1313/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-19" ;
+        crm:P115_finishes "2018-04-20" 
     ] .</v>
       </c>
     </row>
@@ -3870,15 +3870,15 @@
         <v>ifcp:91
     rdfs:label "尾張津島天王祭の車楽舟行事"@ja .
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:91 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
-    crm:P14 "尾張津島天王祭協賛会" ;
-    crm:P67 &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
-    crm:P4 [
-        crm:P116 "中止" ;
-        crm:P115 "中止" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:91 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
+    crm:P14_carried_out_by "尾張津島天王祭協賛会" ;
+    crm:P67_refers_to &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "中止" ;
+        crm:P115_finishes "中止" 
     ] .</v>
       </c>
     </row>
@@ -3928,15 +3928,15 @@
         <v>ifcp:92
     rdfs:label "豊橋神明社の鬼祭"@ja .
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:92 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
-    crm:P14 "豊橋鬼祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-10" ;
-        crm:P115 "2018-02-11" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:92 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
+    crm:P14_carried_out_by "豊橋鬼祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-10" ;
+        crm:P115_finishes "2018-02-11" 
     ] .</v>
       </c>
     </row>
@@ -3986,15 +3986,15 @@
         <v>ifcp:95
     rdfs:label "戸畑祇園大山笠行事"@ja .
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:95 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
-    crm:P14 "戸畑祇園大山笠振興会" ;
-    crm:P67 &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-27" ;
-        crm:P115 "2018-07-29" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:95 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
+    crm:P14_carried_out_by "戸畑祇園大山笠振興会" ;
+    crm:P67_refers_to &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-27" ;
+        crm:P115_finishes "2018-07-29" 
     ] .</v>
       </c>
     </row>
@@ -4044,15 +4044,15 @@
         <v>ifcp:96
     rdfs:label "唐津くんちの曳山行事"@ja .
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:96 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
-    crm:P14 "唐津曳山取締会" ;
-    crm:P67 &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
-    crm:P4 [
-        crm:P116 "2018-11-02" ;
-        crm:P115 "2018-11-04" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:96 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
+    crm:P14_carried_out_by "唐津曳山取締会" ;
+    crm:P67_refers_to &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-11-02" ;
+        crm:P115_finishes "2018-11-04" 
     ] .</v>
       </c>
     </row>
@@ -4102,15 +4102,15 @@
         <v>ifcp:100
     rdfs:label "田島祇園祭のおとうや行事"@ja .
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:100 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
-    crm:P14 "田島祇園祭のおとうや行事保存会" ;
-    crm:P67 &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-22" ;
-        crm:P115 "2018-07-24" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:100 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
+    crm:P14_carried_out_by "田島祇園祭のおとうや行事保存会" ;
+    crm:P67_refers_to &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-22" ;
+        crm:P115_finishes "2018-07-24" 
     ] .</v>
       </c>
     </row>
@@ -4160,15 +4160,15 @@
         <v>ifcp:102
     rdfs:label "熊甲二十日祭の枠旗行事"@ja .
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:102 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
-    crm:P14 "お熊甲祭奉賛会" ;
-    crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-20" ;
-        crm:P115 "2018-09-20" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:102 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
+    crm:P14_carried_out_by "お熊甲祭奉賛会" ;
+    crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-20" ;
+        crm:P115_finishes "2018-09-20" 
     ] .</v>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
         <v>337</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J22" t="s">
         <v>124</v>
@@ -4218,15 +4218,15 @@
         <v>ifcp:114
     rdfs:label "青柏祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:114 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
-    crm:P14 "青柏祭でか山保存会" ;
-    crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
-    crm:P4 [
-        crm:P116 "2018-05-03" ;
-        crm:P115 "2018-05-05" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:114 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
+    crm:P14_carried_out_by "青柏祭でか山保存会" ;
+    crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-05-03" ;
+        crm:P115_finishes "2018-05-05" 
     ] .</v>
       </c>
     </row>
@@ -4276,15 +4276,15 @@
         <v>ifcp:120
     rdfs:label "岩木山の登拝行事"@ja .
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:120 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
-    crm:P14 "お山参詣保存会" ;
-    crm:P67 &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-08" ;
-        crm:P115 "2018-09-10" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:120 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
+    crm:P14_carried_out_by "お山参詣保存会" ;
+    crm:P67_refers_to &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-08" ;
+        crm:P115_finishes "2018-09-10" 
     ] .</v>
       </c>
     </row>
@@ -4334,15 +4334,15 @@
         <v>ifcp:122
     rdfs:label "室根神社祭のマツリバ行事"@ja .
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:122 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
-    crm:P14 "室根神社祭保存会" ;
-    crm:P67 &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-26" ;
-        crm:P115 "2018-10-28" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:122 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
+    crm:P14_carried_out_by "室根神社祭保存会" ;
+    crm:P67_refers_to &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-26" ;
+        crm:P115_finishes "2018-10-28" 
     ] .</v>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
         <v>316</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N25" s="25">
         <v>1</v>
@@ -4392,15 +4392,15 @@
         <v>ifcp:126
     rdfs:label "東湖八坂神社のトウニン（統人）行事"@ja .
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:126 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
-    crm:P14 "東湖八坂神社崇敬会、船越町内連合会" ;
-    crm:P67 &lt;http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-07" ;
-        crm:P115 "2018-07-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:126 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
+    crm:P14_carried_out_by "東湖八坂神社崇敬会、船越町内連合会" ;
+    crm:P67_refers_to &lt;http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-07" ;
+        crm:P115_finishes "2018-07-07" 
     ] .</v>
       </c>
     </row>
@@ -4450,15 +4450,15 @@
         <v>ifcp:129
     rdfs:label "涌出宮の宮座行事"@ja .
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:129 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
-    crm:P14 "涌出宮宮座行事保存会" ;
-    crm:P67 &lt;http://nihonguide.net/maturi/26131.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-17" ;
-        crm:P115 "2018-02-18" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:129 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
+    crm:P14_carried_out_by "涌出宮宮座行事保存会" ;
+    crm:P67_refers_to &lt;http://nihonguide.net/maturi/26131.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-17" ;
+        crm:P115_finishes "2018-02-18" 
     ] .</v>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
         <v>342</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J27" t="s">
         <v>129</v>
@@ -4508,15 +4508,15 @@
         <v>ifcp:149
     rdfs:label "角館祭りのやま行事"@ja .
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:149 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
-    crm:P14 "角館のお祭り保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-07" ;
-        crm:P115 "2018-09-10" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:149 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
+    crm:P14_carried_out_by "角館のお祭り保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-07" ;
+        crm:P115_finishes "2018-09-10" 
     ] .</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>343</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J28" t="s">
         <v>130</v>
@@ -4566,15 +4566,15 @@
         <v>ifcp:150
     rdfs:label "近江中山の芋競べ祭り"@ja .
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:150 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
-    crm:P14 "芋くらべ祭保存会" ;
-    crm:P67 &lt;http://nihonguide.net/maturi/2586.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-02" ;
-        crm:P115 "2018-09-02" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:150 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
+    crm:P14_carried_out_by "芋くらべ祭保存会" ;
+    crm:P67_refers_to &lt;http://nihonguide.net/maturi/2586.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-02" ;
+        crm:P115_finishes "2018-09-02" 
     ] .</v>
       </c>
     </row>
@@ -4624,15 +4624,15 @@
         <v>ifcp:153
     rdfs:label "白間津のオオマチ（大祭）行事"@ja .
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:153 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
-    crm:P14 "白間津区" ;
-    crm:P67 &lt;http://bosotown.com/archives/2319&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:153 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
+    crm:P14_carried_out_by "白間津区" ;
+    crm:P67_refers_to &lt;http://bosotown.com/archives/2319&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -4682,15 +4682,15 @@
         <v>ifcp:171
     rdfs:label "発光路の強飯式"@ja .
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:171 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
-    crm:P14 "発光路妙見神社青年部" ;
-    crm:P67 &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-03" ;
-        crm:P115 "2018-01-03" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:171 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
+    crm:P14_carried_out_by "発光路妙見神社青年部" ;
+    crm:P67_refers_to &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-03" ;
+        crm:P115_finishes "2018-01-03" 
     ] .</v>
       </c>
     </row>
@@ -4740,15 +4740,15 @@
         <v>ifcp:172
     rdfs:label "貴船神社の船祭り"@ja .
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:172 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
-    crm:P14 "貴船祭保存会" ;
-    crm:P67 &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-27" ;
-        crm:P115 "2018-07-28" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:172 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
+    crm:P14_carried_out_by "貴船祭保存会" ;
+    crm:P67_refers_to &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-27" ;
+        crm:P115_finishes "2018-07-28" 
     ] .</v>
       </c>
     </row>
@@ -4798,15 +4798,15 @@
         <v>ifcp:176
     rdfs:label "日田祗園の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:176 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
-    crm:P14 "日田祗園山鉾振興会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-21" ;
-        crm:P115 "2018-07-22" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:176 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
+    crm:P14_carried_out_by "日田祗園山鉾振興会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-21" ;
+        crm:P115_finishes "2018-07-22" 
     ] .</v>
       </c>
     </row>
@@ -4856,15 +4856,15 @@
         <v>ifcp:178
     rdfs:label "土崎神明社祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:178 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
-    crm:P14 "土崎神明社奉賛会" ;
-    crm:P67 &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-20" ;
-        crm:P115 "2018-07-21" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:178 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
+    crm:P14_carried_out_by "土崎神明社奉賛会" ;
+    crm:P67_refers_to &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-20" ;
+        crm:P115_finishes "2018-07-21" 
     ] .</v>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
         <v>285</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N34" s="25">
         <v>2</v>
@@ -4914,15 +4914,15 @@
         <v>ifcp:180
     rdfs:label "魚津のタテモン行事"@ja .
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:180 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
-    crm:P14 "魚津たてもん保存会" ;
-    crm:P67 &lt;http://tatemon-uozu.com/pg155.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-05" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:180 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
+    crm:P14_carried_out_by "魚津たてもん保存会" ;
+    crm:P67_refers_to &lt;http://tatemon-uozu.com/pg155.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-04" ;
+        crm:P115_finishes "2018-08-05" 
     ] .</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
         <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N35" s="22">
         <v>2</v>
@@ -4972,15 +4972,15 @@
         <v>ifcp:182
     rdfs:label "鳥出神社の鯨船行事"@ja .
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:182 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
-    crm:P14 "富田鯨船保存会連合会" ;
-    crm:P67 &lt;https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-14" ;
-        crm:P115 "2018-08-15" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:182 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
+    crm:P14_carried_out_by "富田鯨船保存会連合会" ;
+    crm:P67_refers_to &lt;https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-14" ;
+        crm:P115_finishes "2018-08-15" 
     ] .</v>
       </c>
     </row>
@@ -5030,15 +5030,15 @@
         <v>ifcp:187
     rdfs:label "塩屋湾のウンガミ"@ja .
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:187 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
-    crm:P14 "田港区、屋古区、塩屋区、白浜区" ;
-    crm:P67 &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-04" ;
-        crm:P115 "2018-09-04" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:187 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
+    crm:P14_carried_out_by "田港区、屋古区、塩屋区、白浜区" ;
+    crm:P67_refers_to &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-04" ;
+        crm:P115_finishes "2018-09-04" 
     ] .</v>
       </c>
     </row>
@@ -5088,15 +5088,15 @@
         <v>ifcp:192
     rdfs:label "等覚寺の松会"@ja .
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:192 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
-    crm:P14 "等覚寺松会保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-15" ;
-        crm:P115 "2018-04-15" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:192 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
+    crm:P14_carried_out_by "等覚寺松会保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-15" ;
+        crm:P115_finishes "2018-04-15" 
     ] .</v>
       </c>
     </row>
@@ -5137,15 +5137,15 @@
         <v>ifcp:197
     rdfs:label "山北のボタモチ祭り"@ja .
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:197 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
-    crm:P14 "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:197 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
+    crm:P14_carried_out_by "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "" ;
+        crm:P115_finishes "" 
     ] .</v>
       </c>
     </row>
@@ -5195,15 +5195,15 @@
         <v>ifcp:198
     rdfs:label "滑川のネブタ流し"@ja .
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:198 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
-    crm:P14 "中川原、常盤町一区・二区・三区" ;
-    crm:P67 &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-31" ;
-        crm:P115 "2018-07-31" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:198 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
+    crm:P14_carried_out_by "中川原、常盤町一区・二区・三区" ;
+    crm:P67_refers_to &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-31" ;
+        crm:P115_finishes "2018-07-31" 
     ] .</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
         <v>266</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N40" s="25">
         <v>2</v>
@@ -5253,15 +5253,15 @@
         <v>ifcp:199
     rdfs:label "大江八幡神社の御船行事"@ja .
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:199 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
-    crm:P14 "大江氏子会" ;
-    crm:P67 &lt;https://art-fuji.info/event/3066.html/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-16" ;
-        crm:P115 "2018-09-16" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:199 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
+    crm:P14_carried_out_by "大江氏子会" ;
+    crm:P67_refers_to &lt;https://art-fuji.info/event/3066.html/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-16" ;
+        crm:P115_finishes "2018-09-16" 
     ] .</v>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
         <v>224</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N41" s="25">
         <v>4</v>
@@ -5311,15 +5311,15 @@
         <v>ifcp:201
     rdfs:label "河内祭の御舟行事"@ja .
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:201 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
-    crm:P14 "古座川河内祭保存会、古座獅子舞保存会" ;
-    crm:P67 &lt;http://nukisaki-akagi.seesaa.net/article/461088227.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-21" ;
-        crm:P115 "2018-07-22" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:201 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
+    crm:P14_carried_out_by "古座川河内祭保存会、古座獅子舞保存会" ;
+    crm:P67_refers_to &lt;http://nukisaki-akagi.seesaa.net/article/461088227.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-21" ;
+        crm:P115_finishes "2018-07-22" 
     ] .</v>
       </c>
     </row>
@@ -5369,15 +5369,15 @@
         <v>ifcp:205
     rdfs:label "片品の猿追い祭"@ja .
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:205 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
-    crm:P14 "猿追い祭保存会" ;
-    crm:P67 &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-31" ;
-        crm:P115 "2018-10-31" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:205 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
+    crm:P14_carried_out_by "猿追い祭保存会" ;
+    crm:P67_refers_to &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-31" ;
+        crm:P115_finishes "2018-10-31" 
     ] .</v>
       </c>
     </row>
@@ -5427,15 +5427,15 @@
         <v>ifcp:206
     rdfs:label "気多の鵜祭の習俗"@ja .
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:206 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
-    crm:P14 "気多大社、鵜浦町会" ;
-    crm:P67 &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-12-16" ;
-        crm:P115 "2018-12-16" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:206 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
+    crm:P14_carried_out_by "気多大社、鵜浦町会" ;
+    crm:P67_refers_to &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-12-16" ;
+        crm:P115_finishes "2018-12-16" 
     ] .</v>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
         <v>266</v>
       </c>
       <c r="M44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N44" s="22">
         <v>2</v>
@@ -5485,15 +5485,15 @@
         <v>ifcp:208
     rdfs:label "見付天神裸祭"@ja .
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:208 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
-    crm:P14 "見付天神裸祭保存会" ;
-    crm:P67 &lt;https://kanko-iwata.jp/2018/09/post-6059/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-15" ;
-        crm:P115 "2018-09-16" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:208 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
+    crm:P14_carried_out_by "見付天神裸祭保存会" ;
+    crm:P67_refers_to &lt;https://kanko-iwata.jp/2018/09/post-6059/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-15" ;
+        crm:P115_finishes "2018-09-16" 
     ] .</v>
       </c>
     </row>
@@ -5543,15 +5543,15 @@
         <v>ifcp:215
     rdfs:label "城端神明宮祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:215 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
-    crm:P14 "城端曳山祭保存会" ;
-    crm:P67 &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
-    crm:P4 [
-        crm:P116 "2018-05-05" ;
-        crm:P115 "2018-05-05" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:215 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
+    crm:P14_carried_out_by "城端曳山祭保存会" ;
+    crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-05-05" ;
+        crm:P115_finishes "2018-05-05" 
     ] .</v>
       </c>
     </row>
@@ -5601,15 +5601,15 @@
         <v>ifcp:216
     rdfs:label "上野天神祭のダンジリ行事"@ja .
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:216 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
-    crm:P14 "上野文化美術保存会" ;
-    crm:P67 &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-19" ;
-        crm:P115 "2018-10-21" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:216 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
+    crm:P14_carried_out_by "上野文化美術保存会" ;
+    crm:P67_refers_to &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-19" ;
+        crm:P115_finishes "2018-10-21" 
     ] .</v>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
         <v>362</v>
       </c>
       <c r="I47" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J47" t="s">
         <v>149</v>
@@ -5659,15 +5659,15 @@
         <v>ifcp:219
     rdfs:label "鹿沼今宮神社祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:219 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
-    crm:P14 "鹿沼いまみや付け祭り保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-06" ;
-        crm:P115 "2018-10-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:219 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
+    crm:P14_carried_out_by "鹿沼いまみや付け祭り保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-06" ;
+        crm:P115_finishes "2018-10-07" 
     ] .</v>
       </c>
     </row>
@@ -5717,15 +5717,15 @@
         <v>ifcp:220
     rdfs:label "八戸三社大祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:220 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
-    crm:P14 "八戸三社大祭山車祭り行事保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-31" ;
-        crm:P115 "2018-08-04" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:220 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
+    crm:P14_carried_out_by "八戸三社大祭山車祭り行事保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-31" ;
+        crm:P115_finishes "2018-08-04" 
     ] .</v>
       </c>
     </row>
@@ -5759,13 +5759,13 @@
         <v>151</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>297</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N49" s="25">
         <v>2</v>
@@ -5775,15 +5775,15 @@
         <v>ifcp:226
     rdfs:label "佐原の山車行事"@ja .
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:226 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
-    crm:P14 "佐原山車行事伝承保存会" ;
-    crm:P67 &lt;http://suigosanto.com/news/webdir/2.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-12" ;
-        crm:P115 "2018-10-14" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:226 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
+    crm:P14_carried_out_by "佐原山車行事伝承保存会" ;
+    crm:P67_refers_to &lt;http://suigosanto.com/news/webdir/2.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-12" ;
+        crm:P115_finishes "2018-10-14" 
     ] .</v>
       </c>
     </row>
@@ -5833,15 +5833,15 @@
         <v>ifcp:231
     rdfs:label "川越氷川祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:231 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
-    crm:P14 "川越氷川祭の山車行事保存会" ;
-    crm:P67 &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-20" ;
-        crm:P115 "2018-10-21" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:231 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
+    crm:P14_carried_out_by "川越氷川祭の山車行事保存会" ;
+    crm:P67_refers_to &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-20" ;
+        crm:P115_finishes "2018-10-21" 
     ] .</v>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
         <v>366</v>
       </c>
       <c r="I51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J51" t="s">
         <v>153</v>
@@ -5891,15 +5891,15 @@
         <v>ifcp:232
     rdfs:label "茂名の里芋祭"@ja .
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:232 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
-    crm:P14 "茂名区" ;
-    crm:P67 &lt;http://nihonguide.net/maturi/1208.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-20" ;
-        crm:P115 "2018-02-20" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:232 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
+    crm:P14_carried_out_by "茂名区" ;
+    crm:P67_refers_to &lt;http://nihonguide.net/maturi/1208.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-20" ;
+        crm:P115_finishes "2018-02-20" 
     ] .</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
         <v>367</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J52" t="s">
         <v>154</v>
@@ -5949,15 +5949,15 @@
         <v>ifcp:234
     rdfs:label "三上のずいき祭"@ja .
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:234 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
-    crm:P14 "ずいき祭保存会" ;
-    crm:P67 &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-08" ;
-        crm:P115 "2018-10-08" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:234 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
+    crm:P14_carried_out_by "ずいき祭保存会" ;
+    crm:P67_refers_to &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-08" ;
+        crm:P115_finishes "2018-10-08" 
     ] .</v>
       </c>
     </row>
@@ -6007,15 +6007,15 @@
         <v>ifcp:243
     rdfs:label "犬山祭の車山行事"@ja .
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:243 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
-    crm:P14 "犬山祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-04-07" ;
-        crm:P115 "2018-04-08" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:243 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
+    crm:P14_carried_out_by "犬山祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-04-07" ;
+        crm:P115_finishes "2018-04-08" 
     ] .</v>
       </c>
     </row>
@@ -6065,15 +6065,15 @@
         <v>ifcp:244
     rdfs:label "亀崎潮干祭の山車行事"@ja .
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:244 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
-    crm:P14 "亀崎潮干祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-05-03" ;
-        crm:P115 "2018-05-04" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:244 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
+    crm:P14_carried_out_by "亀崎潮干祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-05-03" ;
+        crm:P115_finishes "2018-05-04" 
     ] .</v>
       </c>
     </row>
@@ -6123,15 +6123,15 @@
         <v>ifcp:249
     rdfs:label "桑名石取祭の祭車行事"@ja .
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:249 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
-    crm:P14 "桑名石取祭保存会" ;
-    crm:P67 &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-05" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:249 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
+    crm:P14_carried_out_by "桑名石取祭保存会" ;
+    crm:P67_refers_to &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-04" ;
+        crm:P115_finishes "2018-08-05" 
     ] .</v>
       </c>
     </row>
@@ -6181,15 +6181,15 @@
         <v>ifcp:259
     rdfs:label "新庄まつりの山車行事"@ja .
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:259 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
-    crm:P14 "新庄まつり山車行事保存会" ;
-    crm:P67 &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-24" ;
-        crm:P115 "2018-08-26" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:259 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
+    crm:P14_carried_out_by "新庄まつり山車行事保存会" ;
+    crm:P67_refers_to &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-24" ;
+        crm:P115_finishes "2018-08-26" 
     ] .</v>
       </c>
     </row>
@@ -6230,15 +6230,15 @@
         <v>ifcp:270
     rdfs:label "小菅の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:270 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
-    crm:P14 "小菅柱松保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:270 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
+    crm:P14_carried_out_by "小菅柱松保存会" ;
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "" ;
+        crm:P115_finishes "" 
     ] .</v>
       </c>
     </row>
@@ -6288,15 +6288,15 @@
         <v>ifcp:272
     rdfs:label "八代妙見祭の神幸行事"@ja .
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:272 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
-    crm:P14 "八代妙見祭保存振興会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-11-22" ;
-        crm:P115 "2018-11-23" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:272 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
+    crm:P14_carried_out_by "八代妙見祭保存振興会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-11-22" ;
+        crm:P115_finishes "2018-11-23" 
     ] .</v>
       </c>
     </row>
@@ -6346,15 +6346,15 @@
         <v>ifcp:273
     rdfs:label "吉田の火祭"@ja .
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:273 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
-    crm:P14 "吉田の火祭保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-26" ;
-        crm:P115 "2018-08-26" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:273 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
+    crm:P14_carried_out_by "吉田の火祭保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-26" ;
+        crm:P115_finishes "2018-08-26" 
     ] .</v>
       </c>
     </row>
@@ -6404,15 +6404,15 @@
         <v>ifcp:275
     rdfs:label "須成祭の車楽船行事と神葭流し"@ja .
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:275 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
-    crm:P14 "須成文化財保護委員会" ;
-    crm:P67 &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-04" ;
-        crm:P115 "2018-08-05" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:275 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
+    crm:P14_carried_out_by "須成文化財保護委員会" ;
+    crm:P67_refers_to &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-04" ;
+        crm:P115_finishes "2018-08-05" 
     ] .</v>
       </c>
     </row>
@@ -6462,15 +6462,15 @@
         <v>ifcp:276
     rdfs:label "坂越の船祭"@ja .
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:276 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
-    crm:P14 "坂越の船渡御祭保存会" ;
-    crm:P67 &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-13" ;
-        crm:P115 "2018-10-14" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:276 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
+    crm:P14_carried_out_by "坂越の船渡御祭保存会" ;
+    crm:P67_refers_to &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-13" ;
+        crm:P115_finishes "2018-10-14" 
     ] .</v>
       </c>
     </row>
@@ -6520,15 +6520,15 @@
         <v>ifcp:282
     rdfs:label "花輪祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:282 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
-    crm:P14 "花輪ばやし祭典委員会" ;
-    crm:P67 &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-19" ;
-        crm:P115 "2018-08-20" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:282 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
+    crm:P14_carried_out_by "花輪ばやし祭典委員会" ;
+    crm:P67_refers_to &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-19" ;
+        crm:P115_finishes "2018-08-20" 
     ] .</v>
       </c>
     </row>
@@ -6578,15 +6578,15 @@
         <v>ifcp:283
     rdfs:label "松例祭の大松明行事"@ja .
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:283 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
-    crm:P14 "松例祭保存会" ;
-    crm:P67 &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-12-31" ;
-        crm:P115 "2019-01-01" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:283 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
+    crm:P14_carried_out_by "松例祭保存会" ;
+    crm:P67_refers_to &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-12-31" ;
+        crm:P115_finishes "2019-01-01" 
     ] .</v>
       </c>
     </row>
@@ -6636,15 +6636,15 @@
         <v>ifcp:288
     rdfs:label "大垣祭の軕行事"@ja .
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:288 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
-    crm:P14 "大垣祭保存会" ;
-    crm:P67 &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-05-12" ;
-        crm:P115 "2018-05-13" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:288 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
+    crm:P14_carried_out_by "大垣祭保存会" ;
+    crm:P67_refers_to &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-05-12" ;
+        crm:P115_finishes "2018-05-13" 
     ] .</v>
       </c>
     </row>
@@ -6694,15 +6694,15 @@
         <v>ifcp:290
     rdfs:label "那智の扇祭り"@ja .
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:290 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
-    crm:P14 "那智の扇祭り保存会" ;
-    crm:P67 &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-14" ;
-        crm:P115 "2018-07-14" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:290 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
+    crm:P14_carried_out_by "那智の扇祭り保存会" ;
+    crm:P67_refers_to &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-14" ;
+        crm:P115_finishes "2018-07-14" 
     ] .</v>
       </c>
     </row>
@@ -6752,15 +6752,15 @@
         <v>ifcp:291
     rdfs:label "大津祭の曳山行事"@ja .
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:291 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
-    crm:P14 "大津祭保存会" ;
-    crm:P67 &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-06" ;
-        crm:P115 "2018-10-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:291 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
+    crm:P14_carried_out_by "大津祭保存会" ;
+    crm:P67_refers_to &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-06" ;
+        crm:P115_finishes "2018-10-07" 
     ] .</v>
       </c>
     </row>
@@ -6794,13 +6794,13 @@
         <v>169</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N67" s="25">
         <v>2</v>
@@ -6809,28 +6809,28 @@
         <f t="shared" ref="O67:O71" si="1">"ifcp:"&amp;A67&amp;"
     rdfs:label """&amp;E67&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D67&amp;" ;
-    crm:P17 ifcp:"&amp;A67&amp;" ;
-    crm:P7 &lt;"&amp;I67&amp;"&gt; ;
-    crm:P14 """&amp;J67&amp;""" ;
-    crm:P67 &lt;"&amp;M67&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K67&amp;""" ;
-        crm:P115 """&amp;L67&amp;""" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A67&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I67&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J67&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M67&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K67&amp;""" ;
+        crm:P115_finishes """&amp;L67&amp;""" 
     ] ."</f>
         <v>ifcp:292
     rdfs:label "新宮の速玉祭・御燈祭り"@ja .
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:292 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
-    crm:P14 "熊野速玉大社祭事保存会" ;
-    crm:P67 &lt;http://kumanohayatama.jp/?page_id=8&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-06" ;
-        crm:P115 "2018-02-06" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:292 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
+    crm:P14_carried_out_by "熊野速玉大社祭事保存会" ;
+    crm:P67_refers_to &lt;http://kumanohayatama.jp/?page_id=8&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-06" ;
+        crm:P115_finishes "2018-02-06" 
     ] .</v>
       </c>
     </row>
@@ -6880,15 +6880,15 @@
         <v>ifcp:293
     rdfs:label "西大寺の会陽"@ja .
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:293 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
-    crm:P14 "西大寺会陽保存会" ;
-    crm:P67 &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-17" ;
-        crm:P115 "2018-02-17" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:293 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
+    crm:P14_carried_out_by "西大寺会陽保存会" ;
+    crm:P67_refers_to &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-17" ;
+        crm:P115_finishes "2018-02-17" 
     ] .</v>
       </c>
     </row>
@@ -6933,15 +6933,15 @@
         <v>ifcp:295
     rdfs:label "常陸大津の御船祭"@ja .
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:295 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
-    crm:P14 "常陸大津の御船祭保存会" ;
-    crm:P67 &lt;&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:295 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
+    crm:P14_carried_out_by "常陸大津の御船祭保存会" ;
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
     ] .</v>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
         <v>313</v>
       </c>
       <c r="M70" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N70" s="22">
         <v>4</v>
@@ -6991,15 +6991,15 @@
         <v>ifcp:301
     rdfs:label "浦佐毘沙門堂の裸押合"@ja .
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:301 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
-    crm:P14 "浦佐毘沙門堂裸押合大祭委員会" ;
-    crm:P67 &lt;http://www.tsumugi-kan.jp/season/dtl.html?id=23&gt; ;
-    crm:P4 [
-        crm:P116 "2018-03-03" ;
-        crm:P115 "2018-03-03" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:301 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
+    crm:P14_carried_out_by "浦佐毘沙門堂裸押合大祭委員会" ;
+    crm:P67_refers_to &lt;http://www.tsumugi-kan.jp/season/dtl.html?id=23&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-03-03" ;
+        crm:P115_finishes "2018-03-03" 
     ] .</v>
       </c>
     </row>
@@ -7049,15 +7049,15 @@
         <v>ifcp:302
     rdfs:label "村上祭の屋台行事"@ja .
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:302 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
-    crm:P14 "村上まつり保存会" ;
-    crm:P67 &lt;https://www.niikei.jp/19106/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-07-06" ;
-        crm:P115 "2018-07-07" 
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:302 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
+    crm:P14_carried_out_by "村上まつり保存会" ;
+    crm:P67_refers_to &lt;https://www.niikei.jp/19106/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-07-06" ;
+        crm:P115_finishes "2018-07-07" 
     ] .</v>
       </c>
     </row>

--- a/list_p6_event_2018.xlsx
+++ b/list_p6_event_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2CBF9-D3E1-B840-BC8C-9D8386F406F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F856F60F-375A-9241-9128-08AFE29B3C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2930,7 +2930,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -3033,11 +3033,12 @@
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J2&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K2&amp;""" ;
         crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
@@ -3046,11 +3047,12 @@
 &lt;https://w3id.org/ifcp/33/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:33 ;
+    crm:P21_had_general_purpose ifcp:33 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08202-20041101&gt; ;
     crm:P14_carried_out_by "日立郷土芸能保存会" ;
     crm:P67_refers_to &lt;http://www.kankou-hitachi.jp/page/page000060.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-07" ;
         crm:P115_finishes "2018-04-08" 
     ] .</v>
@@ -3103,11 +3105,12 @@
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J3&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K3&amp;""" ;
         crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
@@ -3116,11 +3119,12 @@
 &lt;https://w3id.org/ifcp/63/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:63 ;
+    crm:P21_had_general_purpose ifcp:63 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09215-20120801&gt; ;
     crm:P14_carried_out_by "烏山山あげ保存会" ;
     crm:P67_refers_to &lt;https://www.shimotsuke.co.jp/articles/-/54273&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-26" ;
         crm:P115_finishes "2018-07-29" 
     ] .</v>
@@ -3174,11 +3178,12 @@
 &lt;https://w3id.org/ifcp/64/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:64 ;
+    crm:P21_had_general_purpose ifcp:64 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11207-20050401&gt; ;
     crm:P14_carried_out_by "秩父祭保存委員会" ;
     crm:P67_refers_to &lt;https://www.saitama-np.co.jp/news/2018/12/04/04_.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-12-03" ;
         crm:P115_finishes "2018-12-03" 
     ] .</v>
@@ -3232,11 +3237,12 @@
 &lt;https://w3id.org/ifcp/66/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:66 ;
+    crm:P21_had_general_purpose ifcp:66 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16202-20051101&gt; ;
     crm:P14_carried_out_by "高岡御車山保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL514GM8L51PUZB007.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-05-01" ;
         crm:P115_finishes "2018-05-01" 
     ] .</v>
@@ -3292,11 +3298,12 @@
 &lt;https://w3id.org/ifcp/69/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P21_had_general_purpose ifcp:69 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67_refers_to &lt;http://www.news24.jp/articles/2018/04/14/07390524.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-14" ;
         crm:P115_finishes "2018-04-15" 
     ] .</v>
@@ -3352,11 +3359,12 @@
 &lt;https://w3id.org/ifcp/69/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:69 ;
+    crm:P21_had_general_purpose ifcp:69 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21203-20050201&gt; ;
     crm:P14_carried_out_by "日枝神社氏子山王祭保存会，八幡宮氏子八幡祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLB902HJLB8OHGB118.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-09" ;
         crm:P115_finishes "2018-10-10" 
     ] .</v>
@@ -3410,11 +3418,12 @@
 &lt;https://w3id.org/ifcp/71/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:71 ;
+    crm:P21_had_general_purpose ifcp:71 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25203-20100101&gt; ;
     crm:P14_carried_out_by "（公益財団法人）長浜曳山文化協会" ;
     crm:P67_refers_to &lt;https://www.gaido.jp/clickalbum/41126.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-13" ;
         crm:P115_finishes "2018-04-16" 
     ] .</v>
@@ -3466,11 +3475,12 @@
 &lt;https://w3id.org/ifcp/72/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:72 ;
+    crm:P21_had_general_purpose ifcp:72 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26100-20041220&gt; ;
     crm:P14_carried_out_by "公益財団法人祇園祭山鉾連合会" ;
     crm:P67_refers_to &lt;https://kyoto-design.jp/event/35063&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-01" ;
         crm:P115_finishes "2018-07-31" 
     ] .</v>
@@ -3524,11 +3534,12 @@
 &lt;https://w3id.org/ifcp/79/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:79 ;
+    crm:P21_had_general_purpose ifcp:79 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40132-19720401&gt; ;
     crm:P14_carried_out_by "博多祇園山笠振興会" ;
     crm:P67_refers_to &lt;https://www.hakatayamakasa.com/75640.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-01" ;
         crm:P115_finishes "2018-07-15" 
     ] .</v>
@@ -3582,11 +3593,12 @@
 &lt;https://w3id.org/ifcp/81/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:81 ;
+    crm:P21_had_general_purpose ifcp:81 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02201-20070901&gt; ;
     crm:P14_carried_out_by "青森ねぶた祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL874S06L87UBNB003.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-02" ;
         crm:P115_finishes "2018-08-07" 
     ] .</v>
@@ -3640,11 +3652,12 @@
 &lt;https://w3id.org/ifcp/82/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:82 ;
+    crm:P21_had_general_purpose ifcp:82 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14_carried_out_by "弘前ねぷた保存会" ;
     crm:P67_refers_to &lt;https://blog.tugarujikukan.info/archives/hirosaki-neputa&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-01" ;
         crm:P115_finishes "2018-08-07" 
     ] .</v>
@@ -3698,11 +3711,12 @@
 &lt;https://w3id.org/ifcp/84/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:84 ;
+    crm:P21_had_general_purpose ifcp:84 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14_carried_out_by "秋田市竿灯会" ;
     crm:P67_refers_to &lt;http://www.kantou.gr.jp/reflect/2018.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-04" ;
         crm:P115_finishes "2018-08-06" 
     ] .</v>
@@ -3756,11 +3770,12 @@
 &lt;https://w3id.org/ifcp/85/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:85 ;
+    crm:P21_had_general_purpose ifcp:85 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07201-20080701&gt; ;
     crm:P14_carried_out_by "羽山ごもり保存会" ;
     crm:P67_refers_to &lt;https://fukuori.com/kitemina/event/124/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-02" ;
         crm:P115_finishes "2018-01-04" 
     ] .</v>
@@ -3814,11 +3829,12 @@
 &lt;https://w3id.org/ifcp/90/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:90 ;
+    crm:P21_had_general_purpose ifcp:90 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21217-20040201&gt; ;
     crm:P14_carried_out_by "古川祭保存会" ;
     crm:P67_refers_to &lt;https://www.hida-kankou.jp/event/1313/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-19" ;
         crm:P115_finishes "2018-04-20" 
     ] .</v>
@@ -3872,11 +3888,12 @@
 &lt;https://w3id.org/ifcp/91/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:91 ;
+    crm:P21_had_general_purpose ifcp:91 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23208-19900401&gt; ;
     crm:P14_carried_out_by "尾張津島天王祭協賛会" ;
     crm:P67_refers_to &lt;http://tsushima-cci.or.jp/info/台風１２号の影響による尾張津島天王祭のイベン/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "中止" ;
         crm:P115_finishes "中止" 
     ] .</v>
@@ -3930,11 +3947,12 @@
 &lt;https://w3id.org/ifcp/92/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:92 ;
+    crm:P21_had_general_purpose ifcp:92 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23201-19990401&gt; ;
     crm:P14_carried_out_by "豊橋鬼祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL2B3JL4L2BOBJB001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-10" ;
         crm:P115_finishes "2018-02-11" 
     ] .</v>
@@ -3988,11 +4006,12 @@
 &lt;https://w3id.org/ifcp/95/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:95 ;
+    crm:P21_had_general_purpose ifcp:95 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40100-20081001&gt; ;
     crm:P14_carried_out_by "戸畑祇園大山笠振興会" ;
     crm:P67_refers_to &lt;https://www.kitakyushu-museum.jp/resources/3531&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-27" ;
         crm:P115_finishes "2018-07-29" 
     ] .</v>
@@ -4046,11 +4065,12 @@
 &lt;https://w3id.org/ifcp/96/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:96 ;
+    crm:P21_had_general_purpose ifcp:96 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41202-20060101&gt; ;
     crm:P14_carried_out_by "唐津曳山取締会" ;
     crm:P67_refers_to &lt;https://www.saga-s.co.jp/subcategory/唐津くんち?page=3&amp;name=唐津くんち&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-11-02" ;
         crm:P115_finishes "2018-11-04" 
     ] .</v>
@@ -4104,11 +4124,12 @@
 &lt;https://w3id.org/ifcp/100/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:100 ;
+    crm:P21_had_general_purpose ifcp:100 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07368-20060320&gt; ;
     crm:P14_carried_out_by "田島祇園祭のおとうや行事保存会" ;
     crm:P67_refers_to &lt;https://www.kanko-aizu.com/information/23745/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-22" ;
         crm:P115_finishes "2018-07-24" 
     ] .</v>
@@ -4162,11 +4183,12 @@
 &lt;https://w3id.org/ifcp/102/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:102 ;
+    crm:P21_had_general_purpose ifcp:102 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17202-20090901&gt; ;
     crm:P14_carried_out_by "お熊甲祭奉賛会" ;
     crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000016350&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-20" ;
         crm:P115_finishes "2018-09-20" 
     ] .</v>
@@ -4220,11 +4242,12 @@
 &lt;https://w3id.org/ifcp/114/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:114 ;
+    crm:P21_had_general_purpose ifcp:114 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172020010&gt; ;
     crm:P14_carried_out_by "青柏祭でか山保存会" ;
     crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014569&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-05-03" ;
         crm:P115_finishes "2018-05-05" 
     ] .</v>
@@ -4278,11 +4301,12 @@
 &lt;https://w3id.org/ifcp/120/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:120 ;
+    crm:P21_had_general_purpose ifcp:120 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02202-20060227&gt; ;
     crm:P14_carried_out_by "お山参詣保存会" ;
     crm:P67_refers_to &lt;http://www.mutusinpou.co.jp/news/2018/09/52599.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-08" ;
         crm:P115_finishes "2018-09-10" 
     ] .</v>
@@ -4336,11 +4360,12 @@
 &lt;https://w3id.org/ifcp/122/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:122 ;
+    crm:P21_had_general_purpose ifcp:122 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03209-20170904&gt; ;
     crm:P14_carried_out_by "室根神社祭保存会" ;
     crm:P67_refers_to &lt;https://www.iwaken.or.jp/info/2018/10/29_1855.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-26" ;
         crm:P115_finishes "2018-10-28" 
     ] .</v>
@@ -4394,11 +4419,12 @@
 &lt;https://w3id.org/ifcp/126/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:126 ;
+    crm:P21_had_general_purpose ifcp:126 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05211-20050322&gt; ;
     crm:P14_carried_out_by "東湖八坂神社崇敬会、船越町内連合会" ;
     crm:P67_refers_to &lt;http://www.city.oga.akita.jp/index.cfm/14,1397,52,141,html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-07" ;
         crm:P115_finishes "2018-07-07" 
     ] .</v>
@@ -4452,11 +4478,12 @@
 &lt;https://w3id.org/ifcp/129/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:129 ;
+    crm:P21_had_general_purpose ifcp:129 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C26214-20070312&gt; ;
     crm:P14_carried_out_by "涌出宮宮座行事保存会" ;
     crm:P67_refers_to &lt;http://nihonguide.net/maturi/26131.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-17" ;
         crm:P115_finishes "2018-02-18" 
     ] .</v>
@@ -4510,11 +4537,12 @@
 &lt;https://w3id.org/ifcp/149/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:149 ;
+    crm:P21_had_general_purpose ifcp:149 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052150130&gt; ;
     crm:P14_carried_out_by "角館のお祭り保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL956SVGL95UBUB010.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-07" ;
         crm:P115_finishes "2018-09-10" 
     ] .</v>
@@ -4568,11 +4596,12 @@
 &lt;https://w3id.org/ifcp/150/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:150 ;
+    crm:P21_had_general_purpose ifcp:150 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25383-19700401&gt; ;
     crm:P14_carried_out_by "芋くらべ祭保存会" ;
     crm:P67_refers_to &lt;http://nihonguide.net/maturi/2586.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-02" ;
         crm:P115_finishes "2018-09-02" 
     ] .</v>
@@ -4626,11 +4655,12 @@
 &lt;https://w3id.org/ifcp/153/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:153 ;
+    crm:P21_had_general_purpose ifcp:153 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12466-20060320&gt; ;
     crm:P14_carried_out_by "白間津区" ;
     crm:P67_refers_to &lt;http://bosotown.com/archives/2319&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -4684,11 +4714,12 @@
 &lt;https://w3id.org/ifcp/171/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:171 ;
+    crm:P21_had_general_purpose ifcp:171 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C09205-20120801&gt; ;
     crm:P14_carried_out_by "発光路妙見神社青年部" ;
     crm:P67_refers_to &lt;https://www.shimotsuke.co.jp/articles/-/11035&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-03" ;
         crm:P115_finishes "2018-01-03" 
     ] .</v>
@@ -4742,11 +4773,12 @@
 &lt;https://w3id.org/ifcp/172/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:172 ;
+    crm:P21_had_general_purpose ifcp:172 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14383-19700401&gt; ;
     crm:P14_carried_out_by "貴船祭保存会" ;
     crm:P67_refers_to &lt;https://www.kanaloco.jp/article/entry-33868.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-27" ;
         crm:P115_finishes "2018-07-28" 
     ] .</v>
@@ -4800,11 +4832,12 @@
 &lt;https://w3id.org/ifcp/176/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:176 ;
+    crm:P21_had_general_purpose ifcp:176 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C44204-20050322&gt; ;
     crm:P14_carried_out_by "日田祗園山鉾振興会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL7P4JH5L7PTPJB00S.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-21" ;
         crm:P115_finishes "2018-07-22" 
     ] .</v>
@@ -4858,11 +4891,12 @@
 &lt;https://w3id.org/ifcp/178/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:178 ;
+    crm:P21_had_general_purpose ifcp:178 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05201-20050111&gt; ;
     crm:P14_carried_out_by "土崎神明社奉賛会" ;
     crm:P67_refers_to &lt;http://akitafes.com/2018/09/29/土崎神明社祭の曳山行事2018/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-20" ;
         crm:P115_finishes "2018-07-21" 
     ] .</v>
@@ -4916,11 +4950,12 @@
 &lt;https://w3id.org/ifcp/180/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:180 ;
+    crm:P21_had_general_purpose ifcp:180 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16204-19890601&gt; ;
     crm:P14_carried_out_by "魚津たてもん保存会" ;
     crm:P67_refers_to &lt;http://tatemon-uozu.com/pg155.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-04" ;
         crm:P115_finishes "2018-08-05" 
     ] .</v>
@@ -4974,11 +5009,12 @@
 &lt;https://w3id.org/ifcp/182/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:182 ;
+    crm:P21_had_general_purpose ifcp:182 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24202-20001101&gt; ;
     crm:P14_carried_out_by "富田鯨船保存会連合会" ;
     crm:P67_refers_to &lt;https://www.city.yokkaichi.mie.jp/kyouiku/kujirabune/index.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-14" ;
         crm:P115_finishes "2018-08-15" 
     ] .</v>
@@ -5032,11 +5068,12 @@
 &lt;https://w3id.org/ifcp/187/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:187 ;
+    crm:P21_had_general_purpose ifcp:187 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47302-19780601&gt; ;
     crm:P14_carried_out_by "田港区、屋古区、塩屋区、白浜区" ;
     crm:P67_refers_to &lt;https://ryukyushimpo.jp/style/article/entry-785935.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-04" ;
         crm:P115_finishes "2018-09-04" 
     ] .</v>
@@ -5090,11 +5127,12 @@
 &lt;https://w3id.org/ifcp/192/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:192 ;
+    crm:P21_had_general_purpose ifcp:192 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40621-19700401&gt; ;
     crm:P14_carried_out_by "等覚寺松会保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL4H3RG7L4HTLLS001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-15" ;
         crm:P115_finishes "2018-04-15" 
     ] .</v>
@@ -5139,11 +5177,12 @@
 &lt;https://w3id.org/ifcp/197/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:197 ;
+    crm:P21_had_general_purpose ifcp:197 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20080401&gt; ;
     crm:P14_carried_out_by "中浜ボタモチ祭保存会、杉平ボタモチ祭保存会、岩石ボタモチ保存会" ;
     crm:P67_refers_to &lt;&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "" ;
         crm:P115_finishes "" 
     ] .</v>
@@ -5197,11 +5236,12 @@
 &lt;https://w3id.org/ifcp/198/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:198 ;
+    crm:P21_had_general_purpose ifcp:198 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16206-19910325&gt; ;
     crm:P14_carried_out_by "中川原、常盤町一区・二区・三区" ;
     crm:P67_refers_to &lt;https://71757238.at.webry.info/201808/article_1.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-31" ;
         crm:P115_finishes "2018-07-31" 
     ] .</v>
@@ -5255,11 +5295,12 @@
 &lt;https://w3id.org/ifcp/199/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:199 ;
+    crm:P21_had_general_purpose ifcp:199 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22226-20051011&gt; ;
     crm:P14_carried_out_by "大江氏子会" ;
     crm:P67_refers_to &lt;https://art-fuji.info/event/3066.html/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-16" ;
         crm:P115_finishes "2018-09-16" 
     ] .</v>
@@ -5313,11 +5354,12 @@
 &lt;https://w3id.org/ifcp/201/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:201 ;
+    crm:P21_had_general_purpose ifcp:201 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30423-20050401&gt; ;
     crm:P14_carried_out_by "古座川河内祭保存会、古座獅子舞保存会" ;
     crm:P67_refers_to &lt;http://nukisaki-akagi.seesaa.net/article/461088227.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-21" ;
         crm:P115_finishes "2018-07-22" 
     ] .</v>
@@ -5371,11 +5413,12 @@
 &lt;https://w3id.org/ifcp/205/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:205 ;
+    crm:P21_had_general_purpose ifcp:205 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C10443-19700401&gt; ;
     crm:P14_carried_out_by "猿追い祭保存会" ;
     crm:P67_refers_to &lt;https://ameblo.jp/ozenosatokatashina08-09/entry-12416023651.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-31" ;
         crm:P115_finishes "2018-10-31" 
     ] .</v>
@@ -5429,11 +5472,12 @@
 &lt;https://w3id.org/ifcp/206/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:206 ;
+    crm:P21_had_general_purpose ifcp:206 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S172021060&gt; ;
     crm:P14_carried_out_by "気多大社、鵜浦町会" ;
     crm:P67_refers_to &lt;http://kanazawa-carfur.cocolog-nifty.com/blog/2018/12/1216-20181216-a.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-12-16" ;
         crm:P115_finishes "2018-12-16" 
     ] .</v>
@@ -5487,11 +5531,12 @@
 &lt;https://w3id.org/ifcp/208/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:208 ;
+    crm:P21_had_general_purpose ifcp:208 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C22211-20090217&gt; ;
     crm:P14_carried_out_by "見付天神裸祭保存会" ;
     crm:P67_refers_to &lt;https://kanko-iwata.jp/2018/09/post-6059/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-15" ;
         crm:P115_finishes "2018-09-16" 
     ] .</v>
@@ -5545,11 +5590,12 @@
 &lt;https://w3id.org/ifcp/215/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:215 ;
+    crm:P21_had_general_purpose ifcp:215 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C16210-20041101&gt; ;
     crm:P14_carried_out_by "城端曳山祭保存会" ;
     crm:P67_refers_to &lt;https://www.hokurikushinkansen-navi.jp/pc/news/article.php?id=NEWS0000014575&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-05-05" ;
         crm:P115_finishes "2018-05-05" 
     ] .</v>
@@ -5603,11 +5649,12 @@
 &lt;https://w3id.org/ifcp/216/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:216 ;
+    crm:P21_had_general_purpose ifcp:216 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24216-20041101&gt; ;
     crm:P14_carried_out_by "上野文化美術保存会" ;
     crm:P67_refers_to &lt;https://www.iga-younet.co.jp/2018/10/22/10060/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-19" ;
         crm:P115_finishes "2018-10-21" 
     ] .</v>
@@ -5661,11 +5708,12 @@
 &lt;https://w3id.org/ifcp/219/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:219 ;
+    crm:P21_had_general_purpose ifcp:219 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S092050100&gt; ;
     crm:P14_carried_out_by "鹿沼いまみや付け祭り保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLB65DMXLB6UUHB00F.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-06" ;
         crm:P115_finishes "2018-10-07" 
     ] .</v>
@@ -5719,11 +5767,12 @@
 &lt;https://w3id.org/ifcp/220/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:220 ;
+    crm:P21_had_general_purpose ifcp:220 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C02203-20170101&gt; ;
     crm:P14_carried_out_by "八戸三社大祭山車祭り行事保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL7Z44S5L7ZUBNB004.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-31" ;
         crm:P115_finishes "2018-08-04" 
     ] .</v>
@@ -5777,11 +5826,12 @@
 &lt;https://w3id.org/ifcp/226/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:226 ;
+    crm:P21_had_general_purpose ifcp:226 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C12236-20060327&gt; ;
     crm:P14_carried_out_by "佐原山車行事伝承保存会" ;
     crm:P67_refers_to &lt;http://suigosanto.com/news/webdir/2.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-12" ;
         crm:P115_finishes "2018-10-14" 
     ] .</v>
@@ -5835,11 +5885,12 @@
 &lt;https://w3id.org/ifcp/231/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:231 ;
+    crm:P21_had_general_purpose ifcp:231 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11201-20030401&gt; ;
     crm:P14_carried_out_by "川越氷川祭の山車行事保存会" ;
     crm:P67_refers_to &lt;https://nobutsunakai.com/2018-matsuri/200/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-20" ;
         crm:P115_finishes "2018-10-21" 
     ] .</v>
@@ -5893,11 +5944,12 @@
 &lt;https://w3id.org/ifcp/232/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:232 ;
+    crm:P21_had_general_purpose ifcp:232 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S122050440&gt; ;
     crm:P14_carried_out_by "茂名区" ;
     crm:P67_refers_to &lt;http://nihonguide.net/maturi/1208.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-20" ;
         crm:P115_finishes "2018-02-20" 
     ] .</v>
@@ -5951,11 +6003,12 @@
 &lt;https://w3id.org/ifcp/234/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:234 ;
+    crm:P21_had_general_purpose ifcp:234 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S252100330&gt; ;
     crm:P14_carried_out_by "ずいき祭保存会" ;
     crm:P67_refers_to &lt;https://biwako-wifi-info.jp/event/179?locale=ja&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-08" ;
         crm:P115_finishes "2018-10-08" 
     ] .</v>
@@ -6009,11 +6062,12 @@
 &lt;https://w3id.org/ifcp/243/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:243 ;
+    crm:P21_had_general_purpose ifcp:243 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23215-19830301&gt; ;
     crm:P14_carried_out_by "犬山祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL475CTWL47OBJB002.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-04-07" ;
         crm:P115_finishes "2018-04-08" 
     ] .</v>
@@ -6067,11 +6121,12 @@
 &lt;https://w3id.org/ifcp/244/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:244 ;
+    crm:P21_had_general_purpose ifcp:244 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23205-19950901&gt; ;
     crm:P14_carried_out_by "亀崎潮干祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL533TG6L53OBJB001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-05-03" ;
         crm:P115_finishes "2018-05-04" 
     ] .</v>
@@ -6125,11 +6180,12 @@
 &lt;https://w3id.org/ifcp/249/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:249 ;
+    crm:P21_had_general_purpose ifcp:249 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24205-20041206&gt; ;
     crm:P14_carried_out_by "桑名石取祭保存会" ;
     crm:P67_refers_to &lt;https://prtimes.jp/main/html/rd/p/000000141.000031071.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-04" ;
         crm:P115_finishes "2018-08-05" 
     ] .</v>
@@ -6183,11 +6239,12 @@
 &lt;https://w3id.org/ifcp/259/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:259 ;
+    crm:P21_had_general_purpose ifcp:259 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06205-20050218&gt; ;
     crm:P14_carried_out_by "新庄まつり山車行事保存会" ;
     crm:P67_refers_to &lt;http://shinjo-matsuri.jp/db/zuroku/year/heisei/2018&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-24" ;
         crm:P115_finishes "2018-08-26" 
     ] .</v>
@@ -6232,11 +6289,12 @@
 &lt;https://w3id.org/ifcp/270/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:270 ;
+    crm:P21_had_general_purpose ifcp:270 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20213-20000401&gt; ;
     crm:P14_carried_out_by "小菅柱松保存会" ;
     crm:P67_refers_to &lt;&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "" ;
         crm:P115_finishes "" 
     ] .</v>
@@ -6290,11 +6348,12 @@
 &lt;https://w3id.org/ifcp/272/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:272 ;
+    crm:P21_had_general_purpose ifcp:272 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C43202-20050801&gt; ;
     crm:P14_carried_out_by "八代妙見祭保存振興会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASLCR5SN8LCRTLVB00P.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-11-22" ;
         crm:P115_finishes "2018-11-23" 
     ] .</v>
@@ -6348,11 +6407,12 @@
 &lt;https://w3id.org/ifcp/273/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:273 ;
+    crm:P21_had_general_purpose ifcp:273 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C19202-19700401&gt; ;
     crm:P14_carried_out_by "吉田の火祭保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASL8V30X8L8VUZOB001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-26" ;
         crm:P115_finishes "2018-08-26" 
     ] .</v>
@@ -6406,11 +6466,12 @@
 &lt;https://w3id.org/ifcp/275/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:275 ;
+    crm:P21_had_general_purpose ifcp:275 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23425-19960701&gt; ;
     crm:P14_carried_out_by "須成文化財保護委員会" ;
     crm:P67_refers_to &lt;https://humizuki.com/omaturi_zanmai/sight/photo/sunari/sunari2018/sunari2018.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-04" ;
         crm:P115_finishes "2018-08-05" 
     ] .</v>
@@ -6464,11 +6525,12 @@
 &lt;https://w3id.org/ifcp/276/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:276 ;
+    crm:P21_had_general_purpose ifcp:276 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28212-19700401&gt; ;
     crm:P14_carried_out_by "坂越の船渡御祭保存会" ;
     crm:P67_refers_to &lt;https://kabegamiphoto.com/event/ako/oosakejinja-funematsuri.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-13" ;
         crm:P115_finishes "2018-10-14" 
     ] .</v>
@@ -6522,11 +6584,12 @@
 &lt;https://w3id.org/ifcp/282/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:282 ;
+    crm:P21_had_general_purpose ifcp:282 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05209-19980601&gt; ;
     crm:P14_carried_out_by "花輪ばやし祭典委員会" ;
     crm:P67_refers_to &lt;https://scoop-scoop.jp/scoop/scoop_hanawabayashi&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-19" ;
         crm:P115_finishes "2018-08-20" 
     ] .</v>
@@ -6580,11 +6643,12 @@
 &lt;https://w3id.org/ifcp/283/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:283 ;
+    crm:P21_had_general_purpose ifcp:283 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C06203-20180131&gt; ;
     crm:P14_carried_out_by "松例祭保存会" ;
     crm:P67_refers_to &lt;https://tsurumap.com/2018/12/19/20181231/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-12-31" ;
         crm:P115_finishes "2019-01-01" 
     ] .</v>
@@ -6638,11 +6702,12 @@
 &lt;https://w3id.org/ifcp/288/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:288 ;
+    crm:P21_had_general_purpose ifcp:288 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C21202-20091031&gt; ;
     crm:P14_carried_out_by "大垣祭保存会" ;
     crm:P67_refers_to &lt;https://japan-attractions.jp/ja/festivals/ogaki-fes/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-05-12" ;
         crm:P115_finishes "2018-05-13" 
     ] .</v>
@@ -6696,11 +6761,12 @@
 &lt;https://w3id.org/ifcp/290/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:290 ;
+    crm:P21_had_general_purpose ifcp:290 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30421-19700401&gt; ;
     crm:P14_carried_out_by "那智の扇祭り保存会" ;
     crm:P67_refers_to &lt;https://wbs.co.jp/news/2018/07/14/120891.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-14" ;
         crm:P115_finishes "2018-07-14" 
     ] .</v>
@@ -6754,11 +6820,12 @@
 &lt;https://w3id.org/ifcp/291/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:291 ;
+    crm:P21_had_general_purpose ifcp:291 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C25201-20090401&gt; ;
     crm:P14_carried_out_by "大津祭保存会" ;
     crm:P67_refers_to &lt;https://www.biwalake-otsuka.com/yado/2018/2018092001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-06" ;
         crm:P115_finishes "2018-10-07" 
     ] .</v>
@@ -6811,11 +6878,12 @@
 &lt;https://w3id.org/ifcp/"&amp;A67&amp;"/held/2018/"&amp;B67&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D67&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A67&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A67&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I67&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J67&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M67&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K67&amp;""" ;
         crm:P115_finishes """&amp;L67&amp;""" 
     ] ."</f>
@@ -6824,11 +6892,12 @@
 &lt;https://w3id.org/ifcp/292/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:292 ;
+    crm:P21_had_general_purpose ifcp:292 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C30207-20051001&gt; ;
     crm:P14_carried_out_by "熊野速玉大社祭事保存会" ;
     crm:P67_refers_to &lt;http://kumanohayatama.jp/?page_id=8&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-06" ;
         crm:P115_finishes "2018-02-06" 
     ] .</v>
@@ -6882,11 +6951,12 @@
 &lt;https://w3id.org/ifcp/293/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:293 ;
+    crm:P21_had_general_purpose ifcp:293 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C33201-20090401&gt; ;
     crm:P14_carried_out_by "西大寺会陽保存会" ;
     crm:P67_refers_to &lt;http://www.asahi.com/area/okayama/articles/MTW20180216340340001.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-17" ;
         crm:P115_finishes "2018-02-17" 
     ] .</v>
@@ -6935,11 +7005,12 @@
 &lt;https://w3id.org/ifcp/295/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:295 ;
+    crm:P21_had_general_purpose ifcp:295 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C08215-19981001&gt; ;
     crm:P14_carried_out_by "常陸大津の御船祭保存会" ;
     crm:P67_refers_to &lt;&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -6993,11 +7064,12 @@
 &lt;https://w3id.org/ifcp/301/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:301 ;
+    crm:P21_had_general_purpose ifcp:301 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15226-20051001&gt; ;
     crm:P14_carried_out_by "浦佐毘沙門堂裸押合大祭委員会" ;
     crm:P67_refers_to &lt;http://www.tsumugi-kan.jp/season/dtl.html?id=23&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-03-03" ;
         crm:P115_finishes "2018-03-03" 
     ] .</v>
@@ -7051,11 +7123,12 @@
 &lt;https://w3id.org/ifcp/302/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:302 ;
+    crm:P21_had_general_purpose ifcp:302 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C15212-20100616&gt; ;
     crm:P14_carried_out_by "村上まつり保存会" ;
     crm:P67_refers_to &lt;https://www.niikei.jp/19106/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-07-06" ;
         crm:P115_finishes "2018-07-07" 
     ] .</v>
